--- a/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
+++ b/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
@@ -465,11 +465,11 @@
         <v>19671</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -481,11 +481,11 @@
         <v>19825</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
@@ -497,11 +497,11 @@
         <v>20768</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
@@ -513,11 +513,11 @@
         <v>13146</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
@@ -529,11 +529,11 @@
         <v>13160</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
@@ -545,11 +545,11 @@
         <v>14389</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
@@ -561,11 +561,11 @@
         <v>15105</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
@@ -577,11 +577,11 @@
         <v>15438</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
@@ -593,11 +593,11 @@
         <v>15717</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
@@ -609,11 +609,11 @@
         <v>15841</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
@@ -625,11 +625,11 @@
         <v>16166</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
@@ -641,11 +641,11 @@
         <v>16320</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
@@ -657,11 +657,11 @@
         <v>16867</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
@@ -673,11 +673,11 @@
         <v>17220</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
@@ -689,11 +689,11 @@
         <v>17568</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
@@ -705,11 +705,11 @@
         <v>17718</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
@@ -721,11 +721,11 @@
         <v>18079</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
@@ -737,11 +737,11 @@
         <v>18078</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
@@ -753,11 +753,11 @@
         <v>18193</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
@@ -769,11 +769,11 @@
         <v>19014</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
@@ -785,11 +785,11 @@
         <v>19004</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
@@ -801,11 +801,11 @@
         <v>20853</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
@@ -817,11 +817,11 @@
         <v>21505</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
@@ -833,11 +833,11 @@
         <v>22750</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
@@ -849,11 +849,11 @@
         <v>22763</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
@@ -865,11 +865,11 @@
         <v>23165</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
@@ -881,11 +881,11 @@
         <v>23152</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
@@ -897,11 +897,11 @@
         <v>24107</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
@@ -913,11 +913,11 @@
         <v>24248</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
@@ -929,11 +929,11 @@
         <v>24330</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
@@ -945,11 +945,11 @@
         <v>24548</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
@@ -961,11 +961,11 @@
         <v>24772</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
@@ -977,11 +977,11 @@
         <v>24774</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
@@ -993,11 +993,11 @@
         <v>24922</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
@@ -1009,11 +1009,11 @@
         <v>25016</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
@@ -1025,11 +1025,11 @@
         <v>25116</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
@@ -1041,11 +1041,11 @@
         <v>25146</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
@@ -1057,11 +1057,11 @@
         <v>25655</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
@@ -1073,11 +1073,11 @@
         <v>25708</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
@@ -1089,11 +1089,11 @@
         <v>27295</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
@@ -1105,11 +1105,11 @@
         <v>27535</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
@@ -1121,11 +1121,11 @@
         <v>27856</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
@@ -1137,11 +1137,11 @@
         <v>27914</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
@@ -1153,11 +1153,11 @@
         <v>28067</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
@@ -1169,11 +1169,11 @@
         <v>28060</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
@@ -1185,11 +1185,11 @@
         <v>28342</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
@@ -1201,11 +1201,11 @@
         <v>28930</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
@@ -1217,11 +1217,11 @@
         <v>29094</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
@@ -1233,11 +1233,11 @@
         <v>29218</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
@@ -1249,11 +1249,11 @@
         <v>29210</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
@@ -1265,11 +1265,11 @@
         <v>29471</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
@@ -1281,11 +1281,11 @@
         <v>29472</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
@@ -1297,11 +1297,11 @@
         <v>29612</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
@@ -1313,11 +1313,11 @@
         <v>29726</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
@@ -1329,11 +1329,11 @@
         <v>29968</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
@@ -1345,11 +1345,11 @@
         <v>30461</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
@@ -1361,11 +1361,11 @@
         <v>30455</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
@@ -1377,11 +1377,11 @@
         <v>30447</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
@@ -1393,11 +1393,11 @@
         <v>30703</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
@@ -1409,11 +1409,11 @@
         <v>31436</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
@@ -1425,11 +1425,11 @@
         <v>31442</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
@@ -1441,11 +1441,11 @@
         <v>31444</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
@@ -1457,11 +1457,11 @@
         <v>31505</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
@@ -1473,11 +1473,11 @@
         <v>31516</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
@@ -1489,11 +1489,11 @@
         <v>31639</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
@@ -1505,11 +1505,11 @@
         <v>31745</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
@@ -1521,11 +1521,11 @@
         <v>31823</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
@@ -1537,11 +1537,11 @@
         <v>32127</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
@@ -1553,11 +1553,11 @@
         <v>32425</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
@@ -1569,11 +1569,11 @@
         <v>32886</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
@@ -1585,11 +1585,11 @@
         <v>33549</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
@@ -1601,11 +1601,11 @@
         <v>33994</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
@@ -1617,11 +1617,11 @@
         <v>33954</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
@@ -1633,11 +1633,11 @@
         <v>34168</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
@@ -1649,11 +1649,11 @@
         <v>33951</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
@@ -1665,11 +1665,11 @@
         <v>34257</v>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
@@ -1681,11 +1681,11 @@
         <v>34258</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
@@ -1697,11 +1697,11 @@
         <v>34387</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
@@ -1713,11 +1713,11 @@
         <v>34684</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
@@ -1729,11 +1729,11 @@
         <v>34685</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
@@ -1745,11 +1745,11 @@
         <v>34827</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
@@ -1761,11 +1761,11 @@
         <v>34829</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
@@ -1777,11 +1777,11 @@
         <v>34971</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
@@ -1793,11 +1793,11 @@
         <v>35053</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
@@ -1809,11 +1809,11 @@
         <v>35055</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
@@ -1825,11 +1825,11 @@
         <v>35161</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
@@ -1841,11 +1841,11 @@
         <v>35340</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
@@ -1857,11 +1857,11 @@
         <v>35272</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
@@ -1873,11 +1873,11 @@
         <v>35779</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
@@ -1889,11 +1889,11 @@
         <v>36028</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
@@ -1905,11 +1905,11 @@
         <v>36532</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
@@ -1921,11 +1921,11 @@
         <v>37024</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
@@ -1937,11 +1937,11 @@
         <v>37025</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
@@ -1953,11 +1953,11 @@
         <v>37026</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
@@ -1969,11 +1969,11 @@
         <v>37029</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
@@ -1985,11 +1985,11 @@
         <v>37032</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
@@ -2001,11 +2001,11 @@
         <v>37197</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
@@ -2017,11 +2017,11 @@
         <v>37448</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
@@ -2033,11 +2033,11 @@
         <v>37521</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
@@ -2049,11 +2049,11 @@
         <v>37526</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
@@ -2065,11 +2065,11 @@
         <v>37531</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
@@ -2081,11 +2081,11 @@
         <v>37808</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
@@ -2097,11 +2097,11 @@
         <v>37844</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
@@ -2113,11 +2113,11 @@
         <v>38175</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
@@ -2129,11 +2129,11 @@
         <v>38177</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
@@ -2145,11 +2145,11 @@
         <v>38252</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
@@ -2161,11 +2161,11 @@
         <v>38339</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
@@ -2177,11 +2177,11 @@
         <v>38477</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
@@ -2193,11 +2193,11 @@
         <v>38738</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
@@ -2209,11 +2209,11 @@
         <v>38783</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
@@ -2225,11 +2225,11 @@
         <v>39046</v>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
@@ -2241,11 +2241,11 @@
         <v>39163</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
@@ -2257,11 +2257,11 @@
         <v>39164</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
@@ -2273,11 +2273,11 @@
         <v>39165</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
@@ -2289,11 +2289,11 @@
         <v>39768</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
@@ -2305,11 +2305,11 @@
         <v>39970</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
@@ -2321,11 +2321,11 @@
         <v>40045</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
@@ -2337,11 +2337,11 @@
         <v>40672</v>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
@@ -2353,11 +2353,11 @@
         <v>41306</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
@@ -2369,11 +2369,11 @@
         <v>41525</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
@@ -2385,11 +2385,11 @@
         <v>41872</v>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
@@ -2401,11 +2401,11 @@
         <v>42694</v>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
@@ -2417,11 +2417,11 @@
         <v>43127</v>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
@@ -2433,11 +2433,11 @@
         <v>43232</v>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
@@ -2449,11 +2449,11 @@
         <v>43352</v>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
@@ -2465,11 +2465,11 @@
         <v>43437</v>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
@@ -2481,11 +2481,11 @@
         <v>43438</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
@@ -2497,11 +2497,11 @@
         <v>43670</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
@@ -2513,11 +2513,11 @@
         <v>43871</v>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
@@ -2529,11 +2529,11 @@
         <v>44037</v>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
@@ -2545,11 +2545,11 @@
         <v>44131</v>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
@@ -2561,11 +2561,11 @@
         <v>44901</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
@@ -2577,11 +2577,11 @@
         <v>45004</v>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
@@ -2593,11 +2593,11 @@
         <v>45005</v>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
@@ -2609,11 +2609,11 @@
         <v>45149</v>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
@@ -2625,11 +2625,11 @@
         <v>45412</v>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
@@ -2641,11 +2641,11 @@
         <v>45694</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
@@ -2657,11 +2657,11 @@
         <v>45696</v>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
@@ -2673,11 +2673,11 @@
         <v>46193</v>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
@@ -2689,11 +2689,11 @@
         <v>46103</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
@@ -2705,11 +2705,11 @@
         <v>46151</v>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
@@ -2721,11 +2721,11 @@
         <v>46879</v>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
@@ -2737,11 +2737,11 @@
         <v>46824</v>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D144" s="2" t="n">
@@ -2753,11 +2753,11 @@
         <v>46884</v>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
@@ -2769,11 +2769,11 @@
         <v>46937</v>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
@@ -2785,11 +2785,11 @@
         <v>47158</v>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
@@ -2801,11 +2801,11 @@
         <v>47160</v>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D148" s="2" t="n">
@@ -2817,11 +2817,11 @@
         <v>47068</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D149" s="2" t="n">
@@ -2833,11 +2833,11 @@
         <v>47069</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
@@ -2849,11 +2849,11 @@
         <v>47169</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
@@ -2865,11 +2865,11 @@
         <v>47173</v>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D152" s="2" t="n">
@@ -2881,11 +2881,11 @@
         <v>47418</v>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D153" s="2" t="n">
@@ -2897,11 +2897,11 @@
         <v>47605</v>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D154" s="2" t="n">
@@ -2913,11 +2913,11 @@
         <v>47779</v>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D155" s="2" t="n">
@@ -2929,11 +2929,11 @@
         <v>47802</v>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
@@ -2945,11 +2945,11 @@
         <v>47809</v>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
@@ -2961,11 +2961,11 @@
         <v>48099</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
@@ -2977,11 +2977,11 @@
         <v>48416</v>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D159" s="2" t="n">
@@ -2993,11 +2993,11 @@
         <v>48423</v>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D160" s="2" t="n">
@@ -3009,11 +3009,11 @@
         <v>48563</v>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D161" s="2" t="n">
@@ -3025,11 +3025,11 @@
         <v>48738</v>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
@@ -3041,11 +3041,11 @@
         <v>48739</v>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D163" s="2" t="n">
@@ -3057,11 +3057,11 @@
         <v>49070</v>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
@@ -3073,11 +3073,11 @@
         <v>49238</v>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D165" s="2" t="n">
@@ -3089,11 +3089,11 @@
         <v>49240</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D166" s="2" t="n">
@@ -3105,11 +3105,11 @@
         <v>49450</v>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D167" s="2" t="n">
@@ -3121,11 +3121,11 @@
         <v>49460</v>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
@@ -3137,11 +3137,11 @@
         <v>49812</v>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D169" s="2" t="n">
@@ -3153,11 +3153,11 @@
         <v>49817</v>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D170" s="2" t="n">
@@ -3169,11 +3169,11 @@
         <v>49903</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D171" s="2" t="n">
@@ -3185,11 +3185,11 @@
         <v>49904</v>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D172" s="2" t="n">
@@ -3201,11 +3201,11 @@
         <v>49979</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D173" s="2" t="n">
@@ -3217,11 +3217,11 @@
         <v>49982</v>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D174" s="2" t="n">
@@ -3233,11 +3233,11 @@
         <v>49987</v>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
@@ -3249,11 +3249,11 @@
         <v>49994</v>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
@@ -3265,11 +3265,11 @@
         <v>50059</v>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D177" s="2" t="n">
@@ -3281,11 +3281,11 @@
         <v>50783</v>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D178" s="2" t="n">
@@ -3297,11 +3297,11 @@
         <v>50962</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D179" s="2" t="n">
@@ -3313,11 +3313,11 @@
         <v>51208</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D180" s="2" t="n">
@@ -3329,11 +3329,11 @@
         <v>51212</v>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D181" s="2" t="n">
@@ -3345,11 +3345,11 @@
         <v>51215</v>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D182" s="2" t="n">
@@ -3361,11 +3361,11 @@
         <v>51216</v>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
@@ -3377,11 +3377,11 @@
         <v>51332</v>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D184" s="2" t="n">
@@ -3393,11 +3393,11 @@
         <v>51333</v>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D185" s="2" t="n">
@@ -3409,11 +3409,11 @@
         <v>51543</v>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
@@ -3425,11 +3425,11 @@
         <v>51641</v>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D187" s="2" t="n">
@@ -3441,11 +3441,11 @@
         <v>51553</v>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D188" s="2" t="n">
@@ -3457,11 +3457,11 @@
         <v>51554</v>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D189" s="2" t="n">
@@ -3473,11 +3473,11 @@
         <v>51915</v>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D190" s="2" t="n">
@@ -3489,11 +3489,11 @@
         <v>52253</v>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D191" s="2" t="n">
@@ -3505,11 +3505,11 @@
         <v>52329</v>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D192" s="2" t="n">
@@ -3521,11 +3521,11 @@
         <v>52255</v>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D193" s="2" t="n">
@@ -3537,11 +3537,11 @@
         <v>52332</v>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D194" s="2" t="n">
@@ -3553,11 +3553,11 @@
         <v>52589</v>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D195" s="2" t="n">
@@ -3569,11 +3569,11 @@
         <v>52658</v>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D196" s="2" t="n">
@@ -3585,11 +3585,11 @@
         <v>52997</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D197" s="2" t="n">
@@ -3601,11 +3601,11 @@
         <v>53259</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D198" s="2" t="n">
@@ -3617,11 +3617,11 @@
         <v>53391</v>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D199" s="2" t="n">
@@ -3633,11 +3633,11 @@
         <v>53386</v>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D200" s="2" t="n">
@@ -3649,11 +3649,11 @@
         <v>53429</v>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D201" s="2" t="n">
@@ -3665,11 +3665,11 @@
         <v>53507</v>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D202" s="2" t="n">
@@ -3681,11 +3681,11 @@
         <v>54163</v>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D203" s="2" t="n">
@@ -3697,11 +3697,11 @@
         <v>54715</v>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D204" s="2" t="n">
@@ -3713,11 +3713,11 @@
         <v>54719</v>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D205" s="2" t="n">
@@ -3729,11 +3729,11 @@
         <v>55055</v>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D206" s="2" t="n">
@@ -3745,11 +3745,11 @@
         <v>55129</v>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D207" s="2" t="n">
@@ -3761,11 +3761,11 @@
         <v>55159</v>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D208" s="2" t="n">
@@ -3777,11 +3777,11 @@
         <v>55148</v>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D209" s="2" t="n">
@@ -3793,11 +3793,11 @@
         <v>55499</v>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D210" s="2" t="n">
@@ -3809,11 +3809,11 @@
         <v>55688</v>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D211" s="2" t="n">
@@ -3825,11 +3825,11 @@
         <v>55790</v>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D212" s="2" t="n">
@@ -3841,11 +3841,11 @@
         <v>55795</v>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D213" s="2" t="n">
@@ -3857,11 +3857,11 @@
         <v>55891</v>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D214" s="2" t="n">
@@ -3873,11 +3873,11 @@
         <v>55894</v>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D215" s="2" t="n">
@@ -3889,11 +3889,11 @@
         <v>56211</v>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D216" s="2" t="n">
@@ -3905,11 +3905,11 @@
         <v>56213</v>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D217" s="2" t="n">
@@ -3921,11 +3921,11 @@
         <v>56214</v>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D218" s="2" t="n">
@@ -3937,11 +3937,11 @@
         <v>56784</v>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D219" s="2" t="n">
@@ -3953,11 +3953,11 @@
         <v>56931</v>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D220" s="2" t="n">
@@ -3969,11 +3969,11 @@
         <v>56937</v>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D221" s="2" t="n">
@@ -3985,11 +3985,11 @@
         <v>57570</v>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D222" s="2" t="n">
@@ -4001,11 +4001,11 @@
         <v>57631</v>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D223" s="2" t="n">
@@ -4017,11 +4017,11 @@
         <v>57739</v>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D224" s="2" t="n">
@@ -4033,11 +4033,11 @@
         <v>57819</v>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D225" s="2" t="n">
@@ -4049,11 +4049,11 @@
         <v>58378</v>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D226" s="2" t="n">
@@ -4065,11 +4065,11 @@
         <v>58383</v>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D227" s="2" t="n">
@@ -4081,11 +4081,11 @@
         <v>58428</v>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D228" s="2" t="n">
@@ -4097,11 +4097,11 @@
         <v>58579</v>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D229" s="2" t="n">
@@ -4113,11 +4113,11 @@
         <v>58586</v>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D230" s="2" t="n">
@@ -4129,11 +4129,11 @@
         <v>58587</v>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D231" s="2" t="n">
@@ -4145,11 +4145,11 @@
         <v>58590</v>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D232" s="2" t="n">
@@ -4161,11 +4161,11 @@
         <v>58980</v>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D233" s="2" t="n">
@@ -4177,11 +4177,11 @@
         <v>58987</v>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D234" s="2" t="n">
@@ -4193,11 +4193,11 @@
         <v>59067</v>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D235" s="2" t="n">
@@ -4209,11 +4209,11 @@
         <v>59290</v>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D236" s="2" t="n">
@@ -4225,11 +4225,11 @@
         <v>59293</v>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D237" s="2" t="n">
@@ -4241,11 +4241,11 @@
         <v>59737</v>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D238" s="2" t="n">
@@ -4257,11 +4257,11 @@
         <v>59743</v>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D239" s="2" t="n">
@@ -4273,11 +4273,11 @@
         <v>59744</v>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D240" s="2" t="n">
@@ -4289,11 +4289,11 @@
         <v>59751</v>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D241" s="2" t="n">
@@ -4305,11 +4305,11 @@
         <v>59890</v>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D242" s="2" t="n">
@@ -4321,11 +4321,11 @@
         <v>59896</v>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D243" s="2" t="n">
@@ -4337,11 +4337,11 @@
         <v>59900</v>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D244" s="2" t="n">
@@ -4353,11 +4353,11 @@
         <v>59908</v>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D245" s="2" t="n">
@@ -4369,11 +4369,11 @@
         <v>60149</v>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D246" s="2" t="n">
@@ -4385,11 +4385,11 @@
         <v>60374</v>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D247" s="2" t="n">
@@ -4401,11 +4401,11 @@
         <v>60612</v>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D248" s="2" t="n">
@@ -4417,11 +4417,11 @@
         <v>60623</v>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D249" s="2" t="n">
@@ -4433,11 +4433,11 @@
         <v>60679</v>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D250" s="2" t="n">
@@ -4449,11 +4449,11 @@
         <v>60738</v>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D251" s="2" t="n">
@@ -4465,11 +4465,11 @@
         <v>60743</v>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D252" s="2" t="n">
@@ -4481,11 +4481,11 @@
         <v>60872</v>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D253" s="2" t="n">
@@ -4497,11 +4497,11 @@
         <v>60873</v>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D254" s="2" t="n">
@@ -4513,11 +4513,11 @@
         <v>60874</v>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D255" s="2" t="n">
@@ -4529,11 +4529,11 @@
         <v>60882</v>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D256" s="2" t="n">
@@ -4545,11 +4545,11 @@
         <v>61067</v>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D257" s="2" t="n">
@@ -4561,11 +4561,11 @@
         <v>61285</v>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D258" s="2" t="n">
@@ -4577,11 +4577,11 @@
         <v>61286</v>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D259" s="2" t="n">
@@ -4593,11 +4593,11 @@
         <v>61248</v>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D260" s="2" t="n">
@@ -4609,11 +4609,11 @@
         <v>61528</v>
       </c>
       <c r="B261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D261" s="2" t="n">
@@ -4625,11 +4625,11 @@
         <v>61483</v>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D262" s="2" t="n">
@@ -4641,11 +4641,11 @@
         <v>61920</v>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D263" s="2" t="n">
@@ -4657,11 +4657,11 @@
         <v>61927</v>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D264" s="2" t="n">
@@ -4673,11 +4673,11 @@
         <v>61928</v>
       </c>
       <c r="B265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D265" s="2" t="n">
@@ -4689,11 +4689,11 @@
         <v>62050</v>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D266" s="2" t="n">
@@ -4705,11 +4705,11 @@
         <v>62128</v>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D267" s="2" t="n">
@@ -4721,11 +4721,11 @@
         <v>62348</v>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D268" s="2" t="n">
@@ -4737,11 +4737,11 @@
         <v>62213</v>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D269" s="2" t="n">
@@ -4753,11 +4753,11 @@
         <v>62214</v>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D270" s="2" t="n">
@@ -4769,11 +4769,11 @@
         <v>62353</v>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D271" s="2" t="n">
@@ -4785,11 +4785,11 @@
         <v>62619</v>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D272" s="2" t="n">
@@ -4801,11 +4801,11 @@
         <v>62855</v>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D273" s="2" t="n">
@@ -4817,11 +4817,11 @@
         <v>62965</v>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D274" s="2" t="n">
@@ -4833,11 +4833,11 @@
         <v>63040</v>
       </c>
       <c r="B275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D275" s="2" t="n">
@@ -4849,11 +4849,11 @@
         <v>63048</v>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D276" s="2" t="n">
@@ -4865,11 +4865,11 @@
         <v>63052</v>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D277" s="2" t="n">
@@ -4881,11 +4881,11 @@
         <v>63061</v>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D278" s="2" t="n">
@@ -4897,11 +4897,11 @@
         <v>63841</v>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D279" s="2" t="n">
@@ -4913,11 +4913,11 @@
         <v>63843</v>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D280" s="2" t="n">
@@ -4929,11 +4929,11 @@
         <v>63952</v>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D281" s="2" t="n">
@@ -4945,11 +4945,11 @@
         <v>63957</v>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D282" s="2" t="n">
@@ -4961,11 +4961,11 @@
         <v>64120</v>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D283" s="2" t="n">
@@ -4977,11 +4977,11 @@
         <v>64122</v>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D284" s="2" t="n">
@@ -4993,11 +4993,11 @@
         <v>64625</v>
       </c>
       <c r="B285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D285" s="2" t="n">
@@ -5009,11 +5009,11 @@
         <v>64510</v>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D286" s="2" t="n">
@@ -5025,11 +5025,11 @@
         <v>64629</v>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D287" s="2" t="n">
@@ -5041,11 +5041,11 @@
         <v>64631</v>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D288" s="2" t="n">
@@ -5057,11 +5057,11 @@
         <v>65332</v>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D289" s="2" t="n">
@@ -5073,11 +5073,11 @@
         <v>65918</v>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D290" s="2" t="n">
@@ -5089,11 +5089,11 @@
         <v>66043</v>
       </c>
       <c r="B291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D291" s="2" t="n">
@@ -5105,11 +5105,11 @@
         <v>66114</v>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D292" s="2" t="n">
@@ -5121,11 +5121,11 @@
         <v>66115</v>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D293" s="2" t="n">
@@ -5137,11 +5137,11 @@
         <v>66344</v>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D294" s="2" t="n">
@@ -5153,11 +5153,11 @@
         <v>66348</v>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D295" s="2" t="n">
@@ -5169,11 +5169,11 @@
         <v>66166</v>
       </c>
       <c r="B296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D296" s="2" t="n">
@@ -5185,11 +5185,11 @@
         <v>66167</v>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D297" s="2" t="n">
@@ -5201,11 +5201,11 @@
         <v>66349</v>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D298" s="2" t="n">
@@ -5217,11 +5217,11 @@
         <v>66173</v>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D299" s="2" t="n">
@@ -5233,11 +5233,11 @@
         <v>66600</v>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D300" s="2" t="n">
@@ -5249,11 +5249,11 @@
         <v>66944</v>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D301" s="2" t="n">
@@ -5265,11 +5265,11 @@
         <v>66947</v>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D302" s="2" t="n">
@@ -5281,11 +5281,11 @@
         <v>66615</v>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D303" s="2" t="n">
@@ -5297,11 +5297,11 @@
         <v>66617</v>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D304" s="2" t="n">
@@ -5313,11 +5313,11 @@
         <v>66952</v>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D305" s="2" t="n">
@@ -5329,11 +5329,11 @@
         <v>66677</v>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D306" s="2" t="n">
@@ -5345,11 +5345,11 @@
         <v>66734</v>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D307" s="2" t="n">
@@ -5361,11 +5361,11 @@
         <v>66839</v>
       </c>
       <c r="B308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D308" s="2" t="n">
@@ -5377,11 +5377,11 @@
         <v>66959</v>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D309" s="2" t="n">
@@ -5393,11 +5393,11 @@
         <v>66960</v>
       </c>
       <c r="B310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D310" s="2" t="n">
@@ -5409,11 +5409,11 @@
         <v>66961</v>
       </c>
       <c r="B311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D311" s="2" t="n">
@@ -5425,11 +5425,11 @@
         <v>66843</v>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D312" s="2" t="n">
@@ -5441,11 +5441,11 @@
         <v>67300</v>
       </c>
       <c r="B313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D313" s="2" t="n">
@@ -5457,11 +5457,11 @@
         <v>67634</v>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D314" s="2" t="n">
@@ -5473,11 +5473,11 @@
         <v>67518</v>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D315" s="2" t="n">
@@ -5489,11 +5489,11 @@
         <v>67551</v>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D316" s="2" t="n">
@@ -5505,11 +5505,11 @@
         <v>67689</v>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D317" s="2" t="n">
@@ -5521,11 +5521,11 @@
         <v>67635</v>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D318" s="2" t="n">
@@ -5537,11 +5537,11 @@
         <v>68466</v>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D319" s="2" t="n">
@@ -5553,11 +5553,11 @@
         <v>67637</v>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D320" s="2" t="n">
@@ -5569,11 +5569,11 @@
         <v>67638</v>
       </c>
       <c r="B321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D321" s="2" t="n">
@@ -5585,11 +5585,11 @@
         <v>68179</v>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D322" s="2" t="n">
@@ -5601,11 +5601,11 @@
         <v>68186</v>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D323" s="2" t="n">
@@ -5617,11 +5617,11 @@
         <v>68323</v>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D324" s="2" t="n">
@@ -5633,11 +5633,11 @@
         <v>68419</v>
       </c>
       <c r="B325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D325" s="2" t="n">
@@ -5649,11 +5649,11 @@
         <v>68093</v>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D326" s="2" t="n">
@@ -5665,11 +5665,11 @@
         <v>68420</v>
       </c>
       <c r="B327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D327" s="2" t="n">
@@ -5681,11 +5681,11 @@
         <v>68743</v>
       </c>
       <c r="B328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D328" s="2" t="n">
@@ -5697,11 +5697,11 @@
         <v>68744</v>
       </c>
       <c r="B329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D329" s="2" t="n">
@@ -5713,11 +5713,11 @@
         <v>68745</v>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D330" s="2" t="n">
@@ -5729,11 +5729,11 @@
         <v>68748</v>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D331" s="2" t="n">
@@ -5745,11 +5745,11 @@
         <v>68751</v>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D332" s="2" t="n">
@@ -5761,11 +5761,11 @@
         <v>68754</v>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D333" s="2" t="n">
@@ -5777,11 +5777,11 @@
         <v>68846</v>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D334" s="2" t="n">
@@ -5793,11 +5793,11 @@
         <v>68902</v>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D335" s="2" t="n">
@@ -5809,11 +5809,11 @@
         <v>69641</v>
       </c>
       <c r="B336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D336" s="2" t="n">
@@ -5825,11 +5825,11 @@
         <v>69656</v>
       </c>
       <c r="B337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D337" s="2" t="n">
@@ -5841,11 +5841,11 @@
         <v>69762</v>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D338" s="2" t="n">
@@ -5857,11 +5857,11 @@
         <v>69913</v>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D339" s="2" t="n">
@@ -5873,11 +5873,11 @@
         <v>70334</v>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D340" s="2" t="n">
@@ -5889,11 +5889,11 @@
         <v>70335</v>
       </c>
       <c r="B341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D341" s="2" t="n">
@@ -5905,11 +5905,11 @@
         <v>70300</v>
       </c>
       <c r="B342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D342" s="2" t="n">
@@ -5921,11 +5921,11 @@
         <v>70341</v>
       </c>
       <c r="B343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D343" s="2" t="n">
@@ -5937,11 +5937,11 @@
         <v>70699</v>
       </c>
       <c r="B344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D344" s="2" t="n">
@@ -5953,11 +5953,11 @@
         <v>70870</v>
       </c>
       <c r="B345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D345" s="2" t="n">
@@ -5969,11 +5969,11 @@
         <v>71055</v>
       </c>
       <c r="B346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D346" s="2" t="n">
@@ -5985,11 +5985,11 @@
         <v>71056</v>
       </c>
       <c r="B347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D347" s="2" t="n">
@@ -6001,11 +6001,11 @@
         <v>71062</v>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D348" s="2" t="n">
@@ -6017,11 +6017,11 @@
         <v>71169</v>
       </c>
       <c r="B349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D349" s="2" t="n">
@@ -6033,11 +6033,11 @@
         <v>71171</v>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D350" s="2" t="n">
@@ -6049,11 +6049,11 @@
         <v>71249</v>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D351" s="2" t="n">
@@ -6065,11 +6065,11 @@
         <v>71418</v>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D352" s="2" t="n">
@@ -6081,11 +6081,11 @@
         <v>71422</v>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D353" s="2" t="n">
@@ -6097,11 +6097,11 @@
         <v>71428</v>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D354" s="2" t="n">
@@ -6113,11 +6113,11 @@
         <v>71654</v>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D355" s="2" t="n">
@@ -6129,11 +6129,11 @@
         <v>71777</v>
       </c>
       <c r="B356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D356" s="2" t="n">
@@ -6145,11 +6145,11 @@
         <v>71781</v>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D357" s="2" t="n">
@@ -6161,11 +6161,11 @@
         <v>71988</v>
       </c>
       <c r="B358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D358" s="2" t="n">
@@ -6177,11 +6177,11 @@
         <v>72006</v>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D359" s="2" t="n">
@@ -6193,11 +6193,11 @@
         <v>72000</v>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D360" s="2" t="n">
@@ -6209,11 +6209,11 @@
         <v>72190</v>
       </c>
       <c r="B361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D361" s="2" t="n">
@@ -6225,11 +6225,11 @@
         <v>72532</v>
       </c>
       <c r="B362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D362" s="2" t="n">
@@ -6241,11 +6241,11 @@
         <v>72657</v>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D363" s="2" t="n">
@@ -6257,11 +6257,11 @@
         <v>72658</v>
       </c>
       <c r="B364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D364" s="2" t="n">
@@ -6273,11 +6273,11 @@
         <v>72743</v>
       </c>
       <c r="B365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D365" s="2" t="n">
@@ -6289,11 +6289,11 @@
         <v>72979</v>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D366" s="2" t="n">
@@ -6305,11 +6305,11 @@
         <v>72980</v>
       </c>
       <c r="B367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D367" s="2" t="n">
@@ -6321,11 +6321,11 @@
         <v>72982</v>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D368" s="2" t="n">
@@ -6337,11 +6337,11 @@
         <v>73350</v>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D369" s="2" t="n">
@@ -6353,11 +6353,11 @@
         <v>73441</v>
       </c>
       <c r="B370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D370" s="2" t="n">
@@ -6369,11 +6369,11 @@
         <v>73442</v>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D371" s="2" t="n">
@@ -6385,11 +6385,11 @@
         <v>73443</v>
       </c>
       <c r="B372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D372" s="2" t="n">
@@ -6401,11 +6401,11 @@
         <v>73464</v>
       </c>
       <c r="B373" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D373" s="2" t="n">
@@ -6417,11 +6417,11 @@
         <v>73490</v>
       </c>
       <c r="B374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D374" s="2" t="n">
@@ -6433,11 +6433,11 @@
         <v>73531</v>
       </c>
       <c r="B375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D375" s="2" t="n">
@@ -6449,11 +6449,11 @@
         <v>73693</v>
       </c>
       <c r="B376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D376" s="2" t="n">
@@ -6465,11 +6465,11 @@
         <v>73740</v>
       </c>
       <c r="B377" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D377" s="2" t="n">
@@ -6481,11 +6481,11 @@
         <v>73742</v>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D378" s="2" t="n">
@@ -6497,11 +6497,11 @@
         <v>73847</v>
       </c>
       <c r="B379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D379" s="2" t="n">
@@ -6513,11 +6513,11 @@
         <v>73848</v>
       </c>
       <c r="B380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D380" s="2" t="n">
@@ -6529,11 +6529,11 @@
         <v>74002</v>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D381" s="2" t="n">
@@ -6545,11 +6545,11 @@
         <v>74003</v>
       </c>
       <c r="B382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D382" s="2" t="n">
@@ -6561,11 +6561,11 @@
         <v>74067</v>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D383" s="2" t="n">
@@ -6577,11 +6577,11 @@
         <v>74394</v>
       </c>
       <c r="B384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D384" s="2" t="n">
@@ -6593,11 +6593,11 @@
         <v>74397</v>
       </c>
       <c r="B385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D385" s="2" t="n">
@@ -6609,11 +6609,11 @@
         <v>74398</v>
       </c>
       <c r="B386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D386" s="2" t="n">
@@ -6625,11 +6625,11 @@
         <v>74491</v>
       </c>
       <c r="B387" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D387" s="2" t="n">
@@ -6641,11 +6641,11 @@
         <v>74512</v>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D388" s="2" t="n">
@@ -6657,11 +6657,11 @@
         <v>74514</v>
       </c>
       <c r="B389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D389" s="2" t="n">
@@ -6673,11 +6673,11 @@
         <v>74517</v>
       </c>
       <c r="B390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D390" s="2" t="n">
@@ -6689,11 +6689,11 @@
         <v>74520</v>
       </c>
       <c r="B391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D391" s="2" t="n">
@@ -6705,11 +6705,11 @@
         <v>74885</v>
       </c>
       <c r="B392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D392" s="2" t="n">
@@ -6721,11 +6721,11 @@
         <v>74886</v>
       </c>
       <c r="B393" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D393" s="2" t="n">
@@ -6737,11 +6737,11 @@
         <v>74825</v>
       </c>
       <c r="B394" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D394" s="2" t="n">
@@ -6753,11 +6753,11 @@
         <v>74827</v>
       </c>
       <c r="B395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D395" s="2" t="n">
@@ -6769,11 +6769,11 @@
         <v>74949</v>
       </c>
       <c r="B396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D396" s="2" t="n">
@@ -6785,11 +6785,11 @@
         <v>75122</v>
       </c>
       <c r="B397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D397" s="2" t="n">
@@ -6801,11 +6801,11 @@
         <v>74970</v>
       </c>
       <c r="B398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D398" s="2" t="n">
@@ -6817,11 +6817,11 @@
         <v>75123</v>
       </c>
       <c r="B399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D399" s="2" t="n">
@@ -6833,11 +6833,11 @@
         <v>74971</v>
       </c>
       <c r="B400" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D400" s="2" t="n">
@@ -6849,11 +6849,11 @@
         <v>75124</v>
       </c>
       <c r="B401" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D401" s="2" t="n">
@@ -6865,11 +6865,11 @@
         <v>75126</v>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D402" s="2" t="n">
@@ -6881,11 +6881,11 @@
         <v>75298</v>
       </c>
       <c r="B403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D403" s="2" t="n">
@@ -6897,11 +6897,11 @@
         <v>75300</v>
       </c>
       <c r="B404" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D404" s="2" t="n">
@@ -6913,11 +6913,11 @@
         <v>75302</v>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D405" s="2" t="n">
@@ -6929,11 +6929,11 @@
         <v>75327</v>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D406" s="2" t="n">
@@ -6945,11 +6945,11 @@
         <v>75357</v>
       </c>
       <c r="B407" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D407" s="2" t="n">
@@ -6961,11 +6961,11 @@
         <v>75358</v>
       </c>
       <c r="B408" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D408" s="2" t="n">
@@ -6977,11 +6977,11 @@
         <v>75365</v>
       </c>
       <c r="B409" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D409" s="2" t="n">
@@ -6993,11 +6993,11 @@
         <v>75483</v>
       </c>
       <c r="B410" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D410" s="2" t="n">
@@ -7009,11 +7009,11 @@
         <v>75493</v>
       </c>
       <c r="B411" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D411" s="2" t="n">
@@ -7025,11 +7025,11 @@
         <v>75769</v>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D412" s="2" t="n">
@@ -7041,11 +7041,11 @@
         <v>75742</v>
       </c>
       <c r="B413" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D413" s="2" t="n">
@@ -7057,11 +7057,11 @@
         <v>75985</v>
       </c>
       <c r="B414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D414" s="2" t="n">
@@ -7073,11 +7073,11 @@
         <v>76082</v>
       </c>
       <c r="B415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D415" s="2" t="n">
@@ -7089,11 +7089,11 @@
         <v>76223</v>
       </c>
       <c r="B416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D416" s="2" t="n">
@@ -7105,11 +7105,11 @@
         <v>76405</v>
       </c>
       <c r="B417" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D417" s="2" t="n">
@@ -7121,11 +7121,11 @@
         <v>76408</v>
       </c>
       <c r="B418" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D418" s="2" t="n">
@@ -7137,11 +7137,11 @@
         <v>76498</v>
       </c>
       <c r="B419" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D419" s="2" t="n">
@@ -7153,11 +7153,11 @@
         <v>76533</v>
       </c>
       <c r="B420" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D420" s="2" t="n">
@@ -7169,11 +7169,11 @@
         <v>76577</v>
       </c>
       <c r="B421" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D421" s="2" t="n">
@@ -7185,11 +7185,11 @@
         <v>76653</v>
       </c>
       <c r="B422" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D422" s="2" t="n">
@@ -7201,11 +7201,11 @@
         <v>76710</v>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D423" s="2" t="n">
@@ -7217,11 +7217,11 @@
         <v>76786</v>
       </c>
       <c r="B424" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D424" s="2" t="n">
@@ -7233,11 +7233,11 @@
         <v>76788</v>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D425" s="2" t="n">
@@ -7249,11 +7249,11 @@
         <v>76881</v>
       </c>
       <c r="B426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D426" s="2" t="n">
@@ -7265,11 +7265,11 @@
         <v>76880</v>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D427" s="2" t="n">
@@ -7281,11 +7281,11 @@
         <v>76939</v>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D428" s="2" t="n">
@@ -7297,11 +7297,11 @@
         <v>76945</v>
       </c>
       <c r="B429" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D429" s="2" t="n">
@@ -7313,11 +7313,11 @@
         <v>77125</v>
       </c>
       <c r="B430" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D430" s="2" t="n">
@@ -7329,11 +7329,11 @@
         <v>77216</v>
       </c>
       <c r="B431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D431" s="2" t="n">
@@ -7345,11 +7345,11 @@
         <v>77439</v>
       </c>
       <c r="B432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D432" s="2" t="n">
@@ -7361,11 +7361,11 @@
         <v>77600</v>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D433" s="2" t="n">
@@ -7377,11 +7377,11 @@
         <v>77794</v>
       </c>
       <c r="B434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D434" s="2" t="n">
@@ -7393,11 +7393,11 @@
         <v>78067</v>
       </c>
       <c r="B435" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D435" s="2" t="n">
@@ -7409,11 +7409,11 @@
         <v>78069</v>
       </c>
       <c r="B436" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D436" s="2" t="n">
@@ -7425,11 +7425,11 @@
         <v>78235</v>
       </c>
       <c r="B437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D437" s="2" t="n">
@@ -7441,11 +7441,11 @@
         <v>78236</v>
       </c>
       <c r="B438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D438" s="2" t="n">
@@ -7457,11 +7457,11 @@
         <v>78237</v>
       </c>
       <c r="B439" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D439" s="2" t="n">
@@ -7473,11 +7473,11 @@
         <v>78414</v>
       </c>
       <c r="B440" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D440" s="2" t="n">
@@ -7489,11 +7489,11 @@
         <v>78598</v>
       </c>
       <c r="B441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D441" s="2" t="n">
@@ -7505,11 +7505,11 @@
         <v>78787</v>
       </c>
       <c r="B442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D442" s="2" t="n">
@@ -7521,11 +7521,11 @@
         <v>78790</v>
       </c>
       <c r="B443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D443" s="2" t="n">
@@ -7537,11 +7537,11 @@
         <v>78791</v>
       </c>
       <c r="B444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D444" s="2" t="n">
@@ -7553,11 +7553,11 @@
         <v>79041</v>
       </c>
       <c r="B445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D445" s="2" t="n">
@@ -7569,11 +7569,11 @@
         <v>79345</v>
       </c>
       <c r="B446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D446" s="2" t="n">
@@ -7585,11 +7585,11 @@
         <v>79347</v>
       </c>
       <c r="B447" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D447" s="2" t="n">
@@ -7601,11 +7601,11 @@
         <v>79285</v>
       </c>
       <c r="B448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D448" s="2" t="n">
@@ -7617,11 +7617,11 @@
         <v>79282</v>
       </c>
       <c r="B449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D449" s="2" t="n">
@@ -7633,11 +7633,11 @@
         <v>79283</v>
       </c>
       <c r="B450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D450" s="2" t="n">
@@ -7649,11 +7649,11 @@
         <v>79349</v>
       </c>
       <c r="B451" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D451" s="2" t="n">
@@ -7665,11 +7665,11 @@
         <v>79525</v>
       </c>
       <c r="B452" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D452" s="2" t="n">
@@ -7681,11 +7681,11 @@
         <v>79526</v>
       </c>
       <c r="B453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D453" s="2" t="n">
@@ -7697,11 +7697,11 @@
         <v>79527</v>
       </c>
       <c r="B454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D454" s="2" t="n">
@@ -7713,11 +7713,11 @@
         <v>79530</v>
       </c>
       <c r="B455" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D455" s="2" t="n">
@@ -7729,11 +7729,11 @@
         <v>79542</v>
       </c>
       <c r="B456" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D456" s="2" t="n">
@@ -7745,11 +7745,11 @@
         <v>79543</v>
       </c>
       <c r="B457" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D457" s="2" t="n">
@@ -7761,11 +7761,11 @@
         <v>79533</v>
       </c>
       <c r="B458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D458" s="2" t="n">
@@ -7777,11 +7777,11 @@
         <v>79534</v>
       </c>
       <c r="B459" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D459" s="2" t="n">
@@ -7793,11 +7793,11 @@
         <v>79537</v>
       </c>
       <c r="B460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D460" s="2" t="n">
@@ -7809,11 +7809,11 @@
         <v>79599</v>
       </c>
       <c r="B461" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D461" s="2" t="n">
@@ -7825,11 +7825,11 @@
         <v>79602</v>
       </c>
       <c r="B462" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D462" s="2" t="n">
@@ -7841,11 +7841,11 @@
         <v>79611</v>
       </c>
       <c r="B463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D463" s="2" t="n">
@@ -7857,11 +7857,11 @@
         <v>79531</v>
       </c>
       <c r="B464" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D464" s="2" t="n">
@@ -7873,11 +7873,11 @@
         <v>79607</v>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D465" s="2" t="n">
@@ -7889,11 +7889,11 @@
         <v>79608</v>
       </c>
       <c r="B466" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D466" s="2" t="n">
@@ -7905,11 +7905,11 @@
         <v>79678</v>
       </c>
       <c r="B467" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D467" s="2" t="n">
@@ -7921,11 +7921,11 @@
         <v>79750</v>
       </c>
       <c r="B468" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D468" s="2" t="n">
@@ -7937,11 +7937,11 @@
         <v>79746</v>
       </c>
       <c r="B469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D469" s="2" t="n">
@@ -7953,11 +7953,11 @@
         <v>79932</v>
       </c>
       <c r="B470" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D470" s="2" t="n">
@@ -7969,11 +7969,11 @@
         <v>79933</v>
       </c>
       <c r="B471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D471" s="2" t="n">
@@ -7985,11 +7985,11 @@
         <v>79934</v>
       </c>
       <c r="B472" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D472" s="2" t="n">
@@ -8001,11 +8001,11 @@
         <v>79977</v>
       </c>
       <c r="B473" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D473" s="2" t="n">
@@ -8017,11 +8017,11 @@
         <v>79978</v>
       </c>
       <c r="B474" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D474" s="2" t="n">
@@ -8033,11 +8033,11 @@
         <v>79979</v>
       </c>
       <c r="B475" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D475" s="2" t="n">
@@ -8049,11 +8049,11 @@
         <v>79980</v>
       </c>
       <c r="B476" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D476" s="2" t="n">
@@ -8065,11 +8065,11 @@
         <v>80115</v>
       </c>
       <c r="B477" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D477" s="2" t="n">
@@ -8081,11 +8081,11 @@
         <v>80116</v>
       </c>
       <c r="B478" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D478" s="2" t="n">
@@ -8097,11 +8097,11 @@
         <v>80117</v>
       </c>
       <c r="B479" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D479" s="2" t="n">
@@ -8113,11 +8113,11 @@
         <v>80118</v>
       </c>
       <c r="B480" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D480" s="2" t="n">
@@ -8129,11 +8129,11 @@
         <v>80238</v>
       </c>
       <c r="B481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D481" s="2" t="n">
@@ -8145,11 +8145,11 @@
         <v>80244</v>
       </c>
       <c r="B482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D482" s="2" t="n">
@@ -8161,11 +8161,11 @@
         <v>80344</v>
       </c>
       <c r="B483" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D483" s="2" t="n">
@@ -8177,11 +8177,11 @@
         <v>80345</v>
       </c>
       <c r="B484" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D484" s="2" t="n">
@@ -8193,11 +8193,11 @@
         <v>80346</v>
       </c>
       <c r="B485" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D485" s="2" t="n">
@@ -8209,11 +8209,11 @@
         <v>80347</v>
       </c>
       <c r="B486" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D486" s="2" t="n">
@@ -8225,11 +8225,11 @@
         <v>80348</v>
       </c>
       <c r="B487" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D487" s="2" t="n">
@@ -8241,11 +8241,11 @@
         <v>80351</v>
       </c>
       <c r="B488" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D488" s="2" t="n">
@@ -8257,11 +8257,11 @@
         <v>80352</v>
       </c>
       <c r="B489" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D489" s="2" t="n">
@@ -8273,11 +8273,11 @@
         <v>80353</v>
       </c>
       <c r="B490" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D490" s="2" t="n">
@@ -8289,11 +8289,11 @@
         <v>80428</v>
       </c>
       <c r="B491" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D491" s="2" t="n">
@@ -8305,11 +8305,11 @@
         <v>80430</v>
       </c>
       <c r="B492" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D492" s="2" t="n">
@@ -8321,11 +8321,11 @@
         <v>80431</v>
       </c>
       <c r="B493" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D493" s="2" t="n">
@@ -8337,11 +8337,11 @@
         <v>80432</v>
       </c>
       <c r="B494" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D494" s="2" t="n">
@@ -8353,11 +8353,11 @@
         <v>80579</v>
       </c>
       <c r="B495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D495" s="2" t="n">
@@ -8369,11 +8369,11 @@
         <v>80580</v>
       </c>
       <c r="B496" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D496" s="2" t="n">
@@ -8385,11 +8385,11 @@
         <v>80582</v>
       </c>
       <c r="B497" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D497" s="2" t="n">
@@ -8401,11 +8401,11 @@
         <v>80657</v>
       </c>
       <c r="B498" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D498" s="2" t="n">
@@ -8446,7 +8446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
+++ b/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D498"/>
+  <dimension ref="A1:D494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>51208</v>
+        <v>51212</v>
       </c>
       <c r="B180" t="n">
         <v>2</v>
@@ -3321,12 +3321,12 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45904</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>51212</v>
+        <v>51215</v>
       </c>
       <c r="B181" t="n">
         <v>2</v>
@@ -3337,12 +3337,12 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45897</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>51215</v>
+        <v>51216</v>
       </c>
       <c r="B182" t="n">
         <v>2</v>
@@ -3353,12 +3353,12 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45923</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>51216</v>
+        <v>51332</v>
       </c>
       <c r="B183" t="n">
         <v>2</v>
@@ -3369,12 +3369,12 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45908</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>51332</v>
+        <v>51333</v>
       </c>
       <c r="B184" t="n">
         <v>2</v>
@@ -3385,12 +3385,12 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45896</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>51333</v>
+        <v>51543</v>
       </c>
       <c r="B185" t="n">
         <v>2</v>
@@ -3401,12 +3401,12 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45910</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>51543</v>
+        <v>51641</v>
       </c>
       <c r="B186" t="n">
         <v>2</v>
@@ -3417,12 +3417,12 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>45916</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>51641</v>
+        <v>51553</v>
       </c>
       <c r="B187" t="n">
         <v>2</v>
@@ -3433,12 +3433,12 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>45925</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>51553</v>
+        <v>51554</v>
       </c>
       <c r="B188" t="n">
         <v>2</v>
@@ -3449,12 +3449,12 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>45895</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>51554</v>
+        <v>51915</v>
       </c>
       <c r="B189" t="n">
         <v>2</v>
@@ -3465,12 +3465,12 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>45923</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>51915</v>
+        <v>52253</v>
       </c>
       <c r="B190" t="n">
         <v>2</v>
@@ -3481,12 +3481,12 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>45894</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>52253</v>
+        <v>52329</v>
       </c>
       <c r="B191" t="n">
         <v>2</v>
@@ -3497,12 +3497,12 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>45888</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>52329</v>
+        <v>52255</v>
       </c>
       <c r="B192" t="n">
         <v>2</v>
@@ -3513,12 +3513,12 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>45894</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>52255</v>
+        <v>52332</v>
       </c>
       <c r="B193" t="n">
         <v>2</v>
@@ -3529,12 +3529,12 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>45909</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>52332</v>
+        <v>52589</v>
       </c>
       <c r="B194" t="n">
         <v>2</v>
@@ -3545,12 +3545,12 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>45910</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>52589</v>
+        <v>52658</v>
       </c>
       <c r="B195" t="n">
         <v>2</v>
@@ -3561,12 +3561,12 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>45929</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>52658</v>
+        <v>52997</v>
       </c>
       <c r="B196" t="n">
         <v>2</v>
@@ -3577,12 +3577,12 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>45904</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>52997</v>
+        <v>53259</v>
       </c>
       <c r="B197" t="n">
         <v>2</v>
@@ -3593,12 +3593,12 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>45926</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>53259</v>
+        <v>53391</v>
       </c>
       <c r="B198" t="n">
         <v>2</v>
@@ -3609,12 +3609,12 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>45922</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>53391</v>
+        <v>53386</v>
       </c>
       <c r="B199" t="n">
         <v>2</v>
@@ -3625,12 +3625,12 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>45889</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>53386</v>
+        <v>53429</v>
       </c>
       <c r="B200" t="n">
         <v>2</v>
@@ -3641,12 +3641,12 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>45922</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>53429</v>
+        <v>53507</v>
       </c>
       <c r="B201" t="n">
         <v>2</v>
@@ -3657,12 +3657,12 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45890</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>53507</v>
+        <v>54163</v>
       </c>
       <c r="B202" t="n">
         <v>2</v>
@@ -3673,12 +3673,12 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45888</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>54163</v>
+        <v>54715</v>
       </c>
       <c r="B203" t="n">
         <v>2</v>
@@ -3689,12 +3689,12 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45912</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>54715</v>
+        <v>54719</v>
       </c>
       <c r="B204" t="n">
         <v>2</v>
@@ -3705,12 +3705,12 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45895</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>54719</v>
+        <v>55055</v>
       </c>
       <c r="B205" t="n">
         <v>2</v>
@@ -3721,12 +3721,12 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45922</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>55055</v>
+        <v>55129</v>
       </c>
       <c r="B206" t="n">
         <v>2</v>
@@ -3737,12 +3737,12 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>45895</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>55129</v>
+        <v>55159</v>
       </c>
       <c r="B207" t="n">
         <v>2</v>
@@ -3753,12 +3753,12 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45929</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>55159</v>
+        <v>55148</v>
       </c>
       <c r="B208" t="n">
         <v>2</v>
@@ -3769,12 +3769,12 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>45923</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>55148</v>
+        <v>55499</v>
       </c>
       <c r="B209" t="n">
         <v>2</v>
@@ -3785,12 +3785,12 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45889</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>55499</v>
+        <v>55688</v>
       </c>
       <c r="B210" t="n">
         <v>2</v>
@@ -3801,12 +3801,12 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45898</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>55688</v>
+        <v>55790</v>
       </c>
       <c r="B211" t="n">
         <v>2</v>
@@ -3817,12 +3817,12 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45916</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>55790</v>
+        <v>55795</v>
       </c>
       <c r="B212" t="n">
         <v>2</v>
@@ -3833,12 +3833,12 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>45894</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>55795</v>
+        <v>55891</v>
       </c>
       <c r="B213" t="n">
         <v>2</v>
@@ -3849,12 +3849,12 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>45926</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>55891</v>
+        <v>55894</v>
       </c>
       <c r="B214" t="n">
         <v>2</v>
@@ -3865,12 +3865,12 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>45902</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>55894</v>
+        <v>56211</v>
       </c>
       <c r="B215" t="n">
         <v>2</v>
@@ -3881,12 +3881,12 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>45917</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>56211</v>
+        <v>56213</v>
       </c>
       <c r="B216" t="n">
         <v>2</v>
@@ -3897,12 +3897,12 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>45922</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>56213</v>
+        <v>56214</v>
       </c>
       <c r="B217" t="n">
         <v>2</v>
@@ -3913,12 +3913,12 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>45925</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>56214</v>
+        <v>56784</v>
       </c>
       <c r="B218" t="n">
         <v>2</v>
@@ -3929,12 +3929,12 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>45891</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>56784</v>
+        <v>56931</v>
       </c>
       <c r="B219" t="n">
         <v>2</v>
@@ -3945,12 +3945,12 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>45926</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>56931</v>
+        <v>56937</v>
       </c>
       <c r="B220" t="n">
         <v>2</v>
@@ -3961,12 +3961,12 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>45896</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>56937</v>
+        <v>57570</v>
       </c>
       <c r="B221" t="n">
         <v>2</v>
@@ -3977,12 +3977,12 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>45905</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>57570</v>
+        <v>57631</v>
       </c>
       <c r="B222" t="n">
         <v>2</v>
@@ -3993,12 +3993,12 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>45904</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>57631</v>
+        <v>57739</v>
       </c>
       <c r="B223" t="n">
         <v>2</v>
@@ -4009,12 +4009,12 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>45923</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>57739</v>
+        <v>57819</v>
       </c>
       <c r="B224" t="n">
         <v>2</v>
@@ -4025,12 +4025,12 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>45917</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>57819</v>
+        <v>58378</v>
       </c>
       <c r="B225" t="n">
         <v>2</v>
@@ -4041,12 +4041,12 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>45905</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>58378</v>
+        <v>58383</v>
       </c>
       <c r="B226" t="n">
         <v>2</v>
@@ -4057,12 +4057,12 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>45896</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>58383</v>
+        <v>58428</v>
       </c>
       <c r="B227" t="n">
         <v>2</v>
@@ -4073,12 +4073,12 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>45910</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>58428</v>
+        <v>58579</v>
       </c>
       <c r="B228" t="n">
         <v>2</v>
@@ -4089,12 +4089,12 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>45915</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>58579</v>
+        <v>58586</v>
       </c>
       <c r="B229" t="n">
         <v>2</v>
@@ -4105,12 +4105,12 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>45909</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>58586</v>
+        <v>58587</v>
       </c>
       <c r="B230" t="n">
         <v>2</v>
@@ -4121,12 +4121,12 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>45915</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>58587</v>
+        <v>58590</v>
       </c>
       <c r="B231" t="n">
         <v>2</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>58590</v>
+        <v>58980</v>
       </c>
       <c r="B232" t="n">
         <v>2</v>
@@ -4153,12 +4153,12 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>45922</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>58980</v>
+        <v>58987</v>
       </c>
       <c r="B233" t="n">
         <v>2</v>
@@ -4169,12 +4169,12 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>45894</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>58987</v>
+        <v>59067</v>
       </c>
       <c r="B234" t="n">
         <v>2</v>
@@ -4185,12 +4185,12 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>45904</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>59067</v>
+        <v>59290</v>
       </c>
       <c r="B235" t="n">
         <v>2</v>
@@ -4201,12 +4201,12 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>45919</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>59290</v>
+        <v>59293</v>
       </c>
       <c r="B236" t="n">
         <v>2</v>
@@ -4217,12 +4217,12 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>45909</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>59293</v>
+        <v>59737</v>
       </c>
       <c r="B237" t="n">
         <v>2</v>
@@ -4233,12 +4233,12 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>45915</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>59737</v>
+        <v>59743</v>
       </c>
       <c r="B238" t="n">
         <v>2</v>
@@ -4249,12 +4249,12 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>45923</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>59743</v>
+        <v>59744</v>
       </c>
       <c r="B239" t="n">
         <v>2</v>
@@ -4265,12 +4265,12 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>45894</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>59744</v>
+        <v>59751</v>
       </c>
       <c r="B240" t="n">
         <v>2</v>
@@ -4281,12 +4281,12 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>45902</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>59751</v>
+        <v>59890</v>
       </c>
       <c r="B241" t="n">
         <v>2</v>
@@ -4297,12 +4297,12 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>45929</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>59890</v>
+        <v>59896</v>
       </c>
       <c r="B242" t="n">
         <v>2</v>
@@ -4313,12 +4313,12 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>45908</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>59896</v>
+        <v>59900</v>
       </c>
       <c r="B243" t="n">
         <v>2</v>
@@ -4329,12 +4329,12 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>45923</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>59900</v>
+        <v>59908</v>
       </c>
       <c r="B244" t="n">
         <v>2</v>
@@ -4345,12 +4345,12 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>45904</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>59908</v>
+        <v>60149</v>
       </c>
       <c r="B245" t="n">
         <v>2</v>
@@ -4361,12 +4361,12 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>45919</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>60149</v>
+        <v>60374</v>
       </c>
       <c r="B246" t="n">
         <v>2</v>
@@ -4377,12 +4377,12 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>60374</v>
+        <v>60612</v>
       </c>
       <c r="B247" t="n">
         <v>2</v>
@@ -4393,12 +4393,12 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>45904</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>60612</v>
+        <v>60623</v>
       </c>
       <c r="B248" t="n">
         <v>2</v>
@@ -4409,12 +4409,12 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>45925</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>60623</v>
+        <v>60679</v>
       </c>
       <c r="B249" t="n">
         <v>2</v>
@@ -4425,12 +4425,12 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>45905</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>60679</v>
+        <v>60738</v>
       </c>
       <c r="B250" t="n">
         <v>2</v>
@@ -4441,12 +4441,12 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>45903</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>60738</v>
+        <v>60743</v>
       </c>
       <c r="B251" t="n">
         <v>2</v>
@@ -4457,12 +4457,12 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>45898</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>60743</v>
+        <v>60872</v>
       </c>
       <c r="B252" t="n">
         <v>2</v>
@@ -4473,12 +4473,12 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>45917</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>60872</v>
+        <v>60873</v>
       </c>
       <c r="B253" t="n">
         <v>2</v>
@@ -4489,12 +4489,12 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>45930</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>60873</v>
+        <v>60874</v>
       </c>
       <c r="B254" t="n">
         <v>2</v>
@@ -4505,12 +4505,12 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>45905</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>60874</v>
+        <v>60882</v>
       </c>
       <c r="B255" t="n">
         <v>2</v>
@@ -4521,12 +4521,12 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>45923</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>60882</v>
+        <v>61067</v>
       </c>
       <c r="B256" t="n">
         <v>2</v>
@@ -4537,12 +4537,12 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>61067</v>
+        <v>61285</v>
       </c>
       <c r="B257" t="n">
         <v>2</v>
@@ -4553,12 +4553,12 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>45915</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>61285</v>
+        <v>61286</v>
       </c>
       <c r="B258" t="n">
         <v>2</v>
@@ -4569,12 +4569,12 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>45926</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>61286</v>
+        <v>61248</v>
       </c>
       <c r="B259" t="n">
         <v>2</v>
@@ -4585,12 +4585,12 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>45909</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>61248</v>
+        <v>61528</v>
       </c>
       <c r="B260" t="n">
         <v>2</v>
@@ -4601,12 +4601,12 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>45926</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>61528</v>
+        <v>61483</v>
       </c>
       <c r="B261" t="n">
         <v>2</v>
@@ -4617,12 +4617,12 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>45897</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>61483</v>
+        <v>61920</v>
       </c>
       <c r="B262" t="n">
         <v>2</v>
@@ -4633,12 +4633,12 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>45925</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>61920</v>
+        <v>61927</v>
       </c>
       <c r="B263" t="n">
         <v>2</v>
@@ -4649,12 +4649,12 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>45898</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>61927</v>
+        <v>61928</v>
       </c>
       <c r="B264" t="n">
         <v>2</v>
@@ -4665,12 +4665,12 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>45905</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>61928</v>
+        <v>62050</v>
       </c>
       <c r="B265" t="n">
         <v>2</v>
@@ -4681,12 +4681,12 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>45888</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>62050</v>
+        <v>62128</v>
       </c>
       <c r="B266" t="n">
         <v>2</v>
@@ -4697,12 +4697,12 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>45915</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>62128</v>
+        <v>62348</v>
       </c>
       <c r="B267" t="n">
         <v>2</v>
@@ -4713,12 +4713,12 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>45902</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>62348</v>
+        <v>62213</v>
       </c>
       <c r="B268" t="n">
         <v>2</v>
@@ -4729,12 +4729,12 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>45889</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>62213</v>
+        <v>62214</v>
       </c>
       <c r="B269" t="n">
         <v>2</v>
@@ -4750,7 +4750,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>62214</v>
+        <v>62353</v>
       </c>
       <c r="B270" t="n">
         <v>2</v>
@@ -4761,12 +4761,12 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>45905</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>62353</v>
+        <v>62619</v>
       </c>
       <c r="B271" t="n">
         <v>2</v>
@@ -4777,12 +4777,12 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>45918</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>62619</v>
+        <v>62855</v>
       </c>
       <c r="B272" t="n">
         <v>2</v>
@@ -4793,12 +4793,12 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>45896</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>62855</v>
+        <v>62965</v>
       </c>
       <c r="B273" t="n">
         <v>2</v>
@@ -4809,12 +4809,12 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>45908</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>62965</v>
+        <v>63040</v>
       </c>
       <c r="B274" t="n">
         <v>2</v>
@@ -4825,12 +4825,12 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>45891</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>63040</v>
+        <v>63048</v>
       </c>
       <c r="B275" t="n">
         <v>2</v>
@@ -4841,12 +4841,12 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>45889</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>63048</v>
+        <v>63052</v>
       </c>
       <c r="B276" t="n">
         <v>2</v>
@@ -4857,12 +4857,12 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>45918</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>63052</v>
+        <v>63061</v>
       </c>
       <c r="B277" t="n">
         <v>2</v>
@@ -4873,12 +4873,12 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>45891</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>63061</v>
+        <v>63841</v>
       </c>
       <c r="B278" t="n">
         <v>2</v>
@@ -4889,12 +4889,12 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>45923</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>63841</v>
+        <v>63843</v>
       </c>
       <c r="B279" t="n">
         <v>2</v>
@@ -4905,12 +4905,12 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>63843</v>
+        <v>63952</v>
       </c>
       <c r="B280" t="n">
         <v>2</v>
@@ -4921,12 +4921,12 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>45904</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>63952</v>
+        <v>63957</v>
       </c>
       <c r="B281" t="n">
         <v>2</v>
@@ -4937,12 +4937,12 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>45909</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>63957</v>
+        <v>64120</v>
       </c>
       <c r="B282" t="n">
         <v>2</v>
@@ -4953,12 +4953,12 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>45923</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>64120</v>
+        <v>64625</v>
       </c>
       <c r="B283" t="n">
         <v>2</v>
@@ -4969,12 +4969,12 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>45930</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>64122</v>
+        <v>64510</v>
       </c>
       <c r="B284" t="n">
         <v>2</v>
@@ -4985,12 +4985,12 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>45929</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>64625</v>
+        <v>64629</v>
       </c>
       <c r="B285" t="n">
         <v>2</v>
@@ -5001,12 +5001,12 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>45918</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>64510</v>
+        <v>64631</v>
       </c>
       <c r="B286" t="n">
         <v>2</v>
@@ -5017,12 +5017,12 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>45896</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>64629</v>
+        <v>65332</v>
       </c>
       <c r="B287" t="n">
         <v>2</v>
@@ -5033,12 +5033,12 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>45905</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>64631</v>
+        <v>65918</v>
       </c>
       <c r="B288" t="n">
         <v>2</v>
@@ -5049,12 +5049,12 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>45912</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>65332</v>
+        <v>66043</v>
       </c>
       <c r="B289" t="n">
         <v>2</v>
@@ -5065,12 +5065,12 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>45912</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>65918</v>
+        <v>66114</v>
       </c>
       <c r="B290" t="n">
         <v>2</v>
@@ -5081,12 +5081,12 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>45925</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>66043</v>
+        <v>66115</v>
       </c>
       <c r="B291" t="n">
         <v>2</v>
@@ -5097,12 +5097,12 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>45891</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>66114</v>
+        <v>66344</v>
       </c>
       <c r="B292" t="n">
         <v>2</v>
@@ -5113,12 +5113,12 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>45891</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>66115</v>
+        <v>66348</v>
       </c>
       <c r="B293" t="n">
         <v>2</v>
@@ -5129,12 +5129,12 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>45926</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>66344</v>
+        <v>66166</v>
       </c>
       <c r="B294" t="n">
         <v>2</v>
@@ -5145,12 +5145,12 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>45912</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>66348</v>
+        <v>66167</v>
       </c>
       <c r="B295" t="n">
         <v>2</v>
@@ -5161,12 +5161,12 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>45915</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>66166</v>
+        <v>66349</v>
       </c>
       <c r="B296" t="n">
         <v>2</v>
@@ -5177,12 +5177,12 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>45897</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>66167</v>
+        <v>66173</v>
       </c>
       <c r="B297" t="n">
         <v>2</v>
@@ -5193,12 +5193,12 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>45904</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>66349</v>
+        <v>66600</v>
       </c>
       <c r="B298" t="n">
         <v>2</v>
@@ -5209,12 +5209,12 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>45915</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>66173</v>
+        <v>66944</v>
       </c>
       <c r="B299" t="n">
         <v>2</v>
@@ -5225,12 +5225,12 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>45895</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>66600</v>
+        <v>66947</v>
       </c>
       <c r="B300" t="n">
         <v>2</v>
@@ -5241,12 +5241,12 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>45891</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>66944</v>
+        <v>66615</v>
       </c>
       <c r="B301" t="n">
         <v>2</v>
@@ -5257,12 +5257,12 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>45888</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>66947</v>
+        <v>66617</v>
       </c>
       <c r="B302" t="n">
         <v>2</v>
@@ -5273,12 +5273,12 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>45904</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>66615</v>
+        <v>66952</v>
       </c>
       <c r="B303" t="n">
         <v>2</v>
@@ -5289,12 +5289,12 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>45926</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>66617</v>
+        <v>66677</v>
       </c>
       <c r="B304" t="n">
         <v>2</v>
@@ -5305,12 +5305,12 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>45897</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>66952</v>
+        <v>66734</v>
       </c>
       <c r="B305" t="n">
         <v>2</v>
@@ -5321,12 +5321,12 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>45910</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>66677</v>
+        <v>66839</v>
       </c>
       <c r="B306" t="n">
         <v>2</v>
@@ -5337,12 +5337,12 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>45894</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>66734</v>
+        <v>66959</v>
       </c>
       <c r="B307" t="n">
         <v>2</v>
@@ -5353,12 +5353,12 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>45903</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>66839</v>
+        <v>66960</v>
       </c>
       <c r="B308" t="n">
         <v>2</v>
@@ -5369,12 +5369,12 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>45917</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>66959</v>
+        <v>66961</v>
       </c>
       <c r="B309" t="n">
         <v>2</v>
@@ -5385,12 +5385,12 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>45896</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>66960</v>
+        <v>66843</v>
       </c>
       <c r="B310" t="n">
         <v>2</v>
@@ -5401,12 +5401,12 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>66961</v>
+        <v>67300</v>
       </c>
       <c r="B311" t="n">
         <v>2</v>
@@ -5422,7 +5422,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>66843</v>
+        <v>67634</v>
       </c>
       <c r="B312" t="n">
         <v>2</v>
@@ -5438,7 +5438,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>67300</v>
+        <v>67518</v>
       </c>
       <c r="B313" t="n">
         <v>2</v>
@@ -5449,12 +5449,12 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>45924</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>67634</v>
+        <v>67551</v>
       </c>
       <c r="B314" t="n">
         <v>2</v>
@@ -5465,12 +5465,12 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>67518</v>
+        <v>67689</v>
       </c>
       <c r="B315" t="n">
         <v>2</v>
@@ -5481,12 +5481,12 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>45897</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>67551</v>
+        <v>67635</v>
       </c>
       <c r="B316" t="n">
         <v>2</v>
@@ -5497,12 +5497,12 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>45915</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>67689</v>
+        <v>68466</v>
       </c>
       <c r="B317" t="n">
         <v>2</v>
@@ -5513,12 +5513,12 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>45917</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>67635</v>
+        <v>67637</v>
       </c>
       <c r="B318" t="n">
         <v>2</v>
@@ -5529,12 +5529,12 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>68466</v>
+        <v>67638</v>
       </c>
       <c r="B319" t="n">
         <v>2</v>
@@ -5545,12 +5545,12 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>45891</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>67637</v>
+        <v>68179</v>
       </c>
       <c r="B320" t="n">
         <v>2</v>
@@ -5561,12 +5561,12 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>45898</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>67638</v>
+        <v>68186</v>
       </c>
       <c r="B321" t="n">
         <v>2</v>
@@ -5577,12 +5577,12 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>45903</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>68179</v>
+        <v>68323</v>
       </c>
       <c r="B322" t="n">
         <v>2</v>
@@ -5593,12 +5593,12 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>45922</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>68186</v>
+        <v>68419</v>
       </c>
       <c r="B323" t="n">
         <v>2</v>
@@ -5609,12 +5609,12 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>45917</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>68323</v>
+        <v>68093</v>
       </c>
       <c r="B324" t="n">
         <v>2</v>
@@ -5625,12 +5625,12 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>45910</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>68419</v>
+        <v>68420</v>
       </c>
       <c r="B325" t="n">
         <v>2</v>
@@ -5641,12 +5641,12 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>45889</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>68093</v>
+        <v>68743</v>
       </c>
       <c r="B326" t="n">
         <v>2</v>
@@ -5657,12 +5657,12 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>45895</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>68420</v>
+        <v>68744</v>
       </c>
       <c r="B327" t="n">
         <v>2</v>
@@ -5673,12 +5673,12 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>45894</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>68743</v>
+        <v>68745</v>
       </c>
       <c r="B328" t="n">
         <v>2</v>
@@ -5689,12 +5689,12 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>45924</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>68744</v>
+        <v>68748</v>
       </c>
       <c r="B329" t="n">
         <v>2</v>
@@ -5705,12 +5705,12 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>45890</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>68745</v>
+        <v>68751</v>
       </c>
       <c r="B330" t="n">
         <v>2</v>
@@ -5721,12 +5721,12 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>45891</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>68748</v>
+        <v>68754</v>
       </c>
       <c r="B331" t="n">
         <v>2</v>
@@ -5737,12 +5737,12 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>45908</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>68751</v>
+        <v>68846</v>
       </c>
       <c r="B332" t="n">
         <v>2</v>
@@ -5753,12 +5753,12 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>45930</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>68754</v>
+        <v>68902</v>
       </c>
       <c r="B333" t="n">
         <v>2</v>
@@ -5769,12 +5769,12 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>45930</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>68846</v>
+        <v>69641</v>
       </c>
       <c r="B334" t="n">
         <v>2</v>
@@ -5785,12 +5785,12 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>45888</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>68902</v>
+        <v>69656</v>
       </c>
       <c r="B335" t="n">
         <v>2</v>
@@ -5801,12 +5801,12 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>69641</v>
+        <v>69762</v>
       </c>
       <c r="B336" t="n">
         <v>2</v>
@@ -5817,12 +5817,12 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>45910</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>69656</v>
+        <v>69913</v>
       </c>
       <c r="B337" t="n">
         <v>2</v>
@@ -5833,12 +5833,12 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>45924</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>69762</v>
+        <v>70334</v>
       </c>
       <c r="B338" t="n">
         <v>2</v>
@@ -5849,12 +5849,12 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>45901</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>69913</v>
+        <v>70335</v>
       </c>
       <c r="B339" t="n">
         <v>2</v>
@@ -5865,12 +5865,12 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>45916</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>70334</v>
+        <v>70300</v>
       </c>
       <c r="B340" t="n">
         <v>2</v>
@@ -5881,12 +5881,12 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>45890</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>70335</v>
+        <v>70341</v>
       </c>
       <c r="B341" t="n">
         <v>2</v>
@@ -5897,12 +5897,12 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>45909</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>70300</v>
+        <v>70699</v>
       </c>
       <c r="B342" t="n">
         <v>2</v>
@@ -5913,12 +5913,12 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>45912</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>70341</v>
+        <v>70870</v>
       </c>
       <c r="B343" t="n">
         <v>2</v>
@@ -5929,12 +5929,12 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>70699</v>
+        <v>71055</v>
       </c>
       <c r="B344" t="n">
         <v>2</v>
@@ -5945,12 +5945,12 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>45905</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>70870</v>
+        <v>71056</v>
       </c>
       <c r="B345" t="n">
         <v>2</v>
@@ -5961,12 +5961,12 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>45908</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>71055</v>
+        <v>71062</v>
       </c>
       <c r="B346" t="n">
         <v>2</v>
@@ -5977,12 +5977,12 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>45897</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>71056</v>
+        <v>71169</v>
       </c>
       <c r="B347" t="n">
         <v>2</v>
@@ -5993,12 +5993,12 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>45930</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>71062</v>
+        <v>71171</v>
       </c>
       <c r="B348" t="n">
         <v>2</v>
@@ -6009,12 +6009,12 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>45908</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>71169</v>
+        <v>71249</v>
       </c>
       <c r="B349" t="n">
         <v>2</v>
@@ -6025,12 +6025,12 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>45903</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>71171</v>
+        <v>71418</v>
       </c>
       <c r="B350" t="n">
         <v>2</v>
@@ -6041,12 +6041,12 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>45898</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>71249</v>
+        <v>71422</v>
       </c>
       <c r="B351" t="n">
         <v>2</v>
@@ -6057,12 +6057,12 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>45918</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>71418</v>
+        <v>71428</v>
       </c>
       <c r="B352" t="n">
         <v>2</v>
@@ -6073,12 +6073,12 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>45889</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>71422</v>
+        <v>71654</v>
       </c>
       <c r="B353" t="n">
         <v>2</v>
@@ -6089,12 +6089,12 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>45925</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>71428</v>
+        <v>71777</v>
       </c>
       <c r="B354" t="n">
         <v>2</v>
@@ -6105,12 +6105,12 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>45909</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>71654</v>
+        <v>71781</v>
       </c>
       <c r="B355" t="n">
         <v>2</v>
@@ -6121,12 +6121,12 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>45894</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>71777</v>
+        <v>71988</v>
       </c>
       <c r="B356" t="n">
         <v>2</v>
@@ -6137,12 +6137,12 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>45916</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>71781</v>
+        <v>72006</v>
       </c>
       <c r="B357" t="n">
         <v>2</v>
@@ -6153,12 +6153,12 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>45917</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>71988</v>
+        <v>72000</v>
       </c>
       <c r="B358" t="n">
         <v>2</v>
@@ -6169,12 +6169,12 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>45924</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>72006</v>
+        <v>72190</v>
       </c>
       <c r="B359" t="n">
         <v>2</v>
@@ -6185,12 +6185,12 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>45903</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>72000</v>
+        <v>72532</v>
       </c>
       <c r="B360" t="n">
         <v>2</v>
@@ -6201,12 +6201,12 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>45902</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>72190</v>
+        <v>72657</v>
       </c>
       <c r="B361" t="n">
         <v>2</v>
@@ -6217,12 +6217,12 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>45915</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>72532</v>
+        <v>72658</v>
       </c>
       <c r="B362" t="n">
         <v>2</v>
@@ -6233,12 +6233,12 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>45890</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>72657</v>
+        <v>72743</v>
       </c>
       <c r="B363" t="n">
         <v>2</v>
@@ -6254,7 +6254,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>72658</v>
+        <v>72979</v>
       </c>
       <c r="B364" t="n">
         <v>2</v>
@@ -6265,12 +6265,12 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>45925</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>72743</v>
+        <v>72980</v>
       </c>
       <c r="B365" t="n">
         <v>2</v>
@@ -6281,12 +6281,12 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>45897</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>72979</v>
+        <v>72982</v>
       </c>
       <c r="B366" t="n">
         <v>2</v>
@@ -6297,12 +6297,12 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>45923</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>72980</v>
+        <v>73350</v>
       </c>
       <c r="B367" t="n">
         <v>2</v>
@@ -6313,12 +6313,12 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>45925</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>72982</v>
+        <v>73441</v>
       </c>
       <c r="B368" t="n">
         <v>2</v>
@@ -6329,12 +6329,12 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>45919</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>73350</v>
+        <v>73442</v>
       </c>
       <c r="B369" t="n">
         <v>2</v>
@@ -6345,12 +6345,12 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>45896</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>73441</v>
+        <v>73443</v>
       </c>
       <c r="B370" t="n">
         <v>2</v>
@@ -6361,12 +6361,12 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>73442</v>
+        <v>73464</v>
       </c>
       <c r="B371" t="n">
         <v>2</v>
@@ -6377,12 +6377,12 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>45909</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>73443</v>
+        <v>73490</v>
       </c>
       <c r="B372" t="n">
         <v>2</v>
@@ -6393,12 +6393,12 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>45890</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>73464</v>
+        <v>73531</v>
       </c>
       <c r="B373" t="n">
         <v>2</v>
@@ -6409,12 +6409,12 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>45897</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>73490</v>
+        <v>73693</v>
       </c>
       <c r="B374" t="n">
         <v>2</v>
@@ -6425,12 +6425,12 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>45916</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>73531</v>
+        <v>73740</v>
       </c>
       <c r="B375" t="n">
         <v>2</v>
@@ -6441,12 +6441,12 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>45926</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>73693</v>
+        <v>73742</v>
       </c>
       <c r="B376" t="n">
         <v>2</v>
@@ -6457,12 +6457,12 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>45901</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>73740</v>
+        <v>73847</v>
       </c>
       <c r="B377" t="n">
         <v>2</v>
@@ -6473,12 +6473,12 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>45915</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>73742</v>
+        <v>73848</v>
       </c>
       <c r="B378" t="n">
         <v>2</v>
@@ -6489,12 +6489,12 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>45896</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>73847</v>
+        <v>74002</v>
       </c>
       <c r="B379" t="n">
         <v>2</v>
@@ -6505,12 +6505,12 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>45919</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>73848</v>
+        <v>74003</v>
       </c>
       <c r="B380" t="n">
         <v>2</v>
@@ -6521,12 +6521,12 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>45917</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>74002</v>
+        <v>74067</v>
       </c>
       <c r="B381" t="n">
         <v>2</v>
@@ -6537,12 +6537,12 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>45915</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>74003</v>
+        <v>74394</v>
       </c>
       <c r="B382" t="n">
         <v>2</v>
@@ -6553,12 +6553,12 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>45926</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>74067</v>
+        <v>74397</v>
       </c>
       <c r="B383" t="n">
         <v>2</v>
@@ -6569,12 +6569,12 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>45902</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>74394</v>
+        <v>74398</v>
       </c>
       <c r="B384" t="n">
         <v>2</v>
@@ -6585,12 +6585,12 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>45897</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>74397</v>
+        <v>74491</v>
       </c>
       <c r="B385" t="n">
         <v>2</v>
@@ -6601,12 +6601,12 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>45908</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>74398</v>
+        <v>74512</v>
       </c>
       <c r="B386" t="n">
         <v>2</v>
@@ -6617,12 +6617,12 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>45890</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>74491</v>
+        <v>74514</v>
       </c>
       <c r="B387" t="n">
         <v>2</v>
@@ -6633,12 +6633,12 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>45903</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>74512</v>
+        <v>74517</v>
       </c>
       <c r="B388" t="n">
         <v>2</v>
@@ -6649,12 +6649,12 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>45919</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>74514</v>
+        <v>74520</v>
       </c>
       <c r="B389" t="n">
         <v>2</v>
@@ -6665,12 +6665,12 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>45912</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>74517</v>
+        <v>74885</v>
       </c>
       <c r="B390" t="n">
         <v>2</v>
@@ -6686,7 +6686,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>74520</v>
+        <v>74886</v>
       </c>
       <c r="B391" t="n">
         <v>2</v>
@@ -6697,12 +6697,12 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>45919</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>74885</v>
+        <v>74825</v>
       </c>
       <c r="B392" t="n">
         <v>2</v>
@@ -6713,12 +6713,12 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>45922</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>74886</v>
+        <v>74827</v>
       </c>
       <c r="B393" t="n">
         <v>2</v>
@@ -6729,12 +6729,12 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>45908</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>74825</v>
+        <v>74949</v>
       </c>
       <c r="B394" t="n">
         <v>2</v>
@@ -6745,12 +6745,12 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>45929</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>74827</v>
+        <v>75122</v>
       </c>
       <c r="B395" t="n">
         <v>2</v>
@@ -6761,12 +6761,12 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>45911</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>74949</v>
+        <v>74970</v>
       </c>
       <c r="B396" t="n">
         <v>2</v>
@@ -6777,12 +6777,12 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>45894</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>75122</v>
+        <v>75123</v>
       </c>
       <c r="B397" t="n">
         <v>2</v>
@@ -6793,12 +6793,12 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>45890</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>74970</v>
+        <v>74971</v>
       </c>
       <c r="B398" t="n">
         <v>2</v>
@@ -6809,12 +6809,12 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>45929</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>75123</v>
+        <v>75124</v>
       </c>
       <c r="B399" t="n">
         <v>2</v>
@@ -6825,12 +6825,12 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>45911</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>74971</v>
+        <v>75126</v>
       </c>
       <c r="B400" t="n">
         <v>2</v>
@@ -6841,12 +6841,12 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>45903</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>75124</v>
+        <v>75298</v>
       </c>
       <c r="B401" t="n">
         <v>2</v>
@@ -6857,12 +6857,12 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>45923</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>75126</v>
+        <v>75300</v>
       </c>
       <c r="B402" t="n">
         <v>2</v>
@@ -6873,12 +6873,12 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>45919</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>75298</v>
+        <v>75302</v>
       </c>
       <c r="B403" t="n">
         <v>2</v>
@@ -6889,12 +6889,12 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>45930</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>75300</v>
+        <v>75327</v>
       </c>
       <c r="B404" t="n">
         <v>2</v>
@@ -6905,12 +6905,12 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>45897</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>75302</v>
+        <v>75357</v>
       </c>
       <c r="B405" t="n">
         <v>2</v>
@@ -6921,12 +6921,12 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>45917</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>75327</v>
+        <v>75358</v>
       </c>
       <c r="B406" t="n">
         <v>2</v>
@@ -6937,12 +6937,12 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>45916</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>75357</v>
+        <v>75365</v>
       </c>
       <c r="B407" t="n">
         <v>2</v>
@@ -6953,12 +6953,12 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>45888</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>75358</v>
+        <v>75483</v>
       </c>
       <c r="B408" t="n">
         <v>2</v>
@@ -6969,12 +6969,12 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>45909</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>75365</v>
+        <v>75493</v>
       </c>
       <c r="B409" t="n">
         <v>2</v>
@@ -6985,12 +6985,12 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>45915</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>75483</v>
+        <v>75769</v>
       </c>
       <c r="B410" t="n">
         <v>2</v>
@@ -7001,12 +7001,12 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>45896</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>75493</v>
+        <v>75742</v>
       </c>
       <c r="B411" t="n">
         <v>2</v>
@@ -7017,12 +7017,12 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>75769</v>
+        <v>75985</v>
       </c>
       <c r="B412" t="n">
         <v>2</v>
@@ -7033,12 +7033,12 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>45909</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>75742</v>
+        <v>76082</v>
       </c>
       <c r="B413" t="n">
         <v>2</v>
@@ -7049,12 +7049,12 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>45929</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>75985</v>
+        <v>76223</v>
       </c>
       <c r="B414" t="n">
         <v>2</v>
@@ -7065,12 +7065,12 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>45919</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>76082</v>
+        <v>76405</v>
       </c>
       <c r="B415" t="n">
         <v>2</v>
@@ -7081,12 +7081,12 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>45911</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>76223</v>
+        <v>76408</v>
       </c>
       <c r="B416" t="n">
         <v>2</v>
@@ -7097,12 +7097,12 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>45889</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>76405</v>
+        <v>76498</v>
       </c>
       <c r="B417" t="n">
         <v>2</v>
@@ -7113,12 +7113,12 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>45919</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>76408</v>
+        <v>76533</v>
       </c>
       <c r="B418" t="n">
         <v>2</v>
@@ -7129,12 +7129,12 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>45916</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>76498</v>
+        <v>76577</v>
       </c>
       <c r="B419" t="n">
         <v>2</v>
@@ -7145,12 +7145,12 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>45896</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>76533</v>
+        <v>76653</v>
       </c>
       <c r="B420" t="n">
         <v>2</v>
@@ -7161,12 +7161,12 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>45919</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>76577</v>
+        <v>76710</v>
       </c>
       <c r="B421" t="n">
         <v>2</v>
@@ -7177,12 +7177,12 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>45908</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>76653</v>
+        <v>76786</v>
       </c>
       <c r="B422" t="n">
         <v>2</v>
@@ -7193,12 +7193,12 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>45912</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>76710</v>
+        <v>76788</v>
       </c>
       <c r="B423" t="n">
         <v>2</v>
@@ -7209,12 +7209,12 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>45930</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>76786</v>
+        <v>76881</v>
       </c>
       <c r="B424" t="n">
         <v>2</v>
@@ -7225,12 +7225,12 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>45924</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>76788</v>
+        <v>76880</v>
       </c>
       <c r="B425" t="n">
         <v>2</v>
@@ -7241,12 +7241,12 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>45917</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>76881</v>
+        <v>76939</v>
       </c>
       <c r="B426" t="n">
         <v>2</v>
@@ -7257,12 +7257,12 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>45918</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>76880</v>
+        <v>76945</v>
       </c>
       <c r="B427" t="n">
         <v>2</v>
@@ -7273,12 +7273,12 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>76939</v>
+        <v>77125</v>
       </c>
       <c r="B428" t="n">
         <v>2</v>
@@ -7289,12 +7289,12 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>45915</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>76945</v>
+        <v>77216</v>
       </c>
       <c r="B429" t="n">
         <v>2</v>
@@ -7305,12 +7305,12 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>45895</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>77125</v>
+        <v>77439</v>
       </c>
       <c r="B430" t="n">
         <v>2</v>
@@ -7321,12 +7321,12 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>45897</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>77216</v>
+        <v>77600</v>
       </c>
       <c r="B431" t="n">
         <v>2</v>
@@ -7337,12 +7337,12 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>45918</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>77439</v>
+        <v>77794</v>
       </c>
       <c r="B432" t="n">
         <v>2</v>
@@ -7353,12 +7353,12 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>45929</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>77600</v>
+        <v>78067</v>
       </c>
       <c r="B433" t="n">
         <v>2</v>
@@ -7369,12 +7369,12 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>45911</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>77794</v>
+        <v>78069</v>
       </c>
       <c r="B434" t="n">
         <v>2</v>
@@ -7385,12 +7385,12 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>45888</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>78067</v>
+        <v>78235</v>
       </c>
       <c r="B435" t="n">
         <v>2</v>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>78069</v>
+        <v>78236</v>
       </c>
       <c r="B436" t="n">
         <v>2</v>
@@ -7417,12 +7417,12 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>45915</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>78235</v>
+        <v>78237</v>
       </c>
       <c r="B437" t="n">
         <v>2</v>
@@ -7433,12 +7433,12 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>45901</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>78236</v>
+        <v>78414</v>
       </c>
       <c r="B438" t="n">
         <v>2</v>
@@ -7449,12 +7449,12 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>45922</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>78237</v>
+        <v>78598</v>
       </c>
       <c r="B439" t="n">
         <v>2</v>
@@ -7465,12 +7465,12 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>45908</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>78414</v>
+        <v>78787</v>
       </c>
       <c r="B440" t="n">
         <v>2</v>
@@ -7481,12 +7481,12 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>45930</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>78598</v>
+        <v>78790</v>
       </c>
       <c r="B441" t="n">
         <v>2</v>
@@ -7497,12 +7497,12 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>45924</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>78787</v>
+        <v>78791</v>
       </c>
       <c r="B442" t="n">
         <v>2</v>
@@ -7513,12 +7513,12 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>45890</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>78790</v>
+        <v>79041</v>
       </c>
       <c r="B443" t="n">
         <v>2</v>
@@ -7529,12 +7529,12 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>45930</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>78791</v>
+        <v>79345</v>
       </c>
       <c r="B444" t="n">
         <v>2</v>
@@ -7545,12 +7545,12 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>45916</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>79041</v>
+        <v>79347</v>
       </c>
       <c r="B445" t="n">
         <v>2</v>
@@ -7561,12 +7561,12 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>45918</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>79345</v>
+        <v>79285</v>
       </c>
       <c r="B446" t="n">
         <v>2</v>
@@ -7577,12 +7577,12 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>45925</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>79347</v>
+        <v>79282</v>
       </c>
       <c r="B447" t="n">
         <v>2</v>
@@ -7593,12 +7593,12 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>45909</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>79285</v>
+        <v>79283</v>
       </c>
       <c r="B448" t="n">
         <v>2</v>
@@ -7609,12 +7609,12 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>45901</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>79282</v>
+        <v>79525</v>
       </c>
       <c r="B449" t="n">
         <v>2</v>
@@ -7625,12 +7625,12 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>45908</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>79283</v>
+        <v>79526</v>
       </c>
       <c r="B450" t="n">
         <v>2</v>
@@ -7641,12 +7641,12 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>45910</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>79349</v>
+        <v>79527</v>
       </c>
       <c r="B451" t="n">
         <v>2</v>
@@ -7657,12 +7657,12 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>45896</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>79525</v>
+        <v>79530</v>
       </c>
       <c r="B452" t="n">
         <v>2</v>
@@ -7673,12 +7673,12 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>45918</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>79526</v>
+        <v>79542</v>
       </c>
       <c r="B453" t="n">
         <v>2</v>
@@ -7689,12 +7689,12 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>45926</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>79527</v>
+        <v>79533</v>
       </c>
       <c r="B454" t="n">
         <v>2</v>
@@ -7705,12 +7705,12 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>45918</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>79530</v>
+        <v>79534</v>
       </c>
       <c r="B455" t="n">
         <v>2</v>
@@ -7721,12 +7721,12 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>45930</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>79542</v>
+        <v>79537</v>
       </c>
       <c r="B456" t="n">
         <v>2</v>
@@ -7737,12 +7737,12 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>45909</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>79543</v>
+        <v>79599</v>
       </c>
       <c r="B457" t="n">
         <v>2</v>
@@ -7753,12 +7753,12 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>45902</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>79533</v>
+        <v>79602</v>
       </c>
       <c r="B458" t="n">
         <v>2</v>
@@ -7769,12 +7769,12 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>45895</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>79534</v>
+        <v>79611</v>
       </c>
       <c r="B459" t="n">
         <v>2</v>
@@ -7785,12 +7785,12 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>45890</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>79537</v>
+        <v>79531</v>
       </c>
       <c r="B460" t="n">
         <v>2</v>
@@ -7801,12 +7801,12 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>45891</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>79599</v>
+        <v>79607</v>
       </c>
       <c r="B461" t="n">
         <v>2</v>
@@ -7817,12 +7817,12 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>45925</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>79602</v>
+        <v>79608</v>
       </c>
       <c r="B462" t="n">
         <v>2</v>
@@ -7833,12 +7833,12 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>45889</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>79611</v>
+        <v>79678</v>
       </c>
       <c r="B463" t="n">
         <v>2</v>
@@ -7849,12 +7849,12 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>45908</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>79531</v>
+        <v>79750</v>
       </c>
       <c r="B464" t="n">
         <v>2</v>
@@ -7865,12 +7865,12 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>79607</v>
+        <v>79746</v>
       </c>
       <c r="B465" t="n">
         <v>2</v>
@@ -7881,12 +7881,12 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>45924</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>79608</v>
+        <v>79932</v>
       </c>
       <c r="B466" t="n">
         <v>2</v>
@@ -7897,12 +7897,12 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>45904</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>79678</v>
+        <v>79933</v>
       </c>
       <c r="B467" t="n">
         <v>2</v>
@@ -7913,12 +7913,12 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>45912</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>79750</v>
+        <v>79934</v>
       </c>
       <c r="B468" t="n">
         <v>2</v>
@@ -7929,12 +7929,12 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>45918</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>79746</v>
+        <v>79977</v>
       </c>
       <c r="B469" t="n">
         <v>2</v>
@@ -7945,12 +7945,12 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>45898</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>79932</v>
+        <v>79978</v>
       </c>
       <c r="B470" t="n">
         <v>2</v>
@@ -7961,12 +7961,12 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>45901</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>79933</v>
+        <v>79979</v>
       </c>
       <c r="B471" t="n">
         <v>2</v>
@@ -7977,12 +7977,12 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>45918</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>79934</v>
+        <v>79980</v>
       </c>
       <c r="B472" t="n">
         <v>2</v>
@@ -7993,12 +7993,12 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>45890</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>79977</v>
+        <v>80115</v>
       </c>
       <c r="B473" t="n">
         <v>2</v>
@@ -8009,12 +8009,12 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>45917</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>79978</v>
+        <v>80116</v>
       </c>
       <c r="B474" t="n">
         <v>2</v>
@@ -8025,12 +8025,12 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>45910</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>79979</v>
+        <v>80117</v>
       </c>
       <c r="B475" t="n">
         <v>2</v>
@@ -8041,12 +8041,12 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>45898</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>79980</v>
+        <v>80118</v>
       </c>
       <c r="B476" t="n">
         <v>2</v>
@@ -8057,12 +8057,12 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>45917</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>80115</v>
+        <v>80238</v>
       </c>
       <c r="B477" t="n">
         <v>2</v>
@@ -8073,12 +8073,12 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>80116</v>
+        <v>80244</v>
       </c>
       <c r="B478" t="n">
         <v>2</v>
@@ -8089,12 +8089,12 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>45891</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>80117</v>
+        <v>80344</v>
       </c>
       <c r="B479" t="n">
         <v>2</v>
@@ -8105,12 +8105,12 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>45916</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>80118</v>
+        <v>80345</v>
       </c>
       <c r="B480" t="n">
         <v>2</v>
@@ -8121,12 +8121,12 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>45911</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>80238</v>
+        <v>80346</v>
       </c>
       <c r="B481" t="n">
         <v>2</v>
@@ -8137,12 +8137,12 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>45902</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>80244</v>
+        <v>80347</v>
       </c>
       <c r="B482" t="n">
         <v>2</v>
@@ -8153,12 +8153,12 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>45905</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="B483" t="n">
         <v>2</v>
@@ -8169,12 +8169,12 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>45890</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>80345</v>
+        <v>80351</v>
       </c>
       <c r="B484" t="n">
         <v>2</v>
@@ -8185,12 +8185,12 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>45904</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>80346</v>
+        <v>80352</v>
       </c>
       <c r="B485" t="n">
         <v>2</v>
@@ -8201,12 +8201,12 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>45895</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>80347</v>
+        <v>80353</v>
       </c>
       <c r="B486" t="n">
         <v>2</v>
@@ -8217,12 +8217,12 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>45895</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>80348</v>
+        <v>80428</v>
       </c>
       <c r="B487" t="n">
         <v>2</v>
@@ -8233,12 +8233,12 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>45903</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>80351</v>
+        <v>80430</v>
       </c>
       <c r="B488" t="n">
         <v>2</v>
@@ -8254,7 +8254,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>80352</v>
+        <v>80431</v>
       </c>
       <c r="B489" t="n">
         <v>2</v>
@@ -8265,12 +8265,12 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>45917</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>80353</v>
+        <v>80432</v>
       </c>
       <c r="B490" t="n">
         <v>2</v>
@@ -8281,12 +8281,12 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>45916</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>80428</v>
+        <v>80579</v>
       </c>
       <c r="B491" t="n">
         <v>2</v>
@@ -8297,12 +8297,12 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>45930</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>80430</v>
+        <v>80580</v>
       </c>
       <c r="B492" t="n">
         <v>2</v>
@@ -8313,12 +8313,12 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>45891</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>80431</v>
+        <v>80582</v>
       </c>
       <c r="B493" t="n">
         <v>2</v>
@@ -8329,12 +8329,12 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>45915</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>80432</v>
+        <v>80657</v>
       </c>
       <c r="B494" t="n">
         <v>2</v>
@@ -8345,70 +8345,6 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>45902</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="n">
-        <v>80579</v>
-      </c>
-      <c r="B495" t="n">
-        <v>2</v>
-      </c>
-      <c r="C495" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D495" s="2" t="n">
-        <v>45901</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="n">
-        <v>80580</v>
-      </c>
-      <c r="B496" t="n">
-        <v>2</v>
-      </c>
-      <c r="C496" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D496" s="2" t="n">
-        <v>45926</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="n">
-        <v>80582</v>
-      </c>
-      <c r="B497" t="n">
-        <v>2</v>
-      </c>
-      <c r="C497" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D497" s="2" t="n">
-        <v>45890</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="n">
-        <v>80657</v>
-      </c>
-      <c r="B498" t="n">
-        <v>2</v>
-      </c>
-      <c r="C498" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D498" s="2" t="n">
         <v>45924</v>
       </c>
     </row>
@@ -8450,7 +8386,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
+++ b/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
@@ -465,11 +465,11 @@
         <v>19671</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -529,11 +529,11 @@
         <v>13160</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
@@ -545,11 +545,11 @@
         <v>14389</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
@@ -577,11 +577,11 @@
         <v>15438</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
@@ -641,11 +641,11 @@
         <v>16320</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
@@ -673,11 +673,11 @@
         <v>17220</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
@@ -689,11 +689,11 @@
         <v>17568</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
@@ -705,11 +705,11 @@
         <v>17718</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
@@ -737,11 +737,11 @@
         <v>18078</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
@@ -753,11 +753,11 @@
         <v>18193</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
@@ -785,11 +785,11 @@
         <v>19004</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
@@ -817,11 +817,11 @@
         <v>21505</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
@@ -833,11 +833,11 @@
         <v>22750</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
@@ -881,11 +881,11 @@
         <v>23152</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
@@ -913,11 +913,11 @@
         <v>24248</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
@@ -945,11 +945,11 @@
         <v>24548</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
@@ -993,11 +993,11 @@
         <v>24922</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
@@ -1009,11 +1009,11 @@
         <v>25016</v>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
@@ -1025,11 +1025,11 @@
         <v>25116</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
@@ -1041,11 +1041,11 @@
         <v>25146</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
@@ -1073,11 +1073,11 @@
         <v>25708</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
@@ -1089,11 +1089,11 @@
         <v>27295</v>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
@@ -1137,11 +1137,11 @@
         <v>27914</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
@@ -1153,11 +1153,11 @@
         <v>28067</v>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
@@ -1233,11 +1233,11 @@
         <v>29218</v>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
@@ -1249,11 +1249,11 @@
         <v>29210</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
@@ -1265,11 +1265,11 @@
         <v>29471</v>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
@@ -1281,11 +1281,11 @@
         <v>29472</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
@@ -1313,11 +1313,11 @@
         <v>29726</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
@@ -1329,11 +1329,11 @@
         <v>29968</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
@@ -1345,11 +1345,11 @@
         <v>30461</v>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
@@ -1361,11 +1361,11 @@
         <v>30455</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
@@ -1393,11 +1393,11 @@
         <v>30703</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
@@ -1409,11 +1409,11 @@
         <v>31436</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
@@ -1425,11 +1425,11 @@
         <v>31442</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
@@ -1457,11 +1457,11 @@
         <v>31505</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
@@ -1473,11 +1473,11 @@
         <v>31516</v>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
@@ -1489,11 +1489,11 @@
         <v>31639</v>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
@@ -1505,11 +1505,11 @@
         <v>31745</v>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
@@ -1521,11 +1521,11 @@
         <v>31823</v>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
@@ -1553,11 +1553,11 @@
         <v>32425</v>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
@@ -1569,11 +1569,11 @@
         <v>32886</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
@@ -1617,11 +1617,11 @@
         <v>33954</v>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
@@ -1681,11 +1681,11 @@
         <v>34258</v>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
@@ -1697,11 +1697,11 @@
         <v>34387</v>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
@@ -1729,11 +1729,11 @@
         <v>34685</v>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
@@ -1745,11 +1745,11 @@
         <v>34827</v>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
@@ -1761,11 +1761,11 @@
         <v>34829</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
@@ -1793,11 +1793,11 @@
         <v>35053</v>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
@@ -1809,11 +1809,11 @@
         <v>35055</v>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
@@ -1825,11 +1825,11 @@
         <v>35161</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
@@ -1857,11 +1857,11 @@
         <v>35272</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
@@ -1905,11 +1905,11 @@
         <v>36532</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
@@ -1921,11 +1921,11 @@
         <v>37024</v>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
@@ -1937,11 +1937,11 @@
         <v>37025</v>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
@@ -1985,11 +1985,11 @@
         <v>37032</v>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
@@ -2001,11 +2001,11 @@
         <v>37197</v>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
@@ -2017,11 +2017,11 @@
         <v>37448</v>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
@@ -2033,11 +2033,11 @@
         <v>37521</v>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
@@ -2081,11 +2081,11 @@
         <v>37808</v>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
@@ -2145,11 +2145,11 @@
         <v>38252</v>
       </c>
       <c r="B107" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
@@ -2193,11 +2193,11 @@
         <v>38738</v>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
@@ -2209,11 +2209,11 @@
         <v>38783</v>
       </c>
       <c r="B111" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
@@ -2225,11 +2225,11 @@
         <v>39046</v>
       </c>
       <c r="B112" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
@@ -2273,11 +2273,11 @@
         <v>39165</v>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
@@ -2289,11 +2289,11 @@
         <v>39768</v>
       </c>
       <c r="B116" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
@@ -2321,11 +2321,11 @@
         <v>40045</v>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
@@ -2353,11 +2353,11 @@
         <v>41306</v>
       </c>
       <c r="B120" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
@@ -2385,11 +2385,11 @@
         <v>41872</v>
       </c>
       <c r="B122" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
@@ -2401,11 +2401,11 @@
         <v>42694</v>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
@@ -2433,11 +2433,11 @@
         <v>43232</v>
       </c>
       <c r="B125" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
@@ -2465,11 +2465,11 @@
         <v>43437</v>
       </c>
       <c r="B127" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
@@ -2481,11 +2481,11 @@
         <v>43438</v>
       </c>
       <c r="B128" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
@@ -2497,11 +2497,11 @@
         <v>43670</v>
       </c>
       <c r="B129" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
@@ -2545,11 +2545,11 @@
         <v>44131</v>
       </c>
       <c r="B132" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
@@ -2561,11 +2561,11 @@
         <v>44901</v>
       </c>
       <c r="B133" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
@@ -2577,11 +2577,11 @@
         <v>45004</v>
       </c>
       <c r="B134" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
@@ -2609,11 +2609,11 @@
         <v>45149</v>
       </c>
       <c r="B136" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
@@ -2625,11 +2625,11 @@
         <v>45412</v>
       </c>
       <c r="B137" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
@@ -2657,11 +2657,11 @@
         <v>45696</v>
       </c>
       <c r="B139" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
@@ -2705,11 +2705,11 @@
         <v>46151</v>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
@@ -2737,11 +2737,11 @@
         <v>46824</v>
       </c>
       <c r="B144" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D144" s="2" t="n">
@@ -2785,11 +2785,11 @@
         <v>47158</v>
       </c>
       <c r="B147" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
@@ -2801,11 +2801,11 @@
         <v>47160</v>
       </c>
       <c r="B148" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D148" s="2" t="n">
@@ -2817,11 +2817,11 @@
         <v>47068</v>
       </c>
       <c r="B149" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D149" s="2" t="n">
@@ -2833,11 +2833,11 @@
         <v>47069</v>
       </c>
       <c r="B150" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
@@ -2849,11 +2849,11 @@
         <v>47169</v>
       </c>
       <c r="B151" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
@@ -2865,11 +2865,11 @@
         <v>47173</v>
       </c>
       <c r="B152" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D152" s="2" t="n">
@@ -2881,11 +2881,11 @@
         <v>47418</v>
       </c>
       <c r="B153" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D153" s="2" t="n">
@@ -2913,11 +2913,11 @@
         <v>47779</v>
       </c>
       <c r="B155" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D155" s="2" t="n">
@@ -2945,11 +2945,11 @@
         <v>47809</v>
       </c>
       <c r="B157" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
@@ -2961,11 +2961,11 @@
         <v>48099</v>
       </c>
       <c r="B158" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
@@ -2977,11 +2977,11 @@
         <v>48416</v>
       </c>
       <c r="B159" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D159" s="2" t="n">
@@ -2993,11 +2993,11 @@
         <v>48423</v>
       </c>
       <c r="B160" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D160" s="2" t="n">
@@ -3057,11 +3057,11 @@
         <v>49070</v>
       </c>
       <c r="B164" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
@@ -3073,11 +3073,11 @@
         <v>49238</v>
       </c>
       <c r="B165" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D165" s="2" t="n">
@@ -3121,11 +3121,11 @@
         <v>49460</v>
       </c>
       <c r="B168" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
@@ -3137,11 +3137,11 @@
         <v>49812</v>
       </c>
       <c r="B169" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D169" s="2" t="n">
@@ -3153,11 +3153,11 @@
         <v>49817</v>
       </c>
       <c r="B170" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D170" s="2" t="n">
@@ -3233,11 +3233,11 @@
         <v>49987</v>
       </c>
       <c r="B175" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
@@ -3249,11 +3249,11 @@
         <v>49994</v>
       </c>
       <c r="B176" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
@@ -3265,11 +3265,11 @@
         <v>50059</v>
       </c>
       <c r="B177" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D177" s="2" t="n">
@@ -3313,11 +3313,11 @@
         <v>51212</v>
       </c>
       <c r="B180" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D180" s="2" t="n">
@@ -3345,11 +3345,11 @@
         <v>51216</v>
       </c>
       <c r="B182" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D182" s="2" t="n">
@@ -3361,11 +3361,11 @@
         <v>51332</v>
       </c>
       <c r="B183" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
@@ -3425,11 +3425,11 @@
         <v>51553</v>
       </c>
       <c r="B187" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D187" s="2" t="n">
@@ -3457,11 +3457,11 @@
         <v>51915</v>
       </c>
       <c r="B189" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D189" s="2" t="n">
@@ -3473,11 +3473,11 @@
         <v>52253</v>
       </c>
       <c r="B190" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D190" s="2" t="n">
@@ -3489,11 +3489,11 @@
         <v>52329</v>
       </c>
       <c r="B191" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D191" s="2" t="n">
@@ -3505,11 +3505,11 @@
         <v>52255</v>
       </c>
       <c r="B192" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D192" s="2" t="n">
@@ -3553,11 +3553,11 @@
         <v>52658</v>
       </c>
       <c r="B195" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D195" s="2" t="n">
@@ -3601,11 +3601,11 @@
         <v>53391</v>
       </c>
       <c r="B198" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D198" s="2" t="n">
@@ -3633,11 +3633,11 @@
         <v>53429</v>
       </c>
       <c r="B200" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D200" s="2" t="n">
@@ -3649,11 +3649,11 @@
         <v>53507</v>
       </c>
       <c r="B201" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D201" s="2" t="n">
@@ -3681,11 +3681,11 @@
         <v>54715</v>
       </c>
       <c r="B203" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D203" s="2" t="n">
@@ -3713,11 +3713,11 @@
         <v>55055</v>
       </c>
       <c r="B205" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D205" s="2" t="n">
@@ -3761,11 +3761,11 @@
         <v>55148</v>
       </c>
       <c r="B208" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D208" s="2" t="n">
@@ -3777,11 +3777,11 @@
         <v>55499</v>
       </c>
       <c r="B209" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D209" s="2" t="n">
@@ -3809,11 +3809,11 @@
         <v>55790</v>
       </c>
       <c r="B211" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D211" s="2" t="n">
@@ -3841,11 +3841,11 @@
         <v>55891</v>
       </c>
       <c r="B213" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D213" s="2" t="n">
@@ -3905,11 +3905,11 @@
         <v>56214</v>
       </c>
       <c r="B217" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D217" s="2" t="n">
@@ -3937,11 +3937,11 @@
         <v>56931</v>
       </c>
       <c r="B219" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D219" s="2" t="n">
@@ -3953,11 +3953,11 @@
         <v>56937</v>
       </c>
       <c r="B220" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D220" s="2" t="n">
@@ -3969,11 +3969,11 @@
         <v>57570</v>
       </c>
       <c r="B221" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D221" s="2" t="n">
@@ -4017,11 +4017,11 @@
         <v>57819</v>
       </c>
       <c r="B224" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D224" s="2" t="n">
@@ -4033,11 +4033,11 @@
         <v>58378</v>
       </c>
       <c r="B225" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D225" s="2" t="n">
@@ -4049,11 +4049,11 @@
         <v>58383</v>
       </c>
       <c r="B226" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D226" s="2" t="n">
@@ -4081,11 +4081,11 @@
         <v>58579</v>
       </c>
       <c r="B228" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D228" s="2" t="n">
@@ -4145,11 +4145,11 @@
         <v>58980</v>
       </c>
       <c r="B232" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D232" s="2" t="n">
@@ -4161,11 +4161,11 @@
         <v>58987</v>
       </c>
       <c r="B233" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D233" s="2" t="n">
@@ -4241,11 +4241,11 @@
         <v>59743</v>
       </c>
       <c r="B238" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D238" s="2" t="n">
@@ -4257,11 +4257,11 @@
         <v>59744</v>
       </c>
       <c r="B239" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D239" s="2" t="n">
@@ -4289,11 +4289,11 @@
         <v>59890</v>
       </c>
       <c r="B241" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D241" s="2" t="n">
@@ -4321,11 +4321,11 @@
         <v>59900</v>
       </c>
       <c r="B243" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D243" s="2" t="n">
@@ -4353,11 +4353,11 @@
         <v>60149</v>
       </c>
       <c r="B245" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D245" s="2" t="n">
@@ -4369,11 +4369,11 @@
         <v>60374</v>
       </c>
       <c r="B246" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D246" s="2" t="n">
@@ -4401,11 +4401,11 @@
         <v>60623</v>
       </c>
       <c r="B248" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D248" s="2" t="n">
@@ -4417,11 +4417,11 @@
         <v>60679</v>
       </c>
       <c r="B249" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D249" s="2" t="n">
@@ -4433,11 +4433,11 @@
         <v>60738</v>
       </c>
       <c r="B250" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D250" s="2" t="n">
@@ -4481,11 +4481,11 @@
         <v>60873</v>
       </c>
       <c r="B253" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D253" s="2" t="n">
@@ -4593,11 +4593,11 @@
         <v>61528</v>
       </c>
       <c r="B260" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D260" s="2" t="n">
@@ -4625,11 +4625,11 @@
         <v>61920</v>
       </c>
       <c r="B262" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D262" s="2" t="n">
@@ -4641,11 +4641,11 @@
         <v>61927</v>
       </c>
       <c r="B263" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D263" s="2" t="n">
@@ -4657,11 +4657,11 @@
         <v>61928</v>
       </c>
       <c r="B264" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D264" s="2" t="n">
@@ -4689,11 +4689,11 @@
         <v>62128</v>
       </c>
       <c r="B266" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D266" s="2" t="n">
@@ -4705,11 +4705,11 @@
         <v>62348</v>
       </c>
       <c r="B267" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D267" s="2" t="n">
@@ -4721,11 +4721,11 @@
         <v>62213</v>
       </c>
       <c r="B268" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D268" s="2" t="n">
@@ -4737,11 +4737,11 @@
         <v>62214</v>
       </c>
       <c r="B269" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D269" s="2" t="n">
@@ -4769,11 +4769,11 @@
         <v>62619</v>
       </c>
       <c r="B271" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D271" s="2" t="n">
@@ -4785,11 +4785,11 @@
         <v>62855</v>
       </c>
       <c r="B272" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D272" s="2" t="n">
@@ -4801,11 +4801,11 @@
         <v>62965</v>
       </c>
       <c r="B273" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D273" s="2" t="n">
@@ -4817,11 +4817,11 @@
         <v>63040</v>
       </c>
       <c r="B274" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D274" s="2" t="n">
@@ -4849,11 +4849,11 @@
         <v>63052</v>
       </c>
       <c r="B276" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D276" s="2" t="n">
@@ -4881,11 +4881,11 @@
         <v>63841</v>
       </c>
       <c r="B278" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D278" s="2" t="n">
@@ -4897,11 +4897,11 @@
         <v>63843</v>
       </c>
       <c r="B279" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D279" s="2" t="n">
@@ -4913,11 +4913,11 @@
         <v>63952</v>
       </c>
       <c r="B280" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D280" s="2" t="n">
@@ -4977,11 +4977,11 @@
         <v>64510</v>
       </c>
       <c r="B284" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D284" s="2" t="n">
@@ -4993,11 +4993,11 @@
         <v>64629</v>
       </c>
       <c r="B285" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D285" s="2" t="n">
@@ -5057,11 +5057,11 @@
         <v>66043</v>
       </c>
       <c r="B289" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D289" s="2" t="n">
@@ -5073,11 +5073,11 @@
         <v>66114</v>
       </c>
       <c r="B290" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D290" s="2" t="n">
@@ -5137,11 +5137,11 @@
         <v>66166</v>
       </c>
       <c r="B294" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D294" s="2" t="n">
@@ -5153,11 +5153,11 @@
         <v>66167</v>
       </c>
       <c r="B295" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D295" s="2" t="n">
@@ -5185,11 +5185,11 @@
         <v>66173</v>
       </c>
       <c r="B297" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D297" s="2" t="n">
@@ -5201,11 +5201,11 @@
         <v>66600</v>
       </c>
       <c r="B298" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D298" s="2" t="n">
@@ -5217,11 +5217,11 @@
         <v>66944</v>
       </c>
       <c r="B299" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D299" s="2" t="n">
@@ -5233,11 +5233,11 @@
         <v>66947</v>
       </c>
       <c r="B300" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D300" s="2" t="n">
@@ -5265,11 +5265,11 @@
         <v>66617</v>
       </c>
       <c r="B302" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D302" s="2" t="n">
@@ -5281,11 +5281,11 @@
         <v>66952</v>
       </c>
       <c r="B303" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D303" s="2" t="n">
@@ -5297,11 +5297,11 @@
         <v>66677</v>
       </c>
       <c r="B304" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D304" s="2" t="n">
@@ -5313,11 +5313,11 @@
         <v>66734</v>
       </c>
       <c r="B305" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D305" s="2" t="n">
@@ -5345,11 +5345,11 @@
         <v>66959</v>
       </c>
       <c r="B307" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D307" s="2" t="n">
@@ -5361,11 +5361,11 @@
         <v>66960</v>
       </c>
       <c r="B308" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D308" s="2" t="n">
@@ -5441,11 +5441,11 @@
         <v>67518</v>
       </c>
       <c r="B313" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D313" s="2" t="n">
@@ -5489,11 +5489,11 @@
         <v>67635</v>
       </c>
       <c r="B316" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D316" s="2" t="n">
@@ -5505,11 +5505,11 @@
         <v>68466</v>
       </c>
       <c r="B317" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D317" s="2" t="n">
@@ -5521,11 +5521,11 @@
         <v>67637</v>
       </c>
       <c r="B318" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D318" s="2" t="n">
@@ -5537,11 +5537,11 @@
         <v>67638</v>
       </c>
       <c r="B319" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D319" s="2" t="n">
@@ -5601,11 +5601,11 @@
         <v>68419</v>
       </c>
       <c r="B323" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D323" s="2" t="n">
@@ -5617,11 +5617,11 @@
         <v>68093</v>
       </c>
       <c r="B324" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D324" s="2" t="n">
@@ -5633,11 +5633,11 @@
         <v>68420</v>
       </c>
       <c r="B325" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D325" s="2" t="n">
@@ -5665,11 +5665,11 @@
         <v>68744</v>
       </c>
       <c r="B327" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D327" s="2" t="n">
@@ -5681,11 +5681,11 @@
         <v>68745</v>
       </c>
       <c r="B328" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D328" s="2" t="n">
@@ -5697,11 +5697,11 @@
         <v>68748</v>
       </c>
       <c r="B329" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D329" s="2" t="n">
@@ -5745,11 +5745,11 @@
         <v>68846</v>
       </c>
       <c r="B332" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D332" s="2" t="n">
@@ -5809,11 +5809,11 @@
         <v>69762</v>
       </c>
       <c r="B336" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D336" s="2" t="n">
@@ -5841,11 +5841,11 @@
         <v>70334</v>
       </c>
       <c r="B338" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D338" s="2" t="n">
@@ -5857,11 +5857,11 @@
         <v>70335</v>
       </c>
       <c r="B339" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D339" s="2" t="n">
@@ -5889,11 +5889,11 @@
         <v>70341</v>
       </c>
       <c r="B341" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D341" s="2" t="n">
@@ -5905,11 +5905,11 @@
         <v>70699</v>
       </c>
       <c r="B342" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D342" s="2" t="n">
@@ -5921,11 +5921,11 @@
         <v>70870</v>
       </c>
       <c r="B343" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D343" s="2" t="n">
@@ -5937,11 +5937,11 @@
         <v>71055</v>
       </c>
       <c r="B344" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D344" s="2" t="n">
@@ -5969,11 +5969,11 @@
         <v>71062</v>
       </c>
       <c r="B346" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D346" s="2" t="n">
@@ -5985,11 +5985,11 @@
         <v>71169</v>
       </c>
       <c r="B347" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D347" s="2" t="n">
@@ -6001,11 +6001,11 @@
         <v>71171</v>
       </c>
       <c r="B348" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D348" s="2" t="n">
@@ -6033,11 +6033,11 @@
         <v>71418</v>
       </c>
       <c r="B350" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D350" s="2" t="n">
@@ -6065,11 +6065,11 @@
         <v>71428</v>
       </c>
       <c r="B352" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D352" s="2" t="n">
@@ -6081,11 +6081,11 @@
         <v>71654</v>
       </c>
       <c r="B353" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D353" s="2" t="n">
@@ -6145,11 +6145,11 @@
         <v>72006</v>
       </c>
       <c r="B357" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D357" s="2" t="n">
@@ -6161,11 +6161,11 @@
         <v>72000</v>
       </c>
       <c r="B358" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D358" s="2" t="n">
@@ -6193,11 +6193,11 @@
         <v>72532</v>
       </c>
       <c r="B360" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D360" s="2" t="n">
@@ -6209,11 +6209,11 @@
         <v>72657</v>
       </c>
       <c r="B361" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D361" s="2" t="n">
@@ -6241,11 +6241,11 @@
         <v>72743</v>
       </c>
       <c r="B363" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D363" s="2" t="n">
@@ -6305,11 +6305,11 @@
         <v>73350</v>
       </c>
       <c r="B367" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D367" s="2" t="n">
@@ -6321,11 +6321,11 @@
         <v>73441</v>
       </c>
       <c r="B368" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D368" s="2" t="n">
@@ -6337,11 +6337,11 @@
         <v>73442</v>
       </c>
       <c r="B369" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D369" s="2" t="n">
@@ -6353,11 +6353,11 @@
         <v>73443</v>
       </c>
       <c r="B370" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D370" s="2" t="n">
@@ -6369,11 +6369,11 @@
         <v>73464</v>
       </c>
       <c r="B371" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D371" s="2" t="n">
@@ -6417,11 +6417,11 @@
         <v>73693</v>
       </c>
       <c r="B374" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D374" s="2" t="n">
@@ -6449,11 +6449,11 @@
         <v>73742</v>
       </c>
       <c r="B376" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D376" s="2" t="n">
@@ -6529,11 +6529,11 @@
         <v>74067</v>
       </c>
       <c r="B381" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D381" s="2" t="n">
@@ -6545,11 +6545,11 @@
         <v>74394</v>
       </c>
       <c r="B382" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D382" s="2" t="n">
@@ -6561,11 +6561,11 @@
         <v>74397</v>
       </c>
       <c r="B383" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D383" s="2" t="n">
@@ -6577,11 +6577,11 @@
         <v>74398</v>
       </c>
       <c r="B384" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D384" s="2" t="n">
@@ -6593,11 +6593,11 @@
         <v>74491</v>
       </c>
       <c r="B385" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D385" s="2" t="n">
@@ -6625,11 +6625,11 @@
         <v>74514</v>
       </c>
       <c r="B387" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D387" s="2" t="n">
@@ -6689,11 +6689,11 @@
         <v>74886</v>
       </c>
       <c r="B391" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D391" s="2" t="n">
@@ -6721,11 +6721,11 @@
         <v>74827</v>
       </c>
       <c r="B393" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D393" s="2" t="n">
@@ -6737,11 +6737,11 @@
         <v>74949</v>
       </c>
       <c r="B394" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D394" s="2" t="n">
@@ -6753,11 +6753,11 @@
         <v>75122</v>
       </c>
       <c r="B395" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D395" s="2" t="n">
@@ -6785,11 +6785,11 @@
         <v>75123</v>
       </c>
       <c r="B397" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D397" s="2" t="n">
@@ -6801,11 +6801,11 @@
         <v>74971</v>
       </c>
       <c r="B398" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D398" s="2" t="n">
@@ -6865,11 +6865,11 @@
         <v>75300</v>
       </c>
       <c r="B402" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D402" s="2" t="n">
@@ -6913,11 +6913,11 @@
         <v>75357</v>
       </c>
       <c r="B405" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D405" s="2" t="n">
@@ -6929,11 +6929,11 @@
         <v>75358</v>
       </c>
       <c r="B406" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D406" s="2" t="n">
@@ -6961,11 +6961,11 @@
         <v>75483</v>
       </c>
       <c r="B408" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D408" s="2" t="n">
@@ -6993,11 +6993,11 @@
         <v>75769</v>
       </c>
       <c r="B410" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D410" s="2" t="n">
@@ -7041,11 +7041,11 @@
         <v>76082</v>
       </c>
       <c r="B413" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D413" s="2" t="n">
@@ -7057,11 +7057,11 @@
         <v>76223</v>
       </c>
       <c r="B414" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D414" s="2" t="n">
@@ -7105,11 +7105,11 @@
         <v>76498</v>
       </c>
       <c r="B417" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D417" s="2" t="n">
@@ -7137,11 +7137,11 @@
         <v>76577</v>
       </c>
       <c r="B419" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D419" s="2" t="n">
@@ -7233,11 +7233,11 @@
         <v>76880</v>
       </c>
       <c r="B425" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D425" s="2" t="n">
@@ -7265,11 +7265,11 @@
         <v>76945</v>
       </c>
       <c r="B427" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D427" s="2" t="n">
@@ -7281,11 +7281,11 @@
         <v>77125</v>
       </c>
       <c r="B428" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D428" s="2" t="n">
@@ -7329,11 +7329,11 @@
         <v>77600</v>
       </c>
       <c r="B431" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D431" s="2" t="n">
@@ -7345,11 +7345,11 @@
         <v>77794</v>
       </c>
       <c r="B432" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D432" s="2" t="n">
@@ -7361,11 +7361,11 @@
         <v>78067</v>
       </c>
       <c r="B433" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D433" s="2" t="n">
@@ -7393,11 +7393,11 @@
         <v>78235</v>
       </c>
       <c r="B435" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D435" s="2" t="n">
@@ -7425,11 +7425,11 @@
         <v>78237</v>
       </c>
       <c r="B437" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D437" s="2" t="n">
@@ -7473,11 +7473,11 @@
         <v>78787</v>
       </c>
       <c r="B440" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D440" s="2" t="n">
@@ -7553,11 +7553,11 @@
         <v>79347</v>
       </c>
       <c r="B445" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D445" s="2" t="n">
@@ -7569,11 +7569,11 @@
         <v>79285</v>
       </c>
       <c r="B446" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D446" s="2" t="n">
@@ -7585,11 +7585,11 @@
         <v>79282</v>
       </c>
       <c r="B447" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D447" s="2" t="n">
@@ -7681,11 +7681,11 @@
         <v>79542</v>
       </c>
       <c r="B453" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D453" s="2" t="n">
@@ -7697,11 +7697,11 @@
         <v>79533</v>
       </c>
       <c r="B454" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D454" s="2" t="n">
@@ -7713,11 +7713,11 @@
         <v>79534</v>
       </c>
       <c r="B455" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D455" s="2" t="n">
@@ -7729,11 +7729,11 @@
         <v>79537</v>
       </c>
       <c r="B456" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D456" s="2" t="n">
@@ -7761,11 +7761,11 @@
         <v>79602</v>
       </c>
       <c r="B458" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D458" s="2" t="n">
@@ -7777,11 +7777,11 @@
         <v>79611</v>
       </c>
       <c r="B459" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D459" s="2" t="n">
@@ -7825,11 +7825,11 @@
         <v>79608</v>
       </c>
       <c r="B462" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D462" s="2" t="n">
@@ -7873,11 +7873,11 @@
         <v>79746</v>
       </c>
       <c r="B465" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D465" s="2" t="n">
@@ -7889,11 +7889,11 @@
         <v>79932</v>
       </c>
       <c r="B466" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D466" s="2" t="n">
@@ -7921,11 +7921,11 @@
         <v>79934</v>
       </c>
       <c r="B468" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D468" s="2" t="n">
@@ -7953,11 +7953,11 @@
         <v>79978</v>
       </c>
       <c r="B470" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D470" s="2" t="n">
@@ -7969,11 +7969,11 @@
         <v>79979</v>
       </c>
       <c r="B471" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D471" s="2" t="n">
@@ -8001,11 +8001,11 @@
         <v>80115</v>
       </c>
       <c r="B473" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D473" s="2" t="n">
@@ -8017,11 +8017,11 @@
         <v>80116</v>
       </c>
       <c r="B474" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D474" s="2" t="n">
@@ -8049,11 +8049,11 @@
         <v>80118</v>
       </c>
       <c r="B476" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D476" s="2" t="n">
@@ -8065,11 +8065,11 @@
         <v>80238</v>
       </c>
       <c r="B477" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D477" s="2" t="n">
@@ -8081,11 +8081,11 @@
         <v>80244</v>
       </c>
       <c r="B478" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D478" s="2" t="n">
@@ -8097,11 +8097,11 @@
         <v>80344</v>
       </c>
       <c r="B479" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D479" s="2" t="n">
@@ -8113,11 +8113,11 @@
         <v>80345</v>
       </c>
       <c r="B480" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D480" s="2" t="n">
@@ -8129,11 +8129,11 @@
         <v>80346</v>
       </c>
       <c r="B481" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D481" s="2" t="n">
@@ -8145,11 +8145,11 @@
         <v>80347</v>
       </c>
       <c r="B482" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D482" s="2" t="n">
@@ -8161,11 +8161,11 @@
         <v>80348</v>
       </c>
       <c r="B483" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D483" s="2" t="n">
@@ -8177,11 +8177,11 @@
         <v>80351</v>
       </c>
       <c r="B484" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D484" s="2" t="n">
@@ -8241,11 +8241,11 @@
         <v>80430</v>
       </c>
       <c r="B488" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D488" s="2" t="n">
@@ -8273,11 +8273,11 @@
         <v>80432</v>
       </c>
       <c r="B490" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D490" s="2" t="n">
@@ -8289,11 +8289,11 @@
         <v>80579</v>
       </c>
       <c r="B491" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D491" s="2" t="n">
@@ -8321,11 +8321,11 @@
         <v>80582</v>
       </c>
       <c r="B493" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D493" s="2" t="n">
@@ -8359,7 +8359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8382,11 +8382,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>493</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Alistamiento</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
+++ b/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
@@ -817,11 +817,11 @@
         <v>21505</v>
       </c>
       <c r="B24" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
@@ -993,11 +993,11 @@
         <v>24922</v>
       </c>
       <c r="B35" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
@@ -2561,11 +2561,11 @@
         <v>44901</v>
       </c>
       <c r="B133" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
@@ -2705,11 +2705,11 @@
         <v>46151</v>
       </c>
       <c r="B142" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
@@ -4657,11 +4657,11 @@
         <v>61928</v>
       </c>
       <c r="B264" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D264" s="2" t="n">
@@ -5745,11 +5745,11 @@
         <v>68846</v>
       </c>
       <c r="B332" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D332" s="2" t="n">
@@ -6913,11 +6913,11 @@
         <v>75357</v>
       </c>
       <c r="B405" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D405" s="2" t="n">
@@ -7345,11 +7345,11 @@
         <v>77794</v>
       </c>
       <c r="B432" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D432" s="2" t="n">
@@ -8359,7 +8359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3">
@@ -8397,6 +8397,26 @@
       </c>
       <c r="B3" t="n">
         <v>224</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Por Reprogramar</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
+++ b/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
@@ -833,11 +833,11 @@
         <v>22750</v>
       </c>
       <c r="B25" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
@@ -2321,11 +2321,11 @@
         <v>40045</v>
       </c>
       <c r="B118" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
@@ -2945,11 +2945,11 @@
         <v>47809</v>
       </c>
       <c r="B157" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
@@ -5217,11 +5217,11 @@
         <v>66944</v>
       </c>
       <c r="B299" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D299" s="2" t="n">
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
@@ -8406,7 +8406,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
+++ b/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
@@ -1025,11 +1025,11 @@
         <v>25116</v>
       </c>
       <c r="B37" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
@@ -1089,11 +1089,11 @@
         <v>27295</v>
       </c>
       <c r="B41" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
@@ -2273,11 +2273,11 @@
         <v>39165</v>
       </c>
       <c r="B115" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
@@ -2481,11 +2481,11 @@
         <v>43438</v>
       </c>
       <c r="B128" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
@@ -2545,11 +2545,11 @@
         <v>44131</v>
       </c>
       <c r="B132" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
@@ -3473,11 +3473,11 @@
         <v>52253</v>
       </c>
       <c r="B190" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D190" s="2" t="n">
@@ -3649,11 +3649,11 @@
         <v>53507</v>
       </c>
       <c r="B201" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D201" s="2" t="n">
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3">
@@ -8406,7 +8406,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
+++ b/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D494"/>
+  <dimension ref="A1:D498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>51212</v>
+        <v>51208</v>
       </c>
       <c r="B180" t="n">
         <v>9</v>
@@ -3321,44 +3321,44 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45897</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>51215</v>
+        <v>51212</v>
       </c>
       <c r="B181" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45923</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>51216</v>
+        <v>51215</v>
       </c>
       <c r="B182" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45908</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>51332</v>
+        <v>51216</v>
       </c>
       <c r="B183" t="n">
         <v>9</v>
@@ -3369,28 +3369,28 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45896</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>51333</v>
+        <v>51332</v>
       </c>
       <c r="B184" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45910</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>51543</v>
+        <v>51333</v>
       </c>
       <c r="B185" t="n">
         <v>2</v>
@@ -3401,12 +3401,12 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45916</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>51641</v>
+        <v>51543</v>
       </c>
       <c r="B186" t="n">
         <v>2</v>
@@ -3417,92 +3417,92 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>45925</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>51553</v>
+        <v>51641</v>
       </c>
       <c r="B187" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>45895</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>51554</v>
+        <v>51553</v>
       </c>
       <c r="B188" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>45923</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>51915</v>
+        <v>51554</v>
       </c>
       <c r="B189" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>45894</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>52253</v>
+        <v>51915</v>
       </c>
       <c r="B190" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>45888</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>52329</v>
+        <v>52253</v>
       </c>
       <c r="B191" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>45894</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>52255</v>
+        <v>52329</v>
       </c>
       <c r="B192" t="n">
         <v>9</v>
@@ -3513,28 +3513,28 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>45909</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>52332</v>
+        <v>52255</v>
       </c>
       <c r="B193" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>45910</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>52589</v>
+        <v>52332</v>
       </c>
       <c r="B194" t="n">
         <v>2</v>
@@ -3545,44 +3545,44 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>45929</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>52658</v>
+        <v>52589</v>
       </c>
       <c r="B195" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>45904</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>52997</v>
+        <v>52658</v>
       </c>
       <c r="B196" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>45926</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>53259</v>
+        <v>52997</v>
       </c>
       <c r="B197" t="n">
         <v>2</v>
@@ -3593,156 +3593,156 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>45922</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>53391</v>
+        <v>53259</v>
       </c>
       <c r="B198" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>45889</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>53386</v>
+        <v>53391</v>
       </c>
       <c r="B199" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>45922</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>53429</v>
+        <v>53386</v>
       </c>
       <c r="B200" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>45890</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>53507</v>
+        <v>53429</v>
       </c>
       <c r="B201" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>54163</v>
+        <v>53507</v>
       </c>
       <c r="B202" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45912</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>54715</v>
+        <v>54163</v>
       </c>
       <c r="B203" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45895</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>54719</v>
+        <v>54715</v>
       </c>
       <c r="B204" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45922</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>55055</v>
+        <v>54719</v>
       </c>
       <c r="B205" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45895</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>55129</v>
+        <v>55055</v>
       </c>
       <c r="B206" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>45929</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>55159</v>
+        <v>55129</v>
       </c>
       <c r="B207" t="n">
         <v>2</v>
@@ -3753,28 +3753,28 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45923</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>55148</v>
+        <v>55159</v>
       </c>
       <c r="B208" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>45889</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>55499</v>
+        <v>55148</v>
       </c>
       <c r="B209" t="n">
         <v>9</v>
@@ -3785,92 +3785,92 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45898</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>55688</v>
+        <v>55499</v>
       </c>
       <c r="B210" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45916</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>55790</v>
+        <v>55688</v>
       </c>
       <c r="B211" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45894</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>55795</v>
+        <v>55790</v>
       </c>
       <c r="B212" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>45926</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>55891</v>
+        <v>55795</v>
       </c>
       <c r="B213" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>45902</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>55894</v>
+        <v>55891</v>
       </c>
       <c r="B214" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>45917</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>56211</v>
+        <v>55894</v>
       </c>
       <c r="B215" t="n">
         <v>2</v>
@@ -3881,12 +3881,12 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>56213</v>
+        <v>56211</v>
       </c>
       <c r="B216" t="n">
         <v>2</v>
@@ -3897,60 +3897,60 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>45925</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>56214</v>
+        <v>56213</v>
       </c>
       <c r="B217" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>45891</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>56784</v>
+        <v>56214</v>
       </c>
       <c r="B218" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>45926</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>56931</v>
+        <v>56784</v>
       </c>
       <c r="B219" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>45896</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>56937</v>
+        <v>56931</v>
       </c>
       <c r="B220" t="n">
         <v>9</v>
@@ -3961,12 +3961,12 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>45905</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>57570</v>
+        <v>56937</v>
       </c>
       <c r="B221" t="n">
         <v>9</v>
@@ -3977,28 +3977,28 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>45904</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>57631</v>
+        <v>57570</v>
       </c>
       <c r="B222" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>45923</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>57739</v>
+        <v>57631</v>
       </c>
       <c r="B223" t="n">
         <v>2</v>
@@ -4009,28 +4009,28 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>45917</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>57819</v>
+        <v>57739</v>
       </c>
       <c r="B224" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>45905</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>58378</v>
+        <v>57819</v>
       </c>
       <c r="B225" t="n">
         <v>9</v>
@@ -4041,12 +4041,12 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>45896</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>58383</v>
+        <v>58378</v>
       </c>
       <c r="B226" t="n">
         <v>9</v>
@@ -4057,60 +4057,60 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>45910</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>58428</v>
+        <v>58383</v>
       </c>
       <c r="B227" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>45915</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>58579</v>
+        <v>58428</v>
       </c>
       <c r="B228" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>45909</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>58586</v>
+        <v>58579</v>
       </c>
       <c r="B229" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>45915</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>58587</v>
+        <v>58586</v>
       </c>
       <c r="B230" t="n">
         <v>2</v>
@@ -4121,12 +4121,12 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>58590</v>
+        <v>58587</v>
       </c>
       <c r="B231" t="n">
         <v>2</v>
@@ -4142,23 +4142,23 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>58980</v>
+        <v>58590</v>
       </c>
       <c r="B232" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>45894</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>58987</v>
+        <v>58980</v>
       </c>
       <c r="B233" t="n">
         <v>9</v>
@@ -4169,28 +4169,28 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>45904</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>59067</v>
+        <v>58987</v>
       </c>
       <c r="B234" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>45919</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>59290</v>
+        <v>59067</v>
       </c>
       <c r="B235" t="n">
         <v>2</v>
@@ -4201,12 +4201,12 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>45909</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>59293</v>
+        <v>59290</v>
       </c>
       <c r="B236" t="n">
         <v>2</v>
@@ -4217,12 +4217,12 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>45915</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>59737</v>
+        <v>59293</v>
       </c>
       <c r="B237" t="n">
         <v>2</v>
@@ -4233,28 +4233,28 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>45923</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>59743</v>
+        <v>59737</v>
       </c>
       <c r="B238" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>45894</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>59744</v>
+        <v>59743</v>
       </c>
       <c r="B239" t="n">
         <v>9</v>
@@ -4265,108 +4265,108 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>45902</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>59751</v>
+        <v>59744</v>
       </c>
       <c r="B240" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>45929</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>59890</v>
+        <v>59751</v>
       </c>
       <c r="B241" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>45908</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>59896</v>
+        <v>59890</v>
       </c>
       <c r="B242" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>45923</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>59900</v>
+        <v>59896</v>
       </c>
       <c r="B243" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>45904</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>59908</v>
+        <v>59900</v>
       </c>
       <c r="B244" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>45919</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>60149</v>
+        <v>59908</v>
       </c>
       <c r="B245" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>45903</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>60374</v>
+        <v>60149</v>
       </c>
       <c r="B246" t="n">
         <v>9</v>
@@ -4377,44 +4377,44 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>45904</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>60612</v>
+        <v>60374</v>
       </c>
       <c r="B247" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>45925</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>60623</v>
+        <v>60612</v>
       </c>
       <c r="B248" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>45905</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>60679</v>
+        <v>60623</v>
       </c>
       <c r="B249" t="n">
         <v>9</v>
@@ -4425,12 +4425,12 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>60738</v>
+        <v>60679</v>
       </c>
       <c r="B250" t="n">
         <v>9</v>
@@ -4441,28 +4441,28 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>45898</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>60743</v>
+        <v>60738</v>
       </c>
       <c r="B251" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>45917</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>60872</v>
+        <v>60743</v>
       </c>
       <c r="B252" t="n">
         <v>2</v>
@@ -4473,44 +4473,44 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>45930</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>60873</v>
+        <v>60872</v>
       </c>
       <c r="B253" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>45905</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>60874</v>
+        <v>60873</v>
       </c>
       <c r="B254" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>45923</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>60882</v>
+        <v>60874</v>
       </c>
       <c r="B255" t="n">
         <v>2</v>
@@ -4521,12 +4521,12 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>61067</v>
+        <v>60882</v>
       </c>
       <c r="B256" t="n">
         <v>2</v>
@@ -4537,12 +4537,12 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>45915</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>61285</v>
+        <v>61067</v>
       </c>
       <c r="B257" t="n">
         <v>2</v>
@@ -4553,12 +4553,12 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>45926</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>61286</v>
+        <v>61285</v>
       </c>
       <c r="B258" t="n">
         <v>2</v>
@@ -4569,12 +4569,12 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>45909</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>61248</v>
+        <v>61286</v>
       </c>
       <c r="B259" t="n">
         <v>2</v>
@@ -4585,60 +4585,60 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>45926</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>61528</v>
+        <v>61248</v>
       </c>
       <c r="B260" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>45897</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>61483</v>
+        <v>61528</v>
       </c>
       <c r="B261" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>45925</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>61920</v>
+        <v>61483</v>
       </c>
       <c r="B262" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>45898</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>61927</v>
+        <v>61920</v>
       </c>
       <c r="B263" t="n">
         <v>9</v>
@@ -4649,60 +4649,60 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>45905</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>61928</v>
+        <v>61927</v>
       </c>
       <c r="B264" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>45888</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>62050</v>
+        <v>61928</v>
       </c>
       <c r="B265" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>45915</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>62128</v>
+        <v>62050</v>
       </c>
       <c r="B266" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>45902</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>62348</v>
+        <v>62128</v>
       </c>
       <c r="B267" t="n">
         <v>9</v>
@@ -4713,12 +4713,12 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>45889</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>62213</v>
+        <v>62348</v>
       </c>
       <c r="B268" t="n">
         <v>9</v>
@@ -4729,12 +4729,12 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>45905</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>62214</v>
+        <v>62213</v>
       </c>
       <c r="B269" t="n">
         <v>9</v>
@@ -4750,39 +4750,39 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>62353</v>
+        <v>62214</v>
       </c>
       <c r="B270" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>45918</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>62619</v>
+        <v>62353</v>
       </c>
       <c r="B271" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>45896</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>62855</v>
+        <v>62619</v>
       </c>
       <c r="B272" t="n">
         <v>9</v>
@@ -4793,12 +4793,12 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>45908</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>62965</v>
+        <v>62855</v>
       </c>
       <c r="B273" t="n">
         <v>9</v>
@@ -4809,12 +4809,12 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>45891</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>63040</v>
+        <v>62965</v>
       </c>
       <c r="B274" t="n">
         <v>9</v>
@@ -4825,76 +4825,76 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>63048</v>
+        <v>63040</v>
       </c>
       <c r="B275" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>45918</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>63052</v>
+        <v>63048</v>
       </c>
       <c r="B276" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>45891</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>63061</v>
+        <v>63052</v>
       </c>
       <c r="B277" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>45923</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>63841</v>
+        <v>63061</v>
       </c>
       <c r="B278" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>45903</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>63843</v>
+        <v>63841</v>
       </c>
       <c r="B279" t="n">
         <v>9</v>
@@ -4905,12 +4905,12 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>45904</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>63952</v>
+        <v>63843</v>
       </c>
       <c r="B280" t="n">
         <v>9</v>
@@ -4921,28 +4921,28 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>45909</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>63957</v>
+        <v>63952</v>
       </c>
       <c r="B281" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>45923</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>64120</v>
+        <v>63957</v>
       </c>
       <c r="B282" t="n">
         <v>2</v>
@@ -4953,12 +4953,12 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>45930</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>64625</v>
+        <v>64120</v>
       </c>
       <c r="B283" t="n">
         <v>2</v>
@@ -4969,76 +4969,76 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>45918</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>64510</v>
+        <v>64122</v>
       </c>
       <c r="B284" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>45896</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>64629</v>
+        <v>64625</v>
       </c>
       <c r="B285" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>45905</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>64631</v>
+        <v>64510</v>
       </c>
       <c r="B286" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>45912</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>65332</v>
+        <v>64629</v>
       </c>
       <c r="B287" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>45912</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>65918</v>
+        <v>64631</v>
       </c>
       <c r="B288" t="n">
         <v>2</v>
@@ -5049,76 +5049,76 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>45925</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>66043</v>
+        <v>65332</v>
       </c>
       <c r="B289" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>45891</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>66114</v>
+        <v>65918</v>
       </c>
       <c r="B290" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>45891</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>66115</v>
+        <v>66043</v>
       </c>
       <c r="B291" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>45926</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>66344</v>
+        <v>66114</v>
       </c>
       <c r="B292" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>45912</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>66348</v>
+        <v>66115</v>
       </c>
       <c r="B293" t="n">
         <v>2</v>
@@ -5129,60 +5129,60 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>45915</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>66166</v>
+        <v>66344</v>
       </c>
       <c r="B294" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>45897</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>66167</v>
+        <v>66348</v>
       </c>
       <c r="B295" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>45904</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>66349</v>
+        <v>66166</v>
       </c>
       <c r="B296" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>45915</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>66173</v>
+        <v>66167</v>
       </c>
       <c r="B297" t="n">
         <v>9</v>
@@ -5193,44 +5193,44 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>45895</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>66600</v>
+        <v>66349</v>
       </c>
       <c r="B298" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>45891</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>66944</v>
+        <v>66173</v>
       </c>
       <c r="B299" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>45888</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>66947</v>
+        <v>66600</v>
       </c>
       <c r="B300" t="n">
         <v>9</v>
@@ -5241,28 +5241,28 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>45904</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>66615</v>
+        <v>66944</v>
       </c>
       <c r="B301" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>45926</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>66617</v>
+        <v>66947</v>
       </c>
       <c r="B302" t="n">
         <v>9</v>
@@ -5273,28 +5273,28 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>45897</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>66952</v>
+        <v>66615</v>
       </c>
       <c r="B303" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>45910</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>66677</v>
+        <v>66617</v>
       </c>
       <c r="B304" t="n">
         <v>9</v>
@@ -5305,12 +5305,12 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>45894</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>66734</v>
+        <v>66952</v>
       </c>
       <c r="B305" t="n">
         <v>9</v>
@@ -5321,28 +5321,28 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>45903</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>66839</v>
+        <v>66677</v>
       </c>
       <c r="B306" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>45917</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>66959</v>
+        <v>66734</v>
       </c>
       <c r="B307" t="n">
         <v>9</v>
@@ -5353,60 +5353,60 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>45896</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>66960</v>
+        <v>66839</v>
       </c>
       <c r="B308" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>45911</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>66961</v>
+        <v>66959</v>
       </c>
       <c r="B309" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>45924</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>66843</v>
+        <v>66960</v>
       </c>
       <c r="B310" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>45912</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>67300</v>
+        <v>66961</v>
       </c>
       <c r="B311" t="n">
         <v>2</v>
@@ -5422,7 +5422,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>67634</v>
+        <v>66843</v>
       </c>
       <c r="B312" t="n">
         <v>2</v>
@@ -5438,23 +5438,23 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>67518</v>
+        <v>67300</v>
       </c>
       <c r="B313" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>45897</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>67551</v>
+        <v>67634</v>
       </c>
       <c r="B314" t="n">
         <v>2</v>
@@ -5465,60 +5465,60 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>45915</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>67689</v>
+        <v>67518</v>
       </c>
       <c r="B315" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>45917</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>67635</v>
+        <v>67551</v>
       </c>
       <c r="B316" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>45901</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>68466</v>
+        <v>67689</v>
       </c>
       <c r="B317" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>45891</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>67637</v>
+        <v>67635</v>
       </c>
       <c r="B318" t="n">
         <v>9</v>
@@ -5529,12 +5529,12 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>67638</v>
+        <v>68466</v>
       </c>
       <c r="B319" t="n">
         <v>9</v>
@@ -5545,44 +5545,44 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>45903</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>68179</v>
+        <v>67637</v>
       </c>
       <c r="B320" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>45922</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>68186</v>
+        <v>67638</v>
       </c>
       <c r="B321" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>45917</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>68323</v>
+        <v>68179</v>
       </c>
       <c r="B322" t="n">
         <v>2</v>
@@ -5593,44 +5593,44 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>45910</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>68419</v>
+        <v>68186</v>
       </c>
       <c r="B323" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>45889</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>68093</v>
+        <v>68323</v>
       </c>
       <c r="B324" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>45895</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>68420</v>
+        <v>68419</v>
       </c>
       <c r="B325" t="n">
         <v>9</v>
@@ -5641,28 +5641,28 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>45894</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>68743</v>
+        <v>68093</v>
       </c>
       <c r="B326" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>45924</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>68744</v>
+        <v>68420</v>
       </c>
       <c r="B327" t="n">
         <v>9</v>
@@ -5673,28 +5673,28 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>68745</v>
+        <v>68743</v>
       </c>
       <c r="B328" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>45891</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>68748</v>
+        <v>68744</v>
       </c>
       <c r="B329" t="n">
         <v>9</v>
@@ -5705,60 +5705,60 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>45908</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>68751</v>
+        <v>68745</v>
       </c>
       <c r="B330" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>45930</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>68754</v>
+        <v>68748</v>
       </c>
       <c r="B331" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>45930</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>68846</v>
+        <v>68751</v>
       </c>
       <c r="B332" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>45888</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>68902</v>
+        <v>68754</v>
       </c>
       <c r="B333" t="n">
         <v>2</v>
@@ -5769,28 +5769,28 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>45922</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>69641</v>
+        <v>68846</v>
       </c>
       <c r="B334" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>45910</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>69656</v>
+        <v>68902</v>
       </c>
       <c r="B335" t="n">
         <v>2</v>
@@ -5801,28 +5801,28 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>69762</v>
+        <v>69641</v>
       </c>
       <c r="B336" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>45901</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>69913</v>
+        <v>69656</v>
       </c>
       <c r="B337" t="n">
         <v>2</v>
@@ -5833,12 +5833,12 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>45916</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>70334</v>
+        <v>69762</v>
       </c>
       <c r="B338" t="n">
         <v>9</v>
@@ -5849,44 +5849,44 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>45890</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>70335</v>
+        <v>69913</v>
       </c>
       <c r="B339" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>45909</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>70300</v>
+        <v>70334</v>
       </c>
       <c r="B340" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>45912</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>70341</v>
+        <v>70335</v>
       </c>
       <c r="B341" t="n">
         <v>9</v>
@@ -5897,28 +5897,28 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>45904</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>70699</v>
+        <v>70300</v>
       </c>
       <c r="B342" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>45905</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>70870</v>
+        <v>70341</v>
       </c>
       <c r="B343" t="n">
         <v>9</v>
@@ -5929,12 +5929,12 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>45908</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>71055</v>
+        <v>70699</v>
       </c>
       <c r="B344" t="n">
         <v>9</v>
@@ -5945,28 +5945,28 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>45897</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>71056</v>
+        <v>70870</v>
       </c>
       <c r="B345" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>45930</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>71062</v>
+        <v>71055</v>
       </c>
       <c r="B346" t="n">
         <v>9</v>
@@ -5977,28 +5977,28 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>45908</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>71169</v>
+        <v>71056</v>
       </c>
       <c r="B347" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>45903</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>71171</v>
+        <v>71062</v>
       </c>
       <c r="B348" t="n">
         <v>9</v>
@@ -6009,28 +6009,28 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>45898</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>71249</v>
+        <v>71169</v>
       </c>
       <c r="B349" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>45918</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>71418</v>
+        <v>71171</v>
       </c>
       <c r="B350" t="n">
         <v>9</v>
@@ -6041,12 +6041,12 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>45889</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>71422</v>
+        <v>71249</v>
       </c>
       <c r="B351" t="n">
         <v>2</v>
@@ -6057,12 +6057,12 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>45925</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>71428</v>
+        <v>71418</v>
       </c>
       <c r="B352" t="n">
         <v>9</v>
@@ -6073,60 +6073,60 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>45909</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>71654</v>
+        <v>71422</v>
       </c>
       <c r="B353" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>45894</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>71777</v>
+        <v>71428</v>
       </c>
       <c r="B354" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>45916</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>71781</v>
+        <v>71654</v>
       </c>
       <c r="B355" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>45917</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>71988</v>
+        <v>71777</v>
       </c>
       <c r="B356" t="n">
         <v>2</v>
@@ -6137,60 +6137,60 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>45924</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>72006</v>
+        <v>71781</v>
       </c>
       <c r="B357" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>45903</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>72000</v>
+        <v>71988</v>
       </c>
       <c r="B358" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>45902</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>72190</v>
+        <v>72006</v>
       </c>
       <c r="B359" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>45915</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>72532</v>
+        <v>72000</v>
       </c>
       <c r="B360" t="n">
         <v>9</v>
@@ -6201,44 +6201,44 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>45890</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>72657</v>
+        <v>72190</v>
       </c>
       <c r="B361" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>45897</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>72658</v>
+        <v>72532</v>
       </c>
       <c r="B362" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>45925</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>72743</v>
+        <v>72657</v>
       </c>
       <c r="B363" t="n">
         <v>9</v>
@@ -6254,7 +6254,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>72979</v>
+        <v>72658</v>
       </c>
       <c r="B364" t="n">
         <v>2</v>
@@ -6265,28 +6265,28 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>72980</v>
+        <v>72743</v>
       </c>
       <c r="B365" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>45925</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>72982</v>
+        <v>72979</v>
       </c>
       <c r="B366" t="n">
         <v>2</v>
@@ -6297,44 +6297,44 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>73350</v>
+        <v>72980</v>
       </c>
       <c r="B367" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>45896</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>73441</v>
+        <v>72982</v>
       </c>
       <c r="B368" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>45898</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>73442</v>
+        <v>73350</v>
       </c>
       <c r="B369" t="n">
         <v>9</v>
@@ -6345,12 +6345,12 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>45909</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>73443</v>
+        <v>73441</v>
       </c>
       <c r="B370" t="n">
         <v>9</v>
@@ -6361,12 +6361,12 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>45890</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>73464</v>
+        <v>73442</v>
       </c>
       <c r="B371" t="n">
         <v>9</v>
@@ -6377,60 +6377,60 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>45897</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>73490</v>
+        <v>73443</v>
       </c>
       <c r="B372" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>45916</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>73531</v>
+        <v>73464</v>
       </c>
       <c r="B373" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>45926</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>73693</v>
+        <v>73490</v>
       </c>
       <c r="B374" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>45901</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>73740</v>
+        <v>73531</v>
       </c>
       <c r="B375" t="n">
         <v>2</v>
@@ -6441,12 +6441,12 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>45915</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>73742</v>
+        <v>73693</v>
       </c>
       <c r="B376" t="n">
         <v>9</v>
@@ -6457,12 +6457,12 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>45896</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>73847</v>
+        <v>73740</v>
       </c>
       <c r="B377" t="n">
         <v>2</v>
@@ -6473,28 +6473,28 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>45919</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>73848</v>
+        <v>73742</v>
       </c>
       <c r="B378" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>45917</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>74002</v>
+        <v>73847</v>
       </c>
       <c r="B379" t="n">
         <v>2</v>
@@ -6505,12 +6505,12 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>45915</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>74003</v>
+        <v>73848</v>
       </c>
       <c r="B380" t="n">
         <v>2</v>
@@ -6521,44 +6521,44 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>45926</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>74067</v>
+        <v>74002</v>
       </c>
       <c r="B381" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>45902</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>74394</v>
+        <v>74003</v>
       </c>
       <c r="B382" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>45897</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>74397</v>
+        <v>74067</v>
       </c>
       <c r="B383" t="n">
         <v>9</v>
@@ -6569,12 +6569,12 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>45908</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>74398</v>
+        <v>74394</v>
       </c>
       <c r="B384" t="n">
         <v>9</v>
@@ -6585,12 +6585,12 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>45890</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>74491</v>
+        <v>74397</v>
       </c>
       <c r="B385" t="n">
         <v>9</v>
@@ -6601,28 +6601,28 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>45903</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>74512</v>
+        <v>74398</v>
       </c>
       <c r="B386" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>45919</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>74514</v>
+        <v>74491</v>
       </c>
       <c r="B387" t="n">
         <v>9</v>
@@ -6633,12 +6633,12 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>45912</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>74517</v>
+        <v>74512</v>
       </c>
       <c r="B388" t="n">
         <v>2</v>
@@ -6649,28 +6649,28 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>45922</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>74520</v>
+        <v>74514</v>
       </c>
       <c r="B389" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>45919</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>74885</v>
+        <v>74517</v>
       </c>
       <c r="B390" t="n">
         <v>2</v>
@@ -6686,23 +6686,23 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>74886</v>
+        <v>74520</v>
       </c>
       <c r="B391" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>45908</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>74825</v>
+        <v>74885</v>
       </c>
       <c r="B392" t="n">
         <v>2</v>
@@ -6713,12 +6713,12 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>45929</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>74827</v>
+        <v>74886</v>
       </c>
       <c r="B393" t="n">
         <v>9</v>
@@ -6729,28 +6729,28 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>45911</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>74949</v>
+        <v>74825</v>
       </c>
       <c r="B394" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>45894</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>75122</v>
+        <v>74827</v>
       </c>
       <c r="B395" t="n">
         <v>9</v>
@@ -6761,28 +6761,28 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>45890</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>74970</v>
+        <v>74949</v>
       </c>
       <c r="B396" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>45929</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>75123</v>
+        <v>75122</v>
       </c>
       <c r="B397" t="n">
         <v>9</v>
@@ -6793,60 +6793,60 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>45911</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>74971</v>
+        <v>74970</v>
       </c>
       <c r="B398" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>45903</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>75124</v>
+        <v>75123</v>
       </c>
       <c r="B399" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>45923</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>75126</v>
+        <v>74971</v>
       </c>
       <c r="B400" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>45919</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>75298</v>
+        <v>75124</v>
       </c>
       <c r="B401" t="n">
         <v>2</v>
@@ -6857,28 +6857,28 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>45930</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>75300</v>
+        <v>75126</v>
       </c>
       <c r="B402" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>45897</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>75302</v>
+        <v>75298</v>
       </c>
       <c r="B403" t="n">
         <v>2</v>
@@ -6889,76 +6889,76 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>45917</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>75327</v>
+        <v>75300</v>
       </c>
       <c r="B404" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>45916</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>75357</v>
+        <v>75302</v>
       </c>
       <c r="B405" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>45888</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>75358</v>
+        <v>75327</v>
       </c>
       <c r="B406" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>45909</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>75365</v>
+        <v>75357</v>
       </c>
       <c r="B407" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>45915</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>75483</v>
+        <v>75358</v>
       </c>
       <c r="B408" t="n">
         <v>9</v>
@@ -6969,12 +6969,12 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>45896</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>75493</v>
+        <v>75365</v>
       </c>
       <c r="B409" t="n">
         <v>2</v>
@@ -6985,12 +6985,12 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>45926</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>75769</v>
+        <v>75483</v>
       </c>
       <c r="B410" t="n">
         <v>9</v>
@@ -7001,12 +7001,12 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>45909</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>75742</v>
+        <v>75493</v>
       </c>
       <c r="B411" t="n">
         <v>2</v>
@@ -7017,108 +7017,108 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>45929</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>75985</v>
+        <v>75769</v>
       </c>
       <c r="B412" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>45919</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>76082</v>
+        <v>75742</v>
       </c>
       <c r="B413" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>45911</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>76223</v>
+        <v>75985</v>
       </c>
       <c r="B414" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>45889</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>76405</v>
+        <v>76082</v>
       </c>
       <c r="B415" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>45919</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>76408</v>
+        <v>76223</v>
       </c>
       <c r="B416" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>45916</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>76498</v>
+        <v>76405</v>
       </c>
       <c r="B417" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>45896</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>76533</v>
+        <v>76408</v>
       </c>
       <c r="B418" t="n">
         <v>2</v>
@@ -7129,12 +7129,12 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>45919</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>76577</v>
+        <v>76498</v>
       </c>
       <c r="B419" t="n">
         <v>9</v>
@@ -7145,12 +7145,12 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>45908</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>76653</v>
+        <v>76533</v>
       </c>
       <c r="B420" t="n">
         <v>2</v>
@@ -7161,28 +7161,28 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>45912</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>76710</v>
+        <v>76577</v>
       </c>
       <c r="B421" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>45930</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>76786</v>
+        <v>76653</v>
       </c>
       <c r="B422" t="n">
         <v>2</v>
@@ -7193,12 +7193,12 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>45924</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>76788</v>
+        <v>76710</v>
       </c>
       <c r="B423" t="n">
         <v>2</v>
@@ -7209,12 +7209,12 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>45917</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>76881</v>
+        <v>76786</v>
       </c>
       <c r="B424" t="n">
         <v>2</v>
@@ -7225,28 +7225,28 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>45918</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>76880</v>
+        <v>76788</v>
       </c>
       <c r="B425" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>45898</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>76939</v>
+        <v>76881</v>
       </c>
       <c r="B426" t="n">
         <v>2</v>
@@ -7257,12 +7257,12 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>45915</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>76945</v>
+        <v>76880</v>
       </c>
       <c r="B427" t="n">
         <v>9</v>
@@ -7273,92 +7273,92 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>77125</v>
+        <v>76939</v>
       </c>
       <c r="B428" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>45897</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>77216</v>
+        <v>76945</v>
       </c>
       <c r="B429" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>45918</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>77439</v>
+        <v>77125</v>
       </c>
       <c r="B430" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>45929</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>77600</v>
+        <v>77216</v>
       </c>
       <c r="B431" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>45911</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>77794</v>
+        <v>77439</v>
       </c>
       <c r="B432" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>45888</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>78067</v>
+        <v>77600</v>
       </c>
       <c r="B433" t="n">
         <v>9</v>
@@ -7369,28 +7369,28 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>45901</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>78069</v>
+        <v>77794</v>
       </c>
       <c r="B434" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>45915</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>78235</v>
+        <v>78067</v>
       </c>
       <c r="B435" t="n">
         <v>9</v>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>78236</v>
+        <v>78069</v>
       </c>
       <c r="B436" t="n">
         <v>2</v>
@@ -7417,12 +7417,12 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>78237</v>
+        <v>78235</v>
       </c>
       <c r="B437" t="n">
         <v>9</v>
@@ -7433,12 +7433,12 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>45908</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>78414</v>
+        <v>78236</v>
       </c>
       <c r="B438" t="n">
         <v>2</v>
@@ -7449,44 +7449,44 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>45930</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>78598</v>
+        <v>78237</v>
       </c>
       <c r="B439" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>45924</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>78787</v>
+        <v>78414</v>
       </c>
       <c r="B440" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>45890</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>78790</v>
+        <v>78598</v>
       </c>
       <c r="B441" t="n">
         <v>2</v>
@@ -7497,28 +7497,28 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>45930</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>78791</v>
+        <v>78787</v>
       </c>
       <c r="B442" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>45916</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>79041</v>
+        <v>78790</v>
       </c>
       <c r="B443" t="n">
         <v>2</v>
@@ -7529,12 +7529,12 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>45918</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>79345</v>
+        <v>78791</v>
       </c>
       <c r="B444" t="n">
         <v>2</v>
@@ -7545,44 +7545,44 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>45925</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>79347</v>
+        <v>79041</v>
       </c>
       <c r="B445" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>45909</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>79285</v>
+        <v>79345</v>
       </c>
       <c r="B446" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>45901</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>79282</v>
+        <v>79347</v>
       </c>
       <c r="B447" t="n">
         <v>9</v>
@@ -7593,44 +7593,44 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>45908</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>79283</v>
+        <v>79285</v>
       </c>
       <c r="B448" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>45910</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>79525</v>
+        <v>79282</v>
       </c>
       <c r="B449" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>45918</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>79526</v>
+        <v>79283</v>
       </c>
       <c r="B450" t="n">
         <v>2</v>
@@ -7641,28 +7641,28 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>45926</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>79527</v>
+        <v>79349</v>
       </c>
       <c r="B451" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>45918</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>79530</v>
+        <v>79525</v>
       </c>
       <c r="B452" t="n">
         <v>2</v>
@@ -7673,60 +7673,60 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>45930</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>79542</v>
+        <v>79526</v>
       </c>
       <c r="B453" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>45909</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>79533</v>
+        <v>79527</v>
       </c>
       <c r="B454" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>45895</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>79534</v>
+        <v>79530</v>
       </c>
       <c r="B455" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>45890</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>79537</v>
+        <v>79542</v>
       </c>
       <c r="B456" t="n">
         <v>9</v>
@@ -7737,28 +7737,28 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>45891</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>79599</v>
+        <v>79543</v>
       </c>
       <c r="B457" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>45925</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>79602</v>
+        <v>79533</v>
       </c>
       <c r="B458" t="n">
         <v>9</v>
@@ -7769,12 +7769,12 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>45889</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>79611</v>
+        <v>79534</v>
       </c>
       <c r="B459" t="n">
         <v>9</v>
@@ -7785,28 +7785,28 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>45908</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>79531</v>
+        <v>79537</v>
       </c>
       <c r="B460" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>45916</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>79607</v>
+        <v>79599</v>
       </c>
       <c r="B461" t="n">
         <v>2</v>
@@ -7817,12 +7817,12 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>45924</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>79608</v>
+        <v>79602</v>
       </c>
       <c r="B462" t="n">
         <v>9</v>
@@ -7833,28 +7833,28 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>45904</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>79678</v>
+        <v>79611</v>
       </c>
       <c r="B463" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>45912</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>79750</v>
+        <v>79531</v>
       </c>
       <c r="B464" t="n">
         <v>2</v>
@@ -7865,28 +7865,28 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>45918</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>79746</v>
+        <v>79607</v>
       </c>
       <c r="B465" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>45898</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>79932</v>
+        <v>79608</v>
       </c>
       <c r="B466" t="n">
         <v>9</v>
@@ -7897,12 +7897,12 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>45901</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>79933</v>
+        <v>79678</v>
       </c>
       <c r="B467" t="n">
         <v>2</v>
@@ -7913,44 +7913,44 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>45918</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>79934</v>
+        <v>79750</v>
       </c>
       <c r="B468" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>45890</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>79977</v>
+        <v>79746</v>
       </c>
       <c r="B469" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>45917</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>79978</v>
+        <v>79932</v>
       </c>
       <c r="B470" t="n">
         <v>9</v>
@@ -7961,60 +7961,60 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>45910</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>79979</v>
+        <v>79933</v>
       </c>
       <c r="B471" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>45898</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>79980</v>
+        <v>79934</v>
       </c>
       <c r="B472" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>45917</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>80115</v>
+        <v>79977</v>
       </c>
       <c r="B473" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>45909</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>80116</v>
+        <v>79978</v>
       </c>
       <c r="B474" t="n">
         <v>9</v>
@@ -8025,44 +8025,44 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>45891</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>80117</v>
+        <v>79979</v>
       </c>
       <c r="B475" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>45916</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>80118</v>
+        <v>79980</v>
       </c>
       <c r="B476" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>45911</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>80238</v>
+        <v>80115</v>
       </c>
       <c r="B477" t="n">
         <v>9</v>
@@ -8073,12 +8073,12 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>45902</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>80244</v>
+        <v>80116</v>
       </c>
       <c r="B478" t="n">
         <v>9</v>
@@ -8089,28 +8089,28 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>45905</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>80344</v>
+        <v>80117</v>
       </c>
       <c r="B479" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>45890</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>80345</v>
+        <v>80118</v>
       </c>
       <c r="B480" t="n">
         <v>9</v>
@@ -8121,12 +8121,12 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>45904</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>80346</v>
+        <v>80238</v>
       </c>
       <c r="B481" t="n">
         <v>9</v>
@@ -8137,12 +8137,12 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>45895</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>80347</v>
+        <v>80244</v>
       </c>
       <c r="B482" t="n">
         <v>9</v>
@@ -8153,12 +8153,12 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>45895</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>80348</v>
+        <v>80344</v>
       </c>
       <c r="B483" t="n">
         <v>9</v>
@@ -8169,12 +8169,12 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>45903</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>80351</v>
+        <v>80345</v>
       </c>
       <c r="B484" t="n">
         <v>9</v>
@@ -8185,60 +8185,60 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>45891</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>80352</v>
+        <v>80346</v>
       </c>
       <c r="B485" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>45917</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>80353</v>
+        <v>80347</v>
       </c>
       <c r="B486" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>45916</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>80428</v>
+        <v>80348</v>
       </c>
       <c r="B487" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>45930</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>80430</v>
+        <v>80351</v>
       </c>
       <c r="B488" t="n">
         <v>9</v>
@@ -8254,7 +8254,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>80431</v>
+        <v>80352</v>
       </c>
       <c r="B489" t="n">
         <v>2</v>
@@ -8265,86 +8265,150 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>80432</v>
+        <v>80353</v>
       </c>
       <c r="B490" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>45902</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>80579</v>
+        <v>80428</v>
       </c>
       <c r="B491" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>45901</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>80580</v>
+        <v>80430</v>
       </c>
       <c r="B492" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>45926</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>80582</v>
+        <v>80431</v>
       </c>
       <c r="B493" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>45890</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
+        <v>80432</v>
+      </c>
+      <c r="B494" t="n">
+        <v>9</v>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>En Ruta</t>
+        </is>
+      </c>
+      <c r="D494" s="2" t="n">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>80579</v>
+      </c>
+      <c r="B495" t="n">
+        <v>9</v>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>En Ruta</t>
+        </is>
+      </c>
+      <c r="D495" s="2" t="n">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>80580</v>
+      </c>
+      <c r="B496" t="n">
+        <v>2</v>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Alistamiento</t>
+        </is>
+      </c>
+      <c r="D496" s="2" t="n">
+        <v>45926</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>80582</v>
+      </c>
+      <c r="B497" t="n">
+        <v>9</v>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>En Ruta</t>
+        </is>
+      </c>
+      <c r="D497" s="2" t="n">
+        <v>45890</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
         <v>80657</v>
       </c>
-      <c r="B494" t="n">
-        <v>2</v>
-      </c>
-      <c r="C494" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D494" s="2" t="n">
+      <c r="B498" t="n">
+        <v>2</v>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Alistamiento</t>
+        </is>
+      </c>
+      <c r="D498" s="2" t="n">
         <v>45924</v>
       </c>
     </row>
@@ -8386,7 +8450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
@@ -8396,7 +8460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">

--- a/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
+++ b/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D498"/>
+  <dimension ref="A1:D490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>51208</v>
+        <v>51212</v>
       </c>
       <c r="B180" t="n">
         <v>9</v>
@@ -3321,44 +3321,44 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45904</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>51212</v>
+        <v>51215</v>
       </c>
       <c r="B181" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45897</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>51215</v>
+        <v>51216</v>
       </c>
       <c r="B182" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45923</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>51216</v>
+        <v>51332</v>
       </c>
       <c r="B183" t="n">
         <v>9</v>
@@ -3369,28 +3369,28 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45908</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>51332</v>
+        <v>51333</v>
       </c>
       <c r="B184" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45896</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>51333</v>
+        <v>51543</v>
       </c>
       <c r="B185" t="n">
         <v>2</v>
@@ -3401,12 +3401,12 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45910</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>51543</v>
+        <v>51641</v>
       </c>
       <c r="B186" t="n">
         <v>2</v>
@@ -3417,92 +3417,92 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>45916</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>51641</v>
+        <v>51553</v>
       </c>
       <c r="B187" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>45925</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>51553</v>
+        <v>51554</v>
       </c>
       <c r="B188" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>45895</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>51554</v>
+        <v>51915</v>
       </c>
       <c r="B189" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>45923</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>51915</v>
+        <v>52253</v>
       </c>
       <c r="B190" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>45894</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>52253</v>
+        <v>52329</v>
       </c>
       <c r="B191" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>45888</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>52329</v>
+        <v>52255</v>
       </c>
       <c r="B192" t="n">
         <v>9</v>
@@ -3513,28 +3513,28 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>45894</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>52255</v>
+        <v>52332</v>
       </c>
       <c r="B193" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>45909</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>52332</v>
+        <v>52589</v>
       </c>
       <c r="B194" t="n">
         <v>2</v>
@@ -3545,44 +3545,44 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>45910</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>52589</v>
+        <v>52658</v>
       </c>
       <c r="B195" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>45929</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>52658</v>
+        <v>52997</v>
       </c>
       <c r="B196" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>45904</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>52997</v>
+        <v>53259</v>
       </c>
       <c r="B197" t="n">
         <v>2</v>
@@ -3593,156 +3593,156 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>45926</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>53259</v>
+        <v>53391</v>
       </c>
       <c r="B198" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>45922</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>53391</v>
+        <v>53386</v>
       </c>
       <c r="B199" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>45889</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>53386</v>
+        <v>53429</v>
       </c>
       <c r="B200" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>45922</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>53429</v>
+        <v>53507</v>
       </c>
       <c r="B201" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45890</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>53507</v>
+        <v>54163</v>
       </c>
       <c r="B202" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45888</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>54163</v>
+        <v>54715</v>
       </c>
       <c r="B203" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45912</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>54715</v>
+        <v>54719</v>
       </c>
       <c r="B204" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45895</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>54719</v>
+        <v>55055</v>
       </c>
       <c r="B205" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45922</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>55055</v>
+        <v>55129</v>
       </c>
       <c r="B206" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>45895</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>55129</v>
+        <v>55159</v>
       </c>
       <c r="B207" t="n">
         <v>2</v>
@@ -3753,28 +3753,28 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45929</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>55159</v>
+        <v>55148</v>
       </c>
       <c r="B208" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>45923</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>55148</v>
+        <v>55499</v>
       </c>
       <c r="B209" t="n">
         <v>9</v>
@@ -3785,92 +3785,92 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45889</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>55499</v>
+        <v>55688</v>
       </c>
       <c r="B210" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45898</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>55688</v>
+        <v>55790</v>
       </c>
       <c r="B211" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45916</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>55790</v>
+        <v>55795</v>
       </c>
       <c r="B212" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>45894</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>55795</v>
+        <v>55891</v>
       </c>
       <c r="B213" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>45926</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>55891</v>
+        <v>55894</v>
       </c>
       <c r="B214" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>45902</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>55894</v>
+        <v>56211</v>
       </c>
       <c r="B215" t="n">
         <v>2</v>
@@ -3881,12 +3881,12 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>45917</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>56211</v>
+        <v>56213</v>
       </c>
       <c r="B216" t="n">
         <v>2</v>
@@ -3897,60 +3897,60 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>45922</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>56213</v>
+        <v>56214</v>
       </c>
       <c r="B217" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>45925</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>56214</v>
+        <v>56784</v>
       </c>
       <c r="B218" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>45891</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>56784</v>
+        <v>56931</v>
       </c>
       <c r="B219" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>45926</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>56931</v>
+        <v>56937</v>
       </c>
       <c r="B220" t="n">
         <v>9</v>
@@ -3961,12 +3961,12 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>45896</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>56937</v>
+        <v>57570</v>
       </c>
       <c r="B221" t="n">
         <v>9</v>
@@ -3977,28 +3977,28 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>45905</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>57570</v>
+        <v>57631</v>
       </c>
       <c r="B222" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>45904</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>57631</v>
+        <v>57739</v>
       </c>
       <c r="B223" t="n">
         <v>2</v>
@@ -4009,28 +4009,28 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>45923</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>57739</v>
+        <v>57819</v>
       </c>
       <c r="B224" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>45917</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>57819</v>
+        <v>58378</v>
       </c>
       <c r="B225" t="n">
         <v>9</v>
@@ -4041,12 +4041,12 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>45905</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>58378</v>
+        <v>58383</v>
       </c>
       <c r="B226" t="n">
         <v>9</v>
@@ -4057,60 +4057,60 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>45896</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>58383</v>
+        <v>58428</v>
       </c>
       <c r="B227" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>45910</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>58428</v>
+        <v>58579</v>
       </c>
       <c r="B228" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>45915</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>58579</v>
+        <v>58586</v>
       </c>
       <c r="B229" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>45909</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>58586</v>
+        <v>58587</v>
       </c>
       <c r="B230" t="n">
         <v>2</v>
@@ -4121,12 +4121,12 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>45915</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>58587</v>
+        <v>58590</v>
       </c>
       <c r="B231" t="n">
         <v>2</v>
@@ -4142,23 +4142,23 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>58590</v>
+        <v>58980</v>
       </c>
       <c r="B232" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>45922</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>58980</v>
+        <v>58987</v>
       </c>
       <c r="B233" t="n">
         <v>9</v>
@@ -4169,28 +4169,28 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>45894</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>58987</v>
+        <v>59067</v>
       </c>
       <c r="B234" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>45904</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>59067</v>
+        <v>59290</v>
       </c>
       <c r="B235" t="n">
         <v>2</v>
@@ -4201,12 +4201,12 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>45919</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>59290</v>
+        <v>59293</v>
       </c>
       <c r="B236" t="n">
         <v>2</v>
@@ -4217,12 +4217,12 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>45909</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>59293</v>
+        <v>59737</v>
       </c>
       <c r="B237" t="n">
         <v>2</v>
@@ -4233,28 +4233,28 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>45915</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>59737</v>
+        <v>59743</v>
       </c>
       <c r="B238" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>45923</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>59743</v>
+        <v>59744</v>
       </c>
       <c r="B239" t="n">
         <v>9</v>
@@ -4265,108 +4265,108 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>45894</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>59744</v>
+        <v>59751</v>
       </c>
       <c r="B240" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>45902</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>59751</v>
+        <v>59890</v>
       </c>
       <c r="B241" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>45929</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>59890</v>
+        <v>59896</v>
       </c>
       <c r="B242" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>45908</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>59896</v>
+        <v>59900</v>
       </c>
       <c r="B243" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>45923</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>59900</v>
+        <v>59908</v>
       </c>
       <c r="B244" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>45904</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>59908</v>
+        <v>60149</v>
       </c>
       <c r="B245" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>45919</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>60149</v>
+        <v>60374</v>
       </c>
       <c r="B246" t="n">
         <v>9</v>
@@ -4377,44 +4377,44 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>60374</v>
+        <v>60612</v>
       </c>
       <c r="B247" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>45904</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>60612</v>
+        <v>60623</v>
       </c>
       <c r="B248" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>45925</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>60623</v>
+        <v>60679</v>
       </c>
       <c r="B249" t="n">
         <v>9</v>
@@ -4425,12 +4425,12 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>45905</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>60679</v>
+        <v>60738</v>
       </c>
       <c r="B250" t="n">
         <v>9</v>
@@ -4441,28 +4441,28 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>45903</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>60738</v>
+        <v>60743</v>
       </c>
       <c r="B251" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>45898</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>60743</v>
+        <v>60872</v>
       </c>
       <c r="B252" t="n">
         <v>2</v>
@@ -4473,44 +4473,44 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>45917</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>60872</v>
+        <v>60873</v>
       </c>
       <c r="B253" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>45930</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>60873</v>
+        <v>60874</v>
       </c>
       <c r="B254" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>45905</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>60874</v>
+        <v>60882</v>
       </c>
       <c r="B255" t="n">
         <v>2</v>
@@ -4521,12 +4521,12 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>45923</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>60882</v>
+        <v>61067</v>
       </c>
       <c r="B256" t="n">
         <v>2</v>
@@ -4537,12 +4537,12 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>61067</v>
+        <v>61285</v>
       </c>
       <c r="B257" t="n">
         <v>2</v>
@@ -4553,12 +4553,12 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>45915</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>61285</v>
+        <v>61286</v>
       </c>
       <c r="B258" t="n">
         <v>2</v>
@@ -4569,12 +4569,12 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>45926</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>61286</v>
+        <v>61248</v>
       </c>
       <c r="B259" t="n">
         <v>2</v>
@@ -4585,60 +4585,60 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>45909</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>61248</v>
+        <v>61528</v>
       </c>
       <c r="B260" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>45926</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>61528</v>
+        <v>61483</v>
       </c>
       <c r="B261" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>45897</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>61483</v>
+        <v>61920</v>
       </c>
       <c r="B262" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>45925</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>61920</v>
+        <v>61927</v>
       </c>
       <c r="B263" t="n">
         <v>9</v>
@@ -4649,60 +4649,60 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>45898</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>61927</v>
+        <v>61928</v>
       </c>
       <c r="B264" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>45905</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>61928</v>
+        <v>62050</v>
       </c>
       <c r="B265" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>45888</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>62050</v>
+        <v>62128</v>
       </c>
       <c r="B266" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>45915</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>62128</v>
+        <v>62348</v>
       </c>
       <c r="B267" t="n">
         <v>9</v>
@@ -4713,12 +4713,12 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>45902</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>62348</v>
+        <v>62213</v>
       </c>
       <c r="B268" t="n">
         <v>9</v>
@@ -4729,12 +4729,12 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>45889</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>62213</v>
+        <v>62214</v>
       </c>
       <c r="B269" t="n">
         <v>9</v>
@@ -4750,39 +4750,39 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>62214</v>
+        <v>62353</v>
       </c>
       <c r="B270" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>45905</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>62353</v>
+        <v>62619</v>
       </c>
       <c r="B271" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>45918</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>62619</v>
+        <v>62855</v>
       </c>
       <c r="B272" t="n">
         <v>9</v>
@@ -4793,12 +4793,12 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>45896</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>62855</v>
+        <v>62965</v>
       </c>
       <c r="B273" t="n">
         <v>9</v>
@@ -4809,12 +4809,12 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>45908</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>62965</v>
+        <v>63040</v>
       </c>
       <c r="B274" t="n">
         <v>9</v>
@@ -4825,76 +4825,76 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>45891</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>63040</v>
+        <v>63048</v>
       </c>
       <c r="B275" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>45889</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>63048</v>
+        <v>63052</v>
       </c>
       <c r="B276" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>45918</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>63052</v>
+        <v>63061</v>
       </c>
       <c r="B277" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>45891</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>63061</v>
+        <v>63841</v>
       </c>
       <c r="B278" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>45923</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>63841</v>
+        <v>63843</v>
       </c>
       <c r="B279" t="n">
         <v>9</v>
@@ -4905,12 +4905,12 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>63843</v>
+        <v>63952</v>
       </c>
       <c r="B280" t="n">
         <v>9</v>
@@ -4921,28 +4921,28 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>45904</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>63952</v>
+        <v>63957</v>
       </c>
       <c r="B281" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>45909</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>63957</v>
+        <v>64120</v>
       </c>
       <c r="B282" t="n">
         <v>2</v>
@@ -4953,12 +4953,12 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>45923</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>64120</v>
+        <v>64625</v>
       </c>
       <c r="B283" t="n">
         <v>2</v>
@@ -4969,76 +4969,76 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>45930</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>64122</v>
+        <v>64510</v>
       </c>
       <c r="B284" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>45929</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>64625</v>
+        <v>64629</v>
       </c>
       <c r="B285" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>45918</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>64510</v>
+        <v>64631</v>
       </c>
       <c r="B286" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>45896</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>64629</v>
+        <v>65332</v>
       </c>
       <c r="B287" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>45905</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>64631</v>
+        <v>65918</v>
       </c>
       <c r="B288" t="n">
         <v>2</v>
@@ -5049,76 +5049,76 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>45912</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>65332</v>
+        <v>66043</v>
       </c>
       <c r="B289" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>45912</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>65918</v>
+        <v>66114</v>
       </c>
       <c r="B290" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>45925</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>66043</v>
+        <v>66115</v>
       </c>
       <c r="B291" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>45891</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>66114</v>
+        <v>66344</v>
       </c>
       <c r="B292" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>45891</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>66115</v>
+        <v>66348</v>
       </c>
       <c r="B293" t="n">
         <v>2</v>
@@ -5129,60 +5129,60 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>45926</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>66344</v>
+        <v>66166</v>
       </c>
       <c r="B294" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>45912</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>66348</v>
+        <v>66167</v>
       </c>
       <c r="B295" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>45915</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>66166</v>
+        <v>66349</v>
       </c>
       <c r="B296" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>45897</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>66167</v>
+        <v>66173</v>
       </c>
       <c r="B297" t="n">
         <v>9</v>
@@ -5193,44 +5193,44 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>45904</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>66349</v>
+        <v>66600</v>
       </c>
       <c r="B298" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>45915</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>66173</v>
+        <v>66944</v>
       </c>
       <c r="B299" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>45895</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>66600</v>
+        <v>66947</v>
       </c>
       <c r="B300" t="n">
         <v>9</v>
@@ -5241,28 +5241,28 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>45891</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>66944</v>
+        <v>66615</v>
       </c>
       <c r="B301" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>45888</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>66947</v>
+        <v>66617</v>
       </c>
       <c r="B302" t="n">
         <v>9</v>
@@ -5273,28 +5273,28 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>45904</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>66615</v>
+        <v>66952</v>
       </c>
       <c r="B303" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>45926</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>66617</v>
+        <v>66677</v>
       </c>
       <c r="B304" t="n">
         <v>9</v>
@@ -5305,12 +5305,12 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>45897</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>66952</v>
+        <v>66734</v>
       </c>
       <c r="B305" t="n">
         <v>9</v>
@@ -5321,28 +5321,28 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>45910</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>66677</v>
+        <v>66839</v>
       </c>
       <c r="B306" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>45894</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>66734</v>
+        <v>66959</v>
       </c>
       <c r="B307" t="n">
         <v>9</v>
@@ -5353,60 +5353,60 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>45903</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>66839</v>
+        <v>66960</v>
       </c>
       <c r="B308" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>45917</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>66959</v>
+        <v>66961</v>
       </c>
       <c r="B309" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>45896</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>66960</v>
+        <v>66843</v>
       </c>
       <c r="B310" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>66961</v>
+        <v>67300</v>
       </c>
       <c r="B311" t="n">
         <v>2</v>
@@ -5422,7 +5422,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>66843</v>
+        <v>67634</v>
       </c>
       <c r="B312" t="n">
         <v>2</v>
@@ -5438,23 +5438,23 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>67300</v>
+        <v>67518</v>
       </c>
       <c r="B313" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>45924</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>67634</v>
+        <v>67551</v>
       </c>
       <c r="B314" t="n">
         <v>2</v>
@@ -5465,60 +5465,60 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>67518</v>
+        <v>67689</v>
       </c>
       <c r="B315" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>45897</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>67551</v>
+        <v>67635</v>
       </c>
       <c r="B316" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>45915</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>67689</v>
+        <v>68466</v>
       </c>
       <c r="B317" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>45917</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>67635</v>
+        <v>67637</v>
       </c>
       <c r="B318" t="n">
         <v>9</v>
@@ -5529,12 +5529,12 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>68466</v>
+        <v>67638</v>
       </c>
       <c r="B319" t="n">
         <v>9</v>
@@ -5545,44 +5545,44 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>45891</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>67637</v>
+        <v>68179</v>
       </c>
       <c r="B320" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>45898</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>67638</v>
+        <v>68186</v>
       </c>
       <c r="B321" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>45903</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>68179</v>
+        <v>68323</v>
       </c>
       <c r="B322" t="n">
         <v>2</v>
@@ -5593,44 +5593,44 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>45922</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>68186</v>
+        <v>68419</v>
       </c>
       <c r="B323" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>45917</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>68323</v>
+        <v>68093</v>
       </c>
       <c r="B324" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>45910</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>68419</v>
+        <v>68420</v>
       </c>
       <c r="B325" t="n">
         <v>9</v>
@@ -5641,28 +5641,28 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>45889</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>68093</v>
+        <v>68743</v>
       </c>
       <c r="B326" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>45895</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>68420</v>
+        <v>68744</v>
       </c>
       <c r="B327" t="n">
         <v>9</v>
@@ -5673,28 +5673,28 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>45894</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>68743</v>
+        <v>68745</v>
       </c>
       <c r="B328" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>45924</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>68744</v>
+        <v>68748</v>
       </c>
       <c r="B329" t="n">
         <v>9</v>
@@ -5705,60 +5705,60 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>45890</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>68745</v>
+        <v>68751</v>
       </c>
       <c r="B330" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>45891</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>68748</v>
+        <v>68754</v>
       </c>
       <c r="B331" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>45908</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>68751</v>
+        <v>68846</v>
       </c>
       <c r="B332" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>45930</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>68754</v>
+        <v>68902</v>
       </c>
       <c r="B333" t="n">
         <v>2</v>
@@ -5769,28 +5769,28 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>45930</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>68846</v>
+        <v>69641</v>
       </c>
       <c r="B334" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>45888</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>68902</v>
+        <v>69656</v>
       </c>
       <c r="B335" t="n">
         <v>2</v>
@@ -5801,28 +5801,28 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>69641</v>
+        <v>69762</v>
       </c>
       <c r="B336" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>45910</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>69656</v>
+        <v>69913</v>
       </c>
       <c r="B337" t="n">
         <v>2</v>
@@ -5833,12 +5833,12 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>45924</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>69762</v>
+        <v>70334</v>
       </c>
       <c r="B338" t="n">
         <v>9</v>
@@ -5849,44 +5849,44 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>45901</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>69913</v>
+        <v>70335</v>
       </c>
       <c r="B339" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>45916</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>70334</v>
+        <v>70300</v>
       </c>
       <c r="B340" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>45890</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>70335</v>
+        <v>70341</v>
       </c>
       <c r="B341" t="n">
         <v>9</v>
@@ -5897,28 +5897,28 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>45909</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>70300</v>
+        <v>70699</v>
       </c>
       <c r="B342" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>45912</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>70341</v>
+        <v>70870</v>
       </c>
       <c r="B343" t="n">
         <v>9</v>
@@ -5929,12 +5929,12 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>70699</v>
+        <v>71055</v>
       </c>
       <c r="B344" t="n">
         <v>9</v>
@@ -5945,28 +5945,28 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>45905</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>70870</v>
+        <v>71056</v>
       </c>
       <c r="B345" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>45908</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>71055</v>
+        <v>71062</v>
       </c>
       <c r="B346" t="n">
         <v>9</v>
@@ -5977,28 +5977,28 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>45897</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>71056</v>
+        <v>71169</v>
       </c>
       <c r="B347" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>45930</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>71062</v>
+        <v>71171</v>
       </c>
       <c r="B348" t="n">
         <v>9</v>
@@ -6009,28 +6009,28 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>45908</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>71169</v>
+        <v>71249</v>
       </c>
       <c r="B349" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>45903</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>71171</v>
+        <v>71418</v>
       </c>
       <c r="B350" t="n">
         <v>9</v>
@@ -6041,12 +6041,12 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>45898</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>71249</v>
+        <v>71422</v>
       </c>
       <c r="B351" t="n">
         <v>2</v>
@@ -6057,12 +6057,12 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>45918</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>71418</v>
+        <v>71428</v>
       </c>
       <c r="B352" t="n">
         <v>9</v>
@@ -6073,60 +6073,60 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>45889</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>71422</v>
+        <v>71654</v>
       </c>
       <c r="B353" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>45925</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>71428</v>
+        <v>71777</v>
       </c>
       <c r="B354" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>45909</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>71654</v>
+        <v>71781</v>
       </c>
       <c r="B355" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>45894</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>71777</v>
+        <v>71988</v>
       </c>
       <c r="B356" t="n">
         <v>2</v>
@@ -6137,60 +6137,60 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>45916</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>71781</v>
+        <v>72006</v>
       </c>
       <c r="B357" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>45917</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>71988</v>
+        <v>72000</v>
       </c>
       <c r="B358" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>45924</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>72006</v>
+        <v>72190</v>
       </c>
       <c r="B359" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>45903</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>72000</v>
+        <v>72532</v>
       </c>
       <c r="B360" t="n">
         <v>9</v>
@@ -6201,44 +6201,44 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>45902</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>72190</v>
+        <v>72657</v>
       </c>
       <c r="B361" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>45915</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>72532</v>
+        <v>72658</v>
       </c>
       <c r="B362" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>45890</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>72657</v>
+        <v>72743</v>
       </c>
       <c r="B363" t="n">
         <v>9</v>
@@ -6254,7 +6254,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>72658</v>
+        <v>72979</v>
       </c>
       <c r="B364" t="n">
         <v>2</v>
@@ -6265,28 +6265,28 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>45925</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>72743</v>
+        <v>72980</v>
       </c>
       <c r="B365" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>45897</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>72979</v>
+        <v>72982</v>
       </c>
       <c r="B366" t="n">
         <v>2</v>
@@ -6297,44 +6297,44 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>45923</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>72980</v>
+        <v>73350</v>
       </c>
       <c r="B367" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>45925</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>72982</v>
+        <v>73441</v>
       </c>
       <c r="B368" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>45919</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>73350</v>
+        <v>73442</v>
       </c>
       <c r="B369" t="n">
         <v>9</v>
@@ -6345,12 +6345,12 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>45896</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>73441</v>
+        <v>73443</v>
       </c>
       <c r="B370" t="n">
         <v>9</v>
@@ -6361,12 +6361,12 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>73442</v>
+        <v>73464</v>
       </c>
       <c r="B371" t="n">
         <v>9</v>
@@ -6377,60 +6377,60 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>45909</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>73443</v>
+        <v>73490</v>
       </c>
       <c r="B372" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>45890</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>73464</v>
+        <v>73531</v>
       </c>
       <c r="B373" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>45897</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>73490</v>
+        <v>73693</v>
       </c>
       <c r="B374" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>45916</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>73531</v>
+        <v>73740</v>
       </c>
       <c r="B375" t="n">
         <v>2</v>
@@ -6441,12 +6441,12 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>45926</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>73693</v>
+        <v>73742</v>
       </c>
       <c r="B376" t="n">
         <v>9</v>
@@ -6457,12 +6457,12 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>45901</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>73740</v>
+        <v>73847</v>
       </c>
       <c r="B377" t="n">
         <v>2</v>
@@ -6473,28 +6473,28 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>45915</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>73742</v>
+        <v>73848</v>
       </c>
       <c r="B378" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>45896</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>73847</v>
+        <v>74002</v>
       </c>
       <c r="B379" t="n">
         <v>2</v>
@@ -6505,12 +6505,12 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>45919</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>73848</v>
+        <v>74003</v>
       </c>
       <c r="B380" t="n">
         <v>2</v>
@@ -6521,44 +6521,44 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>45917</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>74002</v>
+        <v>74067</v>
       </c>
       <c r="B381" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>45915</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>74003</v>
+        <v>74394</v>
       </c>
       <c r="B382" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>45926</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>74067</v>
+        <v>74397</v>
       </c>
       <c r="B383" t="n">
         <v>9</v>
@@ -6569,12 +6569,12 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>45902</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>74394</v>
+        <v>74398</v>
       </c>
       <c r="B384" t="n">
         <v>9</v>
@@ -6585,12 +6585,12 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>45897</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>74397</v>
+        <v>74491</v>
       </c>
       <c r="B385" t="n">
         <v>9</v>
@@ -6601,28 +6601,28 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>45908</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>74398</v>
+        <v>74512</v>
       </c>
       <c r="B386" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>45890</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>74491</v>
+        <v>74514</v>
       </c>
       <c r="B387" t="n">
         <v>9</v>
@@ -6633,12 +6633,12 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>45903</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>74512</v>
+        <v>74517</v>
       </c>
       <c r="B388" t="n">
         <v>2</v>
@@ -6649,28 +6649,28 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>45919</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>74514</v>
+        <v>74520</v>
       </c>
       <c r="B389" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>45912</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>74517</v>
+        <v>74885</v>
       </c>
       <c r="B390" t="n">
         <v>2</v>
@@ -6686,23 +6686,23 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>74520</v>
+        <v>74886</v>
       </c>
       <c r="B391" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>45919</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>74885</v>
+        <v>74825</v>
       </c>
       <c r="B392" t="n">
         <v>2</v>
@@ -6713,12 +6713,12 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>45922</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>74886</v>
+        <v>74827</v>
       </c>
       <c r="B393" t="n">
         <v>9</v>
@@ -6729,28 +6729,28 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>45908</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>74825</v>
+        <v>74949</v>
       </c>
       <c r="B394" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>45929</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>74827</v>
+        <v>75122</v>
       </c>
       <c r="B395" t="n">
         <v>9</v>
@@ -6761,28 +6761,28 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>45911</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>74949</v>
+        <v>74970</v>
       </c>
       <c r="B396" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>45894</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>75122</v>
+        <v>75123</v>
       </c>
       <c r="B397" t="n">
         <v>9</v>
@@ -6793,60 +6793,60 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>45890</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>74970</v>
+        <v>74971</v>
       </c>
       <c r="B398" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>45929</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>75123</v>
+        <v>75124</v>
       </c>
       <c r="B399" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>45911</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>74971</v>
+        <v>75126</v>
       </c>
       <c r="B400" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>45903</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>75124</v>
+        <v>75298</v>
       </c>
       <c r="B401" t="n">
         <v>2</v>
@@ -6857,28 +6857,28 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>45923</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>75126</v>
+        <v>75300</v>
       </c>
       <c r="B402" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>45919</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>75298</v>
+        <v>75302</v>
       </c>
       <c r="B403" t="n">
         <v>2</v>
@@ -6889,76 +6889,76 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>45930</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>75300</v>
+        <v>75327</v>
       </c>
       <c r="B404" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>45897</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>75302</v>
+        <v>75357</v>
       </c>
       <c r="B405" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>45917</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>75327</v>
+        <v>75358</v>
       </c>
       <c r="B406" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>45916</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>75357</v>
+        <v>75365</v>
       </c>
       <c r="B407" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>45888</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>75358</v>
+        <v>75483</v>
       </c>
       <c r="B408" t="n">
         <v>9</v>
@@ -6969,12 +6969,12 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>45909</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>75365</v>
+        <v>75493</v>
       </c>
       <c r="B409" t="n">
         <v>2</v>
@@ -6985,12 +6985,12 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>45915</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>75483</v>
+        <v>75769</v>
       </c>
       <c r="B410" t="n">
         <v>9</v>
@@ -7001,12 +7001,12 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>45896</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>75493</v>
+        <v>75742</v>
       </c>
       <c r="B411" t="n">
         <v>2</v>
@@ -7017,108 +7017,108 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>75769</v>
+        <v>75985</v>
       </c>
       <c r="B412" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>45909</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>75742</v>
+        <v>76082</v>
       </c>
       <c r="B413" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>45929</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>75985</v>
+        <v>76223</v>
       </c>
       <c r="B414" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>45919</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>76082</v>
+        <v>76405</v>
       </c>
       <c r="B415" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>45911</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>76223</v>
+        <v>76408</v>
       </c>
       <c r="B416" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>45889</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>76405</v>
+        <v>76498</v>
       </c>
       <c r="B417" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>45919</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>76408</v>
+        <v>76533</v>
       </c>
       <c r="B418" t="n">
         <v>2</v>
@@ -7129,12 +7129,12 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>45916</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>76498</v>
+        <v>76577</v>
       </c>
       <c r="B419" t="n">
         <v>9</v>
@@ -7145,12 +7145,12 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>45896</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>76533</v>
+        <v>76653</v>
       </c>
       <c r="B420" t="n">
         <v>2</v>
@@ -7161,28 +7161,28 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>45919</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>76577</v>
+        <v>76710</v>
       </c>
       <c r="B421" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>45908</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>76653</v>
+        <v>76786</v>
       </c>
       <c r="B422" t="n">
         <v>2</v>
@@ -7193,12 +7193,12 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>45912</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>76710</v>
+        <v>76788</v>
       </c>
       <c r="B423" t="n">
         <v>2</v>
@@ -7209,12 +7209,12 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>45930</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>76786</v>
+        <v>76881</v>
       </c>
       <c r="B424" t="n">
         <v>2</v>
@@ -7225,28 +7225,28 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>45924</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>76788</v>
+        <v>76880</v>
       </c>
       <c r="B425" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>45917</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>76881</v>
+        <v>76939</v>
       </c>
       <c r="B426" t="n">
         <v>2</v>
@@ -7257,12 +7257,12 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>45918</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>76880</v>
+        <v>76945</v>
       </c>
       <c r="B427" t="n">
         <v>9</v>
@@ -7273,92 +7273,92 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>76939</v>
+        <v>77125</v>
       </c>
       <c r="B428" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>45915</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>76945</v>
+        <v>77216</v>
       </c>
       <c r="B429" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>45895</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>77125</v>
+        <v>77439</v>
       </c>
       <c r="B430" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>45897</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>77216</v>
+        <v>77600</v>
       </c>
       <c r="B431" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>45918</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>77439</v>
+        <v>77794</v>
       </c>
       <c r="B432" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>45929</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>77600</v>
+        <v>78067</v>
       </c>
       <c r="B433" t="n">
         <v>9</v>
@@ -7369,28 +7369,28 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>45911</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>77794</v>
+        <v>78069</v>
       </c>
       <c r="B434" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>45888</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>78067</v>
+        <v>78235</v>
       </c>
       <c r="B435" t="n">
         <v>9</v>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>78069</v>
+        <v>78236</v>
       </c>
       <c r="B436" t="n">
         <v>2</v>
@@ -7417,12 +7417,12 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>45915</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>78235</v>
+        <v>78237</v>
       </c>
       <c r="B437" t="n">
         <v>9</v>
@@ -7433,12 +7433,12 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>45901</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>78236</v>
+        <v>78414</v>
       </c>
       <c r="B438" t="n">
         <v>2</v>
@@ -7449,44 +7449,44 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>45922</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>78237</v>
+        <v>78598</v>
       </c>
       <c r="B439" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>45908</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>78414</v>
+        <v>78787</v>
       </c>
       <c r="B440" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>45930</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>78598</v>
+        <v>78790</v>
       </c>
       <c r="B441" t="n">
         <v>2</v>
@@ -7497,28 +7497,28 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>45924</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>78787</v>
+        <v>78791</v>
       </c>
       <c r="B442" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>45890</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>78790</v>
+        <v>79041</v>
       </c>
       <c r="B443" t="n">
         <v>2</v>
@@ -7529,12 +7529,12 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>45930</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>78791</v>
+        <v>79345</v>
       </c>
       <c r="B444" t="n">
         <v>2</v>
@@ -7545,44 +7545,44 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>45916</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>79041</v>
+        <v>79347</v>
       </c>
       <c r="B445" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>45918</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>79345</v>
+        <v>79285</v>
       </c>
       <c r="B446" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>45925</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>79347</v>
+        <v>79282</v>
       </c>
       <c r="B447" t="n">
         <v>9</v>
@@ -7593,44 +7593,44 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>45909</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>79285</v>
+        <v>79283</v>
       </c>
       <c r="B448" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>45901</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>79282</v>
+        <v>79525</v>
       </c>
       <c r="B449" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>45908</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>79283</v>
+        <v>79526</v>
       </c>
       <c r="B450" t="n">
         <v>2</v>
@@ -7641,28 +7641,28 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>45910</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>79349</v>
+        <v>79527</v>
       </c>
       <c r="B451" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>45896</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>79525</v>
+        <v>79530</v>
       </c>
       <c r="B452" t="n">
         <v>2</v>
@@ -7673,76 +7673,76 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>45918</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>79526</v>
+        <v>79542</v>
       </c>
       <c r="B453" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>45926</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>79527</v>
+        <v>79533</v>
       </c>
       <c r="B454" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>45918</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>79530</v>
+        <v>79534</v>
       </c>
       <c r="B455" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>45930</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>79542</v>
+        <v>79599</v>
       </c>
       <c r="B456" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>45909</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>79543</v>
+        <v>79602</v>
       </c>
       <c r="B457" t="n">
         <v>9</v>
@@ -7753,12 +7753,12 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>45902</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>79533</v>
+        <v>79611</v>
       </c>
       <c r="B458" t="n">
         <v>9</v>
@@ -7769,156 +7769,156 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>45895</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>79534</v>
+        <v>79531</v>
       </c>
       <c r="B459" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>45890</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>79537</v>
+        <v>79607</v>
       </c>
       <c r="B460" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>45891</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>79599</v>
+        <v>79608</v>
       </c>
       <c r="B461" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>45925</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>79602</v>
+        <v>79678</v>
       </c>
       <c r="B462" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>45889</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>79611</v>
+        <v>79750</v>
       </c>
       <c r="B463" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>45908</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>79531</v>
+        <v>79746</v>
       </c>
       <c r="B464" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>45916</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>79607</v>
+        <v>79932</v>
       </c>
       <c r="B465" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>45924</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>79608</v>
+        <v>79933</v>
       </c>
       <c r="B466" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>45904</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>79678</v>
+        <v>79934</v>
       </c>
       <c r="B467" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>45912</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>79750</v>
+        <v>79977</v>
       </c>
       <c r="B468" t="n">
         <v>2</v>
@@ -7929,12 +7929,12 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>45918</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>79746</v>
+        <v>79978</v>
       </c>
       <c r="B469" t="n">
         <v>9</v>
@@ -7945,12 +7945,12 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>45898</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>79932</v>
+        <v>79979</v>
       </c>
       <c r="B470" t="n">
         <v>9</v>
@@ -7961,12 +7961,12 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>79933</v>
+        <v>79980</v>
       </c>
       <c r="B471" t="n">
         <v>2</v>
@@ -7977,12 +7977,12 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>45918</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>79934</v>
+        <v>80115</v>
       </c>
       <c r="B472" t="n">
         <v>9</v>
@@ -7993,44 +7993,44 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>45890</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>79977</v>
+        <v>80116</v>
       </c>
       <c r="B473" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>45917</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>79978</v>
+        <v>80117</v>
       </c>
       <c r="B474" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>45910</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>79979</v>
+        <v>80118</v>
       </c>
       <c r="B475" t="n">
         <v>9</v>
@@ -8041,28 +8041,28 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>45898</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>79980</v>
+        <v>80238</v>
       </c>
       <c r="B476" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>45917</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>80115</v>
+        <v>80344</v>
       </c>
       <c r="B477" t="n">
         <v>9</v>
@@ -8073,12 +8073,12 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>45909</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>80116</v>
+        <v>80345</v>
       </c>
       <c r="B478" t="n">
         <v>9</v>
@@ -8089,28 +8089,28 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>45891</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>80117</v>
+        <v>80346</v>
       </c>
       <c r="B479" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>45916</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>80118</v>
+        <v>80348</v>
       </c>
       <c r="B480" t="n">
         <v>9</v>
@@ -8121,12 +8121,12 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>45911</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>80238</v>
+        <v>80351</v>
       </c>
       <c r="B481" t="n">
         <v>9</v>
@@ -8137,60 +8137,60 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>45902</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>80244</v>
+        <v>80352</v>
       </c>
       <c r="B482" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>45905</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>80344</v>
+        <v>80353</v>
       </c>
       <c r="B483" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>45890</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>80345</v>
+        <v>80428</v>
       </c>
       <c r="B484" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>45904</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>80346</v>
+        <v>80430</v>
       </c>
       <c r="B485" t="n">
         <v>9</v>
@@ -8201,28 +8201,28 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>45895</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>80347</v>
+        <v>80431</v>
       </c>
       <c r="B486" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>45895</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>80348</v>
+        <v>80432</v>
       </c>
       <c r="B487" t="n">
         <v>9</v>
@@ -8233,44 +8233,44 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>45903</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>80351</v>
+        <v>80580</v>
       </c>
       <c r="B488" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>45891</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>80352</v>
+        <v>80582</v>
       </c>
       <c r="B489" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>45917</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>80353</v>
+        <v>80657</v>
       </c>
       <c r="B490" t="n">
         <v>2</v>
@@ -8281,134 +8281,6 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>45916</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="n">
-        <v>80428</v>
-      </c>
-      <c r="B491" t="n">
-        <v>2</v>
-      </c>
-      <c r="C491" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D491" s="2" t="n">
-        <v>45930</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="n">
-        <v>80430</v>
-      </c>
-      <c r="B492" t="n">
-        <v>9</v>
-      </c>
-      <c r="C492" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D492" s="2" t="n">
-        <v>45891</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="n">
-        <v>80431</v>
-      </c>
-      <c r="B493" t="n">
-        <v>2</v>
-      </c>
-      <c r="C493" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D493" s="2" t="n">
-        <v>45915</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="n">
-        <v>80432</v>
-      </c>
-      <c r="B494" t="n">
-        <v>9</v>
-      </c>
-      <c r="C494" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D494" s="2" t="n">
-        <v>45902</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="n">
-        <v>80579</v>
-      </c>
-      <c r="B495" t="n">
-        <v>9</v>
-      </c>
-      <c r="C495" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D495" s="2" t="n">
-        <v>45901</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="n">
-        <v>80580</v>
-      </c>
-      <c r="B496" t="n">
-        <v>2</v>
-      </c>
-      <c r="C496" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D496" s="2" t="n">
-        <v>45926</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="n">
-        <v>80582</v>
-      </c>
-      <c r="B497" t="n">
-        <v>9</v>
-      </c>
-      <c r="C497" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D497" s="2" t="n">
-        <v>45890</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="n">
-        <v>80657</v>
-      </c>
-      <c r="B498" t="n">
-        <v>2</v>
-      </c>
-      <c r="C498" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D498" s="2" t="n">
         <v>45924</v>
       </c>
     </row>
@@ -8450,7 +8322,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3">
@@ -8460,7 +8332,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4">

--- a/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
+++ b/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
@@ -1233,11 +1233,11 @@
         <v>29218</v>
       </c>
       <c r="B50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
@@ -1313,11 +1313,11 @@
         <v>29726</v>
       </c>
       <c r="B55" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
@@ -1393,11 +1393,11 @@
         <v>30703</v>
       </c>
       <c r="B60" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
@@ -1617,11 +1617,11 @@
         <v>33954</v>
       </c>
       <c r="B74" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
@@ -2609,11 +2609,11 @@
         <v>45149</v>
       </c>
       <c r="B136" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
@@ -3233,11 +3233,11 @@
         <v>49987</v>
       </c>
       <c r="B175" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
@@ -3601,11 +3601,11 @@
         <v>53391</v>
       </c>
       <c r="B198" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D198" s="2" t="n">
@@ -3761,11 +3761,11 @@
         <v>55148</v>
       </c>
       <c r="B208" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D208" s="2" t="n">
@@ -4705,11 +4705,11 @@
         <v>62348</v>
       </c>
       <c r="B267" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D267" s="2" t="n">
@@ -4817,11 +4817,11 @@
         <v>63040</v>
       </c>
       <c r="B274" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D274" s="2" t="n">
@@ -5601,11 +5601,11 @@
         <v>68419</v>
       </c>
       <c r="B323" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D323" s="2" t="n">
@@ -6033,11 +6033,11 @@
         <v>71418</v>
       </c>
       <c r="B350" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D350" s="2" t="n">
@@ -7057,11 +7057,11 @@
         <v>76223</v>
       </c>
       <c r="B414" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D414" s="2" t="n">
@@ -7745,11 +7745,11 @@
         <v>79602</v>
       </c>
       <c r="B457" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D457" s="2" t="n">
@@ -8322,7 +8322,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
@@ -8338,21 +8338,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
+++ b/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
@@ -2193,11 +2193,11 @@
         <v>38738</v>
       </c>
       <c r="B110" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
@@ -2385,11 +2385,11 @@
         <v>41872</v>
       </c>
       <c r="B122" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
@@ -5665,11 +5665,11 @@
         <v>68744</v>
       </c>
       <c r="B327" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D327" s="2" t="n">
@@ -6353,11 +6353,11 @@
         <v>73443</v>
       </c>
       <c r="B370" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D370" s="2" t="n">
@@ -6577,11 +6577,11 @@
         <v>74398</v>
       </c>
       <c r="B384" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D384" s="2" t="n">
@@ -6753,11 +6753,11 @@
         <v>75122</v>
       </c>
       <c r="B395" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D395" s="2" t="n">
@@ -7473,11 +7473,11 @@
         <v>78787</v>
       </c>
       <c r="B440" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D440" s="2" t="n">
@@ -7713,11 +7713,11 @@
         <v>79534</v>
       </c>
       <c r="B455" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D455" s="2" t="n">
@@ -7905,11 +7905,11 @@
         <v>79934</v>
       </c>
       <c r="B467" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D467" s="2" t="n">
@@ -8257,11 +8257,11 @@
         <v>80582</v>
       </c>
       <c r="B489" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D489" s="2" t="n">
@@ -8318,41 +8318,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
+++ b/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
@@ -3633,11 +3633,11 @@
         <v>53429</v>
       </c>
       <c r="B200" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D200" s="2" t="n">
@@ -5841,11 +5841,11 @@
         <v>70334</v>
       </c>
       <c r="B338" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D338" s="2" t="n">
@@ -6193,11 +6193,11 @@
         <v>72532</v>
       </c>
       <c r="B360" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D360" s="2" t="n">
@@ -8065,11 +8065,11 @@
         <v>80344</v>
       </c>
       <c r="B477" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D477" s="2" t="n">
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4">
@@ -8342,7 +8342,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -8352,7 +8352,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
+++ b/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D490"/>
+  <dimension ref="A1:D480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,12 +489,12 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45910</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20768</v>
+        <v>13146</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -505,28 +505,28 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45930</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13146</v>
+        <v>13160</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45918</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13160</v>
+        <v>14389</v>
       </c>
       <c r="B6" t="n">
         <v>9</v>
@@ -537,60 +537,60 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45902</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14389</v>
+        <v>15105</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45898</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15105</v>
+        <v>15438</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45924</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15438</v>
+        <v>15717</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45911</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15717</v>
+        <v>15841</v>
       </c>
       <c r="B10" t="n">
         <v>2</v>
@@ -601,12 +601,12 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45919</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>15841</v>
+        <v>16166</v>
       </c>
       <c r="B11" t="n">
         <v>2</v>
@@ -617,60 +617,60 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16166</v>
+        <v>16320</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45922</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>16320</v>
+        <v>16867</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45895</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>16867</v>
+        <v>17220</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45922</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>17220</v>
+        <v>17568</v>
       </c>
       <c r="B15" t="n">
         <v>9</v>
@@ -681,12 +681,12 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45905</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17568</v>
+        <v>17718</v>
       </c>
       <c r="B16" t="n">
         <v>9</v>
@@ -697,44 +697,44 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45891</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17718</v>
+        <v>18079</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45901</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18079</v>
+        <v>18078</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45916</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18078</v>
+        <v>18193</v>
       </c>
       <c r="B19" t="n">
         <v>9</v>
@@ -745,76 +745,76 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45896</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18193</v>
+        <v>19014</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45903</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19014</v>
+        <v>19004</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45917</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>19004</v>
+        <v>20853</v>
       </c>
       <c r="B22" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45898</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20853</v>
+        <v>21505</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45910</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>21505</v>
+        <v>22750</v>
       </c>
       <c r="B24" t="n">
         <v>4</v>
@@ -830,23 +830,23 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>22750</v>
+        <v>22763</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45888</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>22763</v>
+        <v>23165</v>
       </c>
       <c r="B26" t="n">
         <v>2</v>
@@ -857,12 +857,12 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45910</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>23165</v>
+        <v>24107</v>
       </c>
       <c r="B27" t="n">
         <v>2</v>
@@ -873,12 +873,12 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>23152</v>
+        <v>24248</v>
       </c>
       <c r="B28" t="n">
         <v>9</v>
@@ -889,12 +889,12 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45895</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>24107</v>
+        <v>24330</v>
       </c>
       <c r="B29" t="n">
         <v>2</v>
@@ -905,12 +905,12 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45924</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>24248</v>
+        <v>24548</v>
       </c>
       <c r="B30" t="n">
         <v>9</v>
@@ -921,12 +921,12 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45902</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>24330</v>
+        <v>24772</v>
       </c>
       <c r="B31" t="n">
         <v>2</v>
@@ -937,60 +937,60 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45916</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>24548</v>
+        <v>24774</v>
       </c>
       <c r="B32" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45909</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>24772</v>
+        <v>24922</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45929</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>24774</v>
+        <v>25016</v>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45917</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>24922</v>
+        <v>25116</v>
       </c>
       <c r="B35" t="n">
         <v>4</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>25016</v>
+        <v>25146</v>
       </c>
       <c r="B36" t="n">
         <v>9</v>
@@ -1017,28 +1017,28 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45909</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>25116</v>
+        <v>25655</v>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45888</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>25146</v>
+        <v>25708</v>
       </c>
       <c r="B38" t="n">
         <v>9</v>
@@ -1049,124 +1049,124 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45891</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>25655</v>
+        <v>27295</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45929</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>25708</v>
+        <v>27535</v>
       </c>
       <c r="B40" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45905</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>27295</v>
+        <v>27856</v>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45888</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>27535</v>
+        <v>27914</v>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45915</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>27856</v>
+        <v>28067</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45912</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>27914</v>
+        <v>28060</v>
       </c>
       <c r="B44" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45891</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>28067</v>
+        <v>28342</v>
       </c>
       <c r="B45" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45903</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>28060</v>
+        <v>28930</v>
       </c>
       <c r="B46" t="n">
         <v>2</v>
@@ -1177,12 +1177,12 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45918</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>28342</v>
+        <v>29094</v>
       </c>
       <c r="B47" t="n">
         <v>2</v>
@@ -1198,55 +1198,55 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>28930</v>
+        <v>29218</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45923</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>29094</v>
+        <v>29210</v>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45916</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>29218</v>
+        <v>29471</v>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45889</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>29210</v>
+        <v>29472</v>
       </c>
       <c r="B51" t="n">
         <v>9</v>
@@ -1257,76 +1257,76 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45908</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>29471</v>
+        <v>29612</v>
       </c>
       <c r="B52" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45903</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>29472</v>
+        <v>29726</v>
       </c>
       <c r="B53" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45903</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>29612</v>
+        <v>29968</v>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45917</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>29726</v>
+        <v>30461</v>
       </c>
       <c r="B55" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45889</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>29968</v>
+        <v>30455</v>
       </c>
       <c r="B56" t="n">
         <v>9</v>
@@ -1337,92 +1337,92 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45895</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>30461</v>
+        <v>30447</v>
       </c>
       <c r="B57" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45905</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>30455</v>
+        <v>30703</v>
       </c>
       <c r="B58" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45903</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>30447</v>
+        <v>31436</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45912</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>30703</v>
+        <v>31442</v>
       </c>
       <c r="B60" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45889</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>31436</v>
+        <v>31444</v>
       </c>
       <c r="B61" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45905</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>31442</v>
+        <v>31505</v>
       </c>
       <c r="B62" t="n">
         <v>9</v>
@@ -1433,28 +1433,28 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45911</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>31444</v>
+        <v>31516</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45925</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>31505</v>
+        <v>31639</v>
       </c>
       <c r="B64" t="n">
         <v>9</v>
@@ -1465,12 +1465,12 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45898</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>31516</v>
+        <v>31745</v>
       </c>
       <c r="B65" t="n">
         <v>9</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>31639</v>
+        <v>31823</v>
       </c>
       <c r="B66" t="n">
         <v>9</v>
@@ -1497,28 +1497,28 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45908</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>31745</v>
+        <v>32127</v>
       </c>
       <c r="B67" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45901</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>31823</v>
+        <v>32425</v>
       </c>
       <c r="B68" t="n">
         <v>9</v>
@@ -1529,76 +1529,76 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45894</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>32127</v>
+        <v>32886</v>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45910</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>32425</v>
+        <v>33549</v>
       </c>
       <c r="B70" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45901</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>32886</v>
+        <v>33994</v>
       </c>
       <c r="B71" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45891</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>33549</v>
+        <v>33954</v>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45918</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>33994</v>
+        <v>34168</v>
       </c>
       <c r="B73" t="n">
         <v>2</v>
@@ -1609,28 +1609,28 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45919</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>33954</v>
+        <v>33951</v>
       </c>
       <c r="B74" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45889</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>34168</v>
+        <v>34257</v>
       </c>
       <c r="B75" t="n">
         <v>2</v>
@@ -1641,60 +1641,60 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45929</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>33951</v>
+        <v>34258</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45922</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>34257</v>
+        <v>34387</v>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>34258</v>
+        <v>34684</v>
       </c>
       <c r="B78" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45904</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>34387</v>
+        <v>34685</v>
       </c>
       <c r="B79" t="n">
         <v>9</v>
@@ -1705,28 +1705,28 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45902</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>34684</v>
+        <v>34827</v>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45926</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>34685</v>
+        <v>34829</v>
       </c>
       <c r="B81" t="n">
         <v>9</v>
@@ -1737,28 +1737,28 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>34827</v>
+        <v>34971</v>
       </c>
       <c r="B82" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45898</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>34829</v>
+        <v>35053</v>
       </c>
       <c r="B83" t="n">
         <v>9</v>
@@ -1769,28 +1769,28 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45898</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>34971</v>
+        <v>35055</v>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45923</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>35053</v>
+        <v>35161</v>
       </c>
       <c r="B85" t="n">
         <v>9</v>
@@ -1801,28 +1801,28 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45902</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>35055</v>
+        <v>35340</v>
       </c>
       <c r="B86" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45910</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>35161</v>
+        <v>35272</v>
       </c>
       <c r="B87" t="n">
         <v>9</v>
@@ -1833,12 +1833,12 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45891</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>35340</v>
+        <v>35779</v>
       </c>
       <c r="B88" t="n">
         <v>2</v>
@@ -1849,60 +1849,60 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45930</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>35272</v>
+        <v>36028</v>
       </c>
       <c r="B89" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45904</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>35779</v>
+        <v>36532</v>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45919</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>36028</v>
+        <v>37024</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45919</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>36532</v>
+        <v>37025</v>
       </c>
       <c r="B92" t="n">
         <v>9</v>
@@ -1913,76 +1913,76 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45911</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>37024</v>
+        <v>37026</v>
       </c>
       <c r="B93" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45896</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>37025</v>
+        <v>37029</v>
       </c>
       <c r="B94" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45894</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>37026</v>
+        <v>37032</v>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45910</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>37029</v>
+        <v>37197</v>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45923</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>37032</v>
+        <v>37448</v>
       </c>
       <c r="B97" t="n">
         <v>9</v>
@@ -1993,12 +1993,12 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45895</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>37197</v>
+        <v>37521</v>
       </c>
       <c r="B98" t="n">
         <v>9</v>
@@ -2009,60 +2009,60 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>37448</v>
+        <v>37526</v>
       </c>
       <c r="B99" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45896</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>37521</v>
+        <v>37531</v>
       </c>
       <c r="B100" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45898</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>37526</v>
+        <v>37808</v>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45919</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>37531</v>
+        <v>38175</v>
       </c>
       <c r="B102" t="n">
         <v>2</v>
@@ -2073,44 +2073,44 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45929</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>37808</v>
+        <v>38177</v>
       </c>
       <c r="B103" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45898</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>37844</v>
+        <v>38252</v>
       </c>
       <c r="B104" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45912</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>38175</v>
+        <v>38339</v>
       </c>
       <c r="B105" t="n">
         <v>2</v>
@@ -2121,12 +2121,12 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45926</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>38177</v>
+        <v>38477</v>
       </c>
       <c r="B106" t="n">
         <v>2</v>
@@ -2137,124 +2137,124 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45919</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>38252</v>
+        <v>38738</v>
       </c>
       <c r="B107" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45911</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>38339</v>
+        <v>38783</v>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45918</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>38477</v>
+        <v>39046</v>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45926</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>38738</v>
+        <v>39163</v>
       </c>
       <c r="B110" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45890</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>38783</v>
+        <v>39164</v>
       </c>
       <c r="B111" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45891</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>39046</v>
+        <v>39165</v>
       </c>
       <c r="B112" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45897</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>39163</v>
+        <v>39768</v>
       </c>
       <c r="B113" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45923</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>39164</v>
+        <v>39970</v>
       </c>
       <c r="B114" t="n">
         <v>2</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>39165</v>
+        <v>40045</v>
       </c>
       <c r="B115" t="n">
         <v>4</v>
@@ -2286,71 +2286,71 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>39768</v>
+        <v>40672</v>
       </c>
       <c r="B116" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45901</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>39970</v>
+        <v>41306</v>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45925</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>40045</v>
+        <v>41525</v>
       </c>
       <c r="B118" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45888</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>40672</v>
+        <v>41872</v>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45916</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>41306</v>
+        <v>42694</v>
       </c>
       <c r="B120" t="n">
         <v>9</v>
@@ -2361,12 +2361,12 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45895</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>41525</v>
+        <v>43127</v>
       </c>
       <c r="B121" t="n">
         <v>2</v>
@@ -2377,204 +2377,204 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45925</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>41872</v>
+        <v>43232</v>
       </c>
       <c r="B122" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45890</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>42694</v>
+        <v>43352</v>
       </c>
       <c r="B123" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45896</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>43127</v>
+        <v>43437</v>
       </c>
       <c r="B124" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45915</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>43232</v>
+        <v>43438</v>
       </c>
       <c r="B125" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45897</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>43352</v>
+        <v>43670</v>
       </c>
       <c r="B126" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45918</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>43437</v>
+        <v>43871</v>
       </c>
       <c r="B127" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45908</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>43438</v>
+        <v>44037</v>
       </c>
       <c r="B128" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45888</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>43670</v>
+        <v>44131</v>
       </c>
       <c r="B129" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45891</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>43871</v>
+        <v>44901</v>
       </c>
       <c r="B130" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45917</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>44037</v>
+        <v>45004</v>
       </c>
       <c r="B131" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45917</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>44131</v>
+        <v>45005</v>
       </c>
       <c r="B132" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45888</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>44901</v>
+        <v>45149</v>
       </c>
       <c r="B133" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>45004</v>
+        <v>45412</v>
       </c>
       <c r="B134" t="n">
         <v>9</v>
@@ -2585,12 +2585,12 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45894</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>45005</v>
+        <v>45694</v>
       </c>
       <c r="B135" t="n">
         <v>2</v>
@@ -2601,44 +2601,44 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>45149</v>
+        <v>45696</v>
       </c>
       <c r="B136" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45889</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>45412</v>
+        <v>46193</v>
       </c>
       <c r="B137" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45897</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>45694</v>
+        <v>46103</v>
       </c>
       <c r="B138" t="n">
         <v>2</v>
@@ -2649,28 +2649,28 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45926</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>45696</v>
+        <v>46151</v>
       </c>
       <c r="B139" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45902</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>46193</v>
+        <v>46879</v>
       </c>
       <c r="B140" t="n">
         <v>2</v>
@@ -2681,44 +2681,44 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45925</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>46103</v>
+        <v>46824</v>
       </c>
       <c r="B141" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45924</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>46151</v>
+        <v>46884</v>
       </c>
       <c r="B142" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45888</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>46879</v>
+        <v>46937</v>
       </c>
       <c r="B143" t="n">
         <v>2</v>
@@ -2729,12 +2729,12 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45926</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>46824</v>
+        <v>47158</v>
       </c>
       <c r="B144" t="n">
         <v>9</v>
@@ -2745,44 +2745,44 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45896</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>46884</v>
+        <v>47160</v>
       </c>
       <c r="B145" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45929</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>46937</v>
+        <v>47068</v>
       </c>
       <c r="B146" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45912</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>47158</v>
+        <v>47069</v>
       </c>
       <c r="B147" t="n">
         <v>9</v>
@@ -2793,12 +2793,12 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>47160</v>
+        <v>47169</v>
       </c>
       <c r="B148" t="n">
         <v>9</v>
@@ -2809,12 +2809,12 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45894</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>47068</v>
+        <v>47173</v>
       </c>
       <c r="B149" t="n">
         <v>9</v>
@@ -2825,12 +2825,12 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45898</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>47069</v>
+        <v>47418</v>
       </c>
       <c r="B150" t="n">
         <v>9</v>
@@ -2841,28 +2841,28 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45902</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>47169</v>
+        <v>47605</v>
       </c>
       <c r="B151" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45891</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>47173</v>
+        <v>47779</v>
       </c>
       <c r="B152" t="n">
         <v>9</v>
@@ -2873,44 +2873,44 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45904</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>47418</v>
+        <v>47802</v>
       </c>
       <c r="B153" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45894</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>47605</v>
+        <v>47809</v>
       </c>
       <c r="B154" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45915</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>47779</v>
+        <v>48099</v>
       </c>
       <c r="B155" t="n">
         <v>9</v>
@@ -2921,124 +2921,124 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45901</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>47802</v>
+        <v>48416</v>
       </c>
       <c r="B156" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45925</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>47809</v>
+        <v>48423</v>
       </c>
       <c r="B157" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45888</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>48099</v>
+        <v>48563</v>
       </c>
       <c r="B158" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45911</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>48416</v>
+        <v>48738</v>
       </c>
       <c r="B159" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45903</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>48423</v>
+        <v>48739</v>
       </c>
       <c r="B160" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45894</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>48563</v>
+        <v>49070</v>
       </c>
       <c r="B161" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45924</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>48738</v>
+        <v>49238</v>
       </c>
       <c r="B162" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45912</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>48739</v>
+        <v>49240</v>
       </c>
       <c r="B163" t="n">
         <v>2</v>
@@ -3049,28 +3049,28 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>49070</v>
+        <v>49450</v>
       </c>
       <c r="B164" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45896</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>49238</v>
+        <v>49460</v>
       </c>
       <c r="B165" t="n">
         <v>9</v>
@@ -3081,140 +3081,140 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>45905</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>49240</v>
+        <v>49812</v>
       </c>
       <c r="B166" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>45926</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>49450</v>
+        <v>49817</v>
       </c>
       <c r="B167" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>45915</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>49460</v>
+        <v>49903</v>
       </c>
       <c r="B168" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>45901</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>49812</v>
+        <v>49979</v>
       </c>
       <c r="B169" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>45903</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>49817</v>
+        <v>49982</v>
       </c>
       <c r="B170" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>45902</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>49903</v>
+        <v>49987</v>
       </c>
       <c r="B171" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>45910</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>49904</v>
+        <v>49994</v>
       </c>
       <c r="B172" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>45924</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>49979</v>
+        <v>50059</v>
       </c>
       <c r="B173" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>45924</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>49982</v>
+        <v>50783</v>
       </c>
       <c r="B174" t="n">
         <v>2</v>
@@ -3225,28 +3225,28 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>45929</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>49987</v>
+        <v>50962</v>
       </c>
       <c r="B175" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>45889</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>49994</v>
+        <v>51212</v>
       </c>
       <c r="B176" t="n">
         <v>9</v>
@@ -3257,76 +3257,76 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>45901</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>50059</v>
+        <v>51215</v>
       </c>
       <c r="B177" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>45895</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>50783</v>
+        <v>51216</v>
       </c>
       <c r="B178" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>45923</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>50962</v>
+        <v>51332</v>
       </c>
       <c r="B179" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>45916</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>51212</v>
+        <v>51333</v>
       </c>
       <c r="B180" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45897</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>51215</v>
+        <v>51543</v>
       </c>
       <c r="B181" t="n">
         <v>2</v>
@@ -3337,28 +3337,28 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45923</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>51216</v>
+        <v>51641</v>
       </c>
       <c r="B182" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45908</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>51332</v>
+        <v>51553</v>
       </c>
       <c r="B183" t="n">
         <v>9</v>
@@ -3369,12 +3369,12 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>51333</v>
+        <v>51554</v>
       </c>
       <c r="B184" t="n">
         <v>2</v>
@@ -3385,44 +3385,44 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45910</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>51543</v>
+        <v>51915</v>
       </c>
       <c r="B185" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45916</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>51641</v>
+        <v>52253</v>
       </c>
       <c r="B186" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>45925</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>51553</v>
+        <v>52329</v>
       </c>
       <c r="B187" t="n">
         <v>9</v>
@@ -3433,108 +3433,108 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>45895</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>51554</v>
+        <v>52255</v>
       </c>
       <c r="B188" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>45923</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>51915</v>
+        <v>52332</v>
       </c>
       <c r="B189" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>45894</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>52253</v>
+        <v>52589</v>
       </c>
       <c r="B190" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>45888</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>52329</v>
+        <v>52997</v>
       </c>
       <c r="B191" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>45894</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>52255</v>
+        <v>53259</v>
       </c>
       <c r="B192" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>45909</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>52332</v>
+        <v>53391</v>
       </c>
       <c r="B193" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>45910</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>52589</v>
+        <v>53386</v>
       </c>
       <c r="B194" t="n">
         <v>2</v>
@@ -3545,44 +3545,44 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>45929</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>52658</v>
+        <v>53429</v>
       </c>
       <c r="B195" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>45904</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>52997</v>
+        <v>53507</v>
       </c>
       <c r="B196" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>45926</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>53259</v>
+        <v>54163</v>
       </c>
       <c r="B197" t="n">
         <v>2</v>
@@ -3593,28 +3593,28 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>45922</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>53391</v>
+        <v>54715</v>
       </c>
       <c r="B198" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>45889</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>53386</v>
+        <v>54719</v>
       </c>
       <c r="B199" t="n">
         <v>2</v>
@@ -3625,44 +3625,44 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>45922</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>53429</v>
+        <v>55055</v>
       </c>
       <c r="B200" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>45890</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>53507</v>
+        <v>55129</v>
       </c>
       <c r="B201" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45888</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>54163</v>
+        <v>55159</v>
       </c>
       <c r="B202" t="n">
         <v>2</v>
@@ -3673,76 +3673,76 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45912</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>54715</v>
+        <v>55148</v>
       </c>
       <c r="B203" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45895</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>54719</v>
+        <v>55499</v>
       </c>
       <c r="B204" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45922</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>55055</v>
+        <v>55688</v>
       </c>
       <c r="B205" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45895</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>55129</v>
+        <v>55790</v>
       </c>
       <c r="B206" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>45929</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>55159</v>
+        <v>55795</v>
       </c>
       <c r="B207" t="n">
         <v>2</v>
@@ -3753,44 +3753,44 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>55148</v>
+        <v>55891</v>
       </c>
       <c r="B208" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>45889</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>55499</v>
+        <v>55894</v>
       </c>
       <c r="B209" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45898</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>55688</v>
+        <v>56211</v>
       </c>
       <c r="B210" t="n">
         <v>2</v>
@@ -3801,124 +3801,124 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45916</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>55790</v>
+        <v>56213</v>
       </c>
       <c r="B211" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45894</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>55795</v>
+        <v>56214</v>
       </c>
       <c r="B212" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>45926</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>55891</v>
+        <v>56784</v>
       </c>
       <c r="B213" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>45902</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>55894</v>
+        <v>56931</v>
       </c>
       <c r="B214" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>45917</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>56211</v>
+        <v>56937</v>
       </c>
       <c r="B215" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>45922</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>56213</v>
+        <v>57570</v>
       </c>
       <c r="B216" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>45925</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>56214</v>
+        <v>57631</v>
       </c>
       <c r="B217" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>45891</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>56784</v>
+        <v>57739</v>
       </c>
       <c r="B218" t="n">
         <v>2</v>
@@ -3929,12 +3929,12 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>45926</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>56931</v>
+        <v>57819</v>
       </c>
       <c r="B219" t="n">
         <v>9</v>
@@ -3945,12 +3945,12 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>45896</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>56937</v>
+        <v>58383</v>
       </c>
       <c r="B220" t="n">
         <v>9</v>
@@ -3961,44 +3961,44 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>45905</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>57570</v>
+        <v>58428</v>
       </c>
       <c r="B221" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>45904</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>57631</v>
+        <v>58579</v>
       </c>
       <c r="B222" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>45923</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>57739</v>
+        <v>58586</v>
       </c>
       <c r="B223" t="n">
         <v>2</v>
@@ -4009,28 +4009,28 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>45917</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>57819</v>
+        <v>58587</v>
       </c>
       <c r="B224" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>45905</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>58378</v>
+        <v>58980</v>
       </c>
       <c r="B225" t="n">
         <v>9</v>
@@ -4041,12 +4041,12 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>45896</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>58383</v>
+        <v>58987</v>
       </c>
       <c r="B226" t="n">
         <v>9</v>
@@ -4057,12 +4057,12 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>45910</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>58428</v>
+        <v>59067</v>
       </c>
       <c r="B227" t="n">
         <v>2</v>
@@ -4073,19 +4073,19 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>45915</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>58579</v>
+        <v>59290</v>
       </c>
       <c r="B228" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D228" s="2" t="n">
@@ -4094,7 +4094,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>58586</v>
+        <v>59293</v>
       </c>
       <c r="B229" t="n">
         <v>2</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>58587</v>
+        <v>59737</v>
       </c>
       <c r="B230" t="n">
         <v>2</v>
@@ -4121,28 +4121,28 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>58590</v>
+        <v>59743</v>
       </c>
       <c r="B231" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>45922</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>58980</v>
+        <v>59744</v>
       </c>
       <c r="B232" t="n">
         <v>9</v>
@@ -4153,44 +4153,44 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>45894</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>58987</v>
+        <v>59751</v>
       </c>
       <c r="B233" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>45904</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>59067</v>
+        <v>59890</v>
       </c>
       <c r="B234" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>45919</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>59290</v>
+        <v>59896</v>
       </c>
       <c r="B235" t="n">
         <v>2</v>
@@ -4201,28 +4201,28 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>45909</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>59293</v>
+        <v>59900</v>
       </c>
       <c r="B236" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>45915</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>59737</v>
+        <v>59908</v>
       </c>
       <c r="B237" t="n">
         <v>2</v>
@@ -4233,12 +4233,12 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>45923</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>59743</v>
+        <v>60149</v>
       </c>
       <c r="B238" t="n">
         <v>9</v>
@@ -4249,12 +4249,12 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>45894</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>59744</v>
+        <v>60374</v>
       </c>
       <c r="B239" t="n">
         <v>9</v>
@@ -4265,12 +4265,12 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>59751</v>
+        <v>60612</v>
       </c>
       <c r="B240" t="n">
         <v>2</v>
@@ -4281,12 +4281,12 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>45929</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>59890</v>
+        <v>60623</v>
       </c>
       <c r="B241" t="n">
         <v>9</v>
@@ -4297,28 +4297,28 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>45908</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>59896</v>
+        <v>60679</v>
       </c>
       <c r="B242" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>45923</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>59900</v>
+        <v>60738</v>
       </c>
       <c r="B243" t="n">
         <v>9</v>
@@ -4329,12 +4329,12 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>45904</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>59908</v>
+        <v>60743</v>
       </c>
       <c r="B244" t="n">
         <v>2</v>
@@ -4345,28 +4345,28 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>45919</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>60149</v>
+        <v>60872</v>
       </c>
       <c r="B245" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>45903</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>60374</v>
+        <v>60873</v>
       </c>
       <c r="B246" t="n">
         <v>9</v>
@@ -4377,12 +4377,12 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>60612</v>
+        <v>60874</v>
       </c>
       <c r="B247" t="n">
         <v>2</v>
@@ -4393,60 +4393,60 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>45925</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>60623</v>
+        <v>60882</v>
       </c>
       <c r="B248" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>45905</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>60679</v>
+        <v>61067</v>
       </c>
       <c r="B249" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>45903</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>60738</v>
+        <v>61285</v>
       </c>
       <c r="B250" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>45898</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>60743</v>
+        <v>61286</v>
       </c>
       <c r="B251" t="n">
         <v>2</v>
@@ -4457,12 +4457,12 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>45917</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>60872</v>
+        <v>61248</v>
       </c>
       <c r="B252" t="n">
         <v>2</v>
@@ -4473,12 +4473,12 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>45930</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>60873</v>
+        <v>61528</v>
       </c>
       <c r="B253" t="n">
         <v>9</v>
@@ -4489,12 +4489,12 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>45905</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>60874</v>
+        <v>61483</v>
       </c>
       <c r="B254" t="n">
         <v>2</v>
@@ -4505,60 +4505,60 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>45923</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>60882</v>
+        <v>61920</v>
       </c>
       <c r="B255" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>45922</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>61067</v>
+        <v>61927</v>
       </c>
       <c r="B256" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>45915</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>61285</v>
+        <v>61928</v>
       </c>
       <c r="B257" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>45926</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>61286</v>
+        <v>62050</v>
       </c>
       <c r="B258" t="n">
         <v>2</v>
@@ -4569,60 +4569,60 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>45909</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>61248</v>
+        <v>62128</v>
       </c>
       <c r="B259" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>45926</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>61528</v>
+        <v>62348</v>
       </c>
       <c r="B260" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>45897</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>61483</v>
+        <v>62213</v>
       </c>
       <c r="B261" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>45925</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>61920</v>
+        <v>62214</v>
       </c>
       <c r="B262" t="n">
         <v>9</v>
@@ -4633,92 +4633,92 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>45898</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>61927</v>
+        <v>62353</v>
       </c>
       <c r="B263" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>45905</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>61928</v>
+        <v>62619</v>
       </c>
       <c r="B264" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>45888</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>62050</v>
+        <v>62855</v>
       </c>
       <c r="B265" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>45915</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>62128</v>
+        <v>63040</v>
       </c>
       <c r="B266" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>45902</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>62348</v>
+        <v>63048</v>
       </c>
       <c r="B267" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>45889</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>62213</v>
+        <v>63052</v>
       </c>
       <c r="B268" t="n">
         <v>9</v>
@@ -4729,44 +4729,44 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>45905</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>62214</v>
+        <v>63061</v>
       </c>
       <c r="B269" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>45905</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>62353</v>
+        <v>63841</v>
       </c>
       <c r="B270" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>45918</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>62619</v>
+        <v>63843</v>
       </c>
       <c r="B271" t="n">
         <v>9</v>
@@ -4777,76 +4777,76 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>45896</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>62855</v>
+        <v>63957</v>
       </c>
       <c r="B272" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>45908</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>62965</v>
+        <v>64120</v>
       </c>
       <c r="B273" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>45891</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>63040</v>
+        <v>64625</v>
       </c>
       <c r="B274" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>45889</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>63048</v>
+        <v>64510</v>
       </c>
       <c r="B275" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>45918</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>63052</v>
+        <v>64629</v>
       </c>
       <c r="B276" t="n">
         <v>9</v>
@@ -4857,12 +4857,12 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>45891</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>63061</v>
+        <v>64631</v>
       </c>
       <c r="B277" t="n">
         <v>2</v>
@@ -4873,44 +4873,44 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>45923</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>63841</v>
+        <v>65332</v>
       </c>
       <c r="B278" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>45903</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>63843</v>
+        <v>65918</v>
       </c>
       <c r="B279" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>45904</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>63952</v>
+        <v>66043</v>
       </c>
       <c r="B280" t="n">
         <v>9</v>
@@ -4921,28 +4921,28 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>45909</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>63957</v>
+        <v>66114</v>
       </c>
       <c r="B281" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>45923</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>64120</v>
+        <v>66115</v>
       </c>
       <c r="B282" t="n">
         <v>2</v>
@@ -4953,12 +4953,12 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>45930</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>64625</v>
+        <v>66344</v>
       </c>
       <c r="B283" t="n">
         <v>2</v>
@@ -4969,28 +4969,28 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>45918</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>64510</v>
+        <v>66348</v>
       </c>
       <c r="B284" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>45896</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>64629</v>
+        <v>66166</v>
       </c>
       <c r="B285" t="n">
         <v>9</v>
@@ -5001,28 +5001,28 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>45905</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>64631</v>
+        <v>66167</v>
       </c>
       <c r="B286" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>45912</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>65332</v>
+        <v>66349</v>
       </c>
       <c r="B287" t="n">
         <v>2</v>
@@ -5033,28 +5033,28 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>65918</v>
+        <v>66173</v>
       </c>
       <c r="B288" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>45925</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>66043</v>
+        <v>66600</v>
       </c>
       <c r="B289" t="n">
         <v>9</v>
@@ -5070,39 +5070,39 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>66114</v>
+        <v>66944</v>
       </c>
       <c r="B290" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>45891</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>66115</v>
+        <v>66947</v>
       </c>
       <c r="B291" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>45926</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>66344</v>
+        <v>66615</v>
       </c>
       <c r="B292" t="n">
         <v>2</v>
@@ -5113,28 +5113,28 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>45912</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>66348</v>
+        <v>66617</v>
       </c>
       <c r="B293" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>45915</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>66166</v>
+        <v>66952</v>
       </c>
       <c r="B294" t="n">
         <v>9</v>
@@ -5145,12 +5145,12 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>45897</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>66167</v>
+        <v>66677</v>
       </c>
       <c r="B295" t="n">
         <v>9</v>
@@ -5161,44 +5161,44 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>45904</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>66349</v>
+        <v>66734</v>
       </c>
       <c r="B296" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>45915</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>66173</v>
+        <v>66839</v>
       </c>
       <c r="B297" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>45895</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>66600</v>
+        <v>66959</v>
       </c>
       <c r="B298" t="n">
         <v>9</v>
@@ -5209,44 +5209,44 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>45891</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>66944</v>
+        <v>66960</v>
       </c>
       <c r="B299" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>45888</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>66947</v>
+        <v>66961</v>
       </c>
       <c r="B300" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>45904</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>66615</v>
+        <v>66843</v>
       </c>
       <c r="B301" t="n">
         <v>2</v>
@@ -5257,44 +5257,44 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>45926</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>66617</v>
+        <v>67300</v>
       </c>
       <c r="B302" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>45897</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>66952</v>
+        <v>67634</v>
       </c>
       <c r="B303" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>66677</v>
+        <v>67518</v>
       </c>
       <c r="B304" t="n">
         <v>9</v>
@@ -5305,28 +5305,28 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>45894</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>66734</v>
+        <v>67551</v>
       </c>
       <c r="B305" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>45903</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>66839</v>
+        <v>67689</v>
       </c>
       <c r="B306" t="n">
         <v>2</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>66959</v>
+        <v>67635</v>
       </c>
       <c r="B307" t="n">
         <v>9</v>
@@ -5353,12 +5353,12 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>45896</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>66960</v>
+        <v>68466</v>
       </c>
       <c r="B308" t="n">
         <v>9</v>
@@ -5369,44 +5369,44 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>45911</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>66961</v>
+        <v>67637</v>
       </c>
       <c r="B309" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>45924</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>66843</v>
+        <v>67638</v>
       </c>
       <c r="B310" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>45912</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>67300</v>
+        <v>68179</v>
       </c>
       <c r="B311" t="n">
         <v>2</v>
@@ -5417,12 +5417,12 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>67634</v>
+        <v>68186</v>
       </c>
       <c r="B312" t="n">
         <v>2</v>
@@ -5433,60 +5433,60 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>45912</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>67518</v>
+        <v>68323</v>
       </c>
       <c r="B313" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>45897</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>67551</v>
+        <v>68419</v>
       </c>
       <c r="B314" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>45915</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>67689</v>
+        <v>68093</v>
       </c>
       <c r="B315" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>45917</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>67635</v>
+        <v>68420</v>
       </c>
       <c r="B316" t="n">
         <v>9</v>
@@ -5497,44 +5497,44 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>45901</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>68466</v>
+        <v>68743</v>
       </c>
       <c r="B317" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>45891</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>67637</v>
+        <v>68744</v>
       </c>
       <c r="B318" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>67638</v>
+        <v>68745</v>
       </c>
       <c r="B319" t="n">
         <v>9</v>
@@ -5545,28 +5545,28 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>45903</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>68179</v>
+        <v>68748</v>
       </c>
       <c r="B320" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>45922</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>68186</v>
+        <v>68751</v>
       </c>
       <c r="B321" t="n">
         <v>2</v>
@@ -5577,12 +5577,12 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>45917</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>68323</v>
+        <v>68754</v>
       </c>
       <c r="B322" t="n">
         <v>2</v>
@@ -5593,12 +5593,12 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>45910</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>68419</v>
+        <v>68846</v>
       </c>
       <c r="B323" t="n">
         <v>7</v>
@@ -5609,44 +5609,44 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>45889</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>68093</v>
+        <v>68902</v>
       </c>
       <c r="B324" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>45895</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>68420</v>
+        <v>69641</v>
       </c>
       <c r="B325" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>45894</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>68743</v>
+        <v>69656</v>
       </c>
       <c r="B326" t="n">
         <v>2</v>
@@ -5662,71 +5662,71 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>68744</v>
+        <v>69762</v>
       </c>
       <c r="B327" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>45890</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>68745</v>
+        <v>69913</v>
       </c>
       <c r="B328" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>45891</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>68748</v>
+        <v>70334</v>
       </c>
       <c r="B329" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>45908</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>68751</v>
+        <v>70335</v>
       </c>
       <c r="B330" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>45930</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>68754</v>
+        <v>70300</v>
       </c>
       <c r="B331" t="n">
         <v>2</v>
@@ -5737,124 +5737,124 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>45930</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>68846</v>
+        <v>70341</v>
       </c>
       <c r="B332" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>45888</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>68902</v>
+        <v>70699</v>
       </c>
       <c r="B333" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>45922</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>69641</v>
+        <v>70870</v>
       </c>
       <c r="B334" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>45910</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>69656</v>
+        <v>71055</v>
       </c>
       <c r="B335" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>45924</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>69762</v>
+        <v>71056</v>
       </c>
       <c r="B336" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>45901</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>69913</v>
+        <v>71062</v>
       </c>
       <c r="B337" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>45916</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>70334</v>
+        <v>71169</v>
       </c>
       <c r="B338" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>45890</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>70335</v>
+        <v>71171</v>
       </c>
       <c r="B339" t="n">
         <v>9</v>
@@ -5865,12 +5865,12 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>45909</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>70300</v>
+        <v>71249</v>
       </c>
       <c r="B340" t="n">
         <v>2</v>
@@ -5881,44 +5881,44 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>45912</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>70341</v>
+        <v>71418</v>
       </c>
       <c r="B341" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>45904</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>70699</v>
+        <v>71422</v>
       </c>
       <c r="B342" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>45905</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>70870</v>
+        <v>71428</v>
       </c>
       <c r="B343" t="n">
         <v>9</v>
@@ -5934,7 +5934,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>71055</v>
+        <v>71654</v>
       </c>
       <c r="B344" t="n">
         <v>9</v>
@@ -5945,12 +5945,12 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>45897</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>71056</v>
+        <v>71777</v>
       </c>
       <c r="B345" t="n">
         <v>2</v>
@@ -5961,44 +5961,44 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>45930</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>71062</v>
+        <v>71781</v>
       </c>
       <c r="B346" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>45908</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>71169</v>
+        <v>71988</v>
       </c>
       <c r="B347" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>45903</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>71171</v>
+        <v>72006</v>
       </c>
       <c r="B348" t="n">
         <v>9</v>
@@ -6009,60 +6009,60 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>45898</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>71249</v>
+        <v>72000</v>
       </c>
       <c r="B349" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>45918</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>71418</v>
+        <v>72190</v>
       </c>
       <c r="B350" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>45889</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>71422</v>
+        <v>72532</v>
       </c>
       <c r="B351" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>45925</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>71428</v>
+        <v>72657</v>
       </c>
       <c r="B352" t="n">
         <v>9</v>
@@ -6073,44 +6073,44 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>45909</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>71654</v>
+        <v>72658</v>
       </c>
       <c r="B353" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>45894</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>71777</v>
+        <v>72743</v>
       </c>
       <c r="B354" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>45916</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>71781</v>
+        <v>72979</v>
       </c>
       <c r="B355" t="n">
         <v>2</v>
@@ -6121,12 +6121,12 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>45917</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>71988</v>
+        <v>72980</v>
       </c>
       <c r="B356" t="n">
         <v>2</v>
@@ -6137,28 +6137,28 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>45924</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>72006</v>
+        <v>72982</v>
       </c>
       <c r="B357" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>45903</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>72000</v>
+        <v>73350</v>
       </c>
       <c r="B358" t="n">
         <v>9</v>
@@ -6169,44 +6169,44 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>45902</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>72190</v>
+        <v>73441</v>
       </c>
       <c r="B359" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>45915</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>72532</v>
+        <v>73442</v>
       </c>
       <c r="B360" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>45890</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>72657</v>
+        <v>73464</v>
       </c>
       <c r="B361" t="n">
         <v>9</v>
@@ -6222,7 +6222,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>72658</v>
+        <v>73490</v>
       </c>
       <c r="B362" t="n">
         <v>2</v>
@@ -6233,44 +6233,44 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>45925</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>72743</v>
+        <v>73531</v>
       </c>
       <c r="B363" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>72979</v>
+        <v>73693</v>
       </c>
       <c r="B364" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>45923</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>72980</v>
+        <v>73740</v>
       </c>
       <c r="B365" t="n">
         <v>2</v>
@@ -6281,92 +6281,92 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>45925</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>72982</v>
+        <v>73742</v>
       </c>
       <c r="B366" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>45919</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>73350</v>
+        <v>73847</v>
       </c>
       <c r="B367" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>45896</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>73441</v>
+        <v>73848</v>
       </c>
       <c r="B368" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>45898</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>73442</v>
+        <v>74002</v>
       </c>
       <c r="B369" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>45909</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>73443</v>
+        <v>74003</v>
       </c>
       <c r="B370" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>45890</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>73464</v>
+        <v>74067</v>
       </c>
       <c r="B371" t="n">
         <v>9</v>
@@ -6377,108 +6377,108 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>45897</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>73490</v>
+        <v>74394</v>
       </c>
       <c r="B372" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>45916</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>73531</v>
+        <v>74397</v>
       </c>
       <c r="B373" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>45926</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>73693</v>
+        <v>74398</v>
       </c>
       <c r="B374" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>45901</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>73740</v>
+        <v>74491</v>
       </c>
       <c r="B375" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>45915</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>73742</v>
+        <v>74512</v>
       </c>
       <c r="B376" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>45896</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>73847</v>
+        <v>74514</v>
       </c>
       <c r="B377" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>45919</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>73848</v>
+        <v>74517</v>
       </c>
       <c r="B378" t="n">
         <v>2</v>
@@ -6489,12 +6489,12 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>45917</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>74002</v>
+        <v>74520</v>
       </c>
       <c r="B379" t="n">
         <v>2</v>
@@ -6505,12 +6505,12 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>45915</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>74003</v>
+        <v>74885</v>
       </c>
       <c r="B380" t="n">
         <v>2</v>
@@ -6521,12 +6521,12 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>45926</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>74067</v>
+        <v>74886</v>
       </c>
       <c r="B381" t="n">
         <v>9</v>
@@ -6537,28 +6537,28 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>45902</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>74394</v>
+        <v>74825</v>
       </c>
       <c r="B382" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>45897</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>74397</v>
+        <v>74827</v>
       </c>
       <c r="B383" t="n">
         <v>9</v>
@@ -6569,44 +6569,44 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>45908</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>74398</v>
+        <v>74949</v>
       </c>
       <c r="B384" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>45890</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>74491</v>
+        <v>75122</v>
       </c>
       <c r="B385" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>45903</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>74512</v>
+        <v>74970</v>
       </c>
       <c r="B386" t="n">
         <v>2</v>
@@ -6617,12 +6617,12 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>45919</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>74514</v>
+        <v>75123</v>
       </c>
       <c r="B387" t="n">
         <v>9</v>
@@ -6633,28 +6633,28 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>45912</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>74517</v>
+        <v>74971</v>
       </c>
       <c r="B388" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>45922</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>74520</v>
+        <v>75124</v>
       </c>
       <c r="B389" t="n">
         <v>2</v>
@@ -6665,12 +6665,12 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>74885</v>
+        <v>75126</v>
       </c>
       <c r="B390" t="n">
         <v>2</v>
@@ -6681,76 +6681,76 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>45922</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>74886</v>
+        <v>75298</v>
       </c>
       <c r="B391" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>45908</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>74825</v>
+        <v>75300</v>
       </c>
       <c r="B392" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>45929</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>74827</v>
+        <v>75302</v>
       </c>
       <c r="B393" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>45911</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>74949</v>
+        <v>75327</v>
       </c>
       <c r="B394" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>45894</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>75122</v>
+        <v>75357</v>
       </c>
       <c r="B395" t="n">
         <v>4</v>
@@ -6761,44 +6761,44 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>45890</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>74970</v>
+        <v>75358</v>
       </c>
       <c r="B396" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>45929</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>75123</v>
+        <v>75365</v>
       </c>
       <c r="B397" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>74971</v>
+        <v>75483</v>
       </c>
       <c r="B398" t="n">
         <v>9</v>
@@ -6809,12 +6809,12 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>45903</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>75124</v>
+        <v>75493</v>
       </c>
       <c r="B399" t="n">
         <v>2</v>
@@ -6825,28 +6825,28 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>45923</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>75126</v>
+        <v>75769</v>
       </c>
       <c r="B400" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>45919</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>75298</v>
+        <v>75742</v>
       </c>
       <c r="B401" t="n">
         <v>2</v>
@@ -6857,156 +6857,156 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>45930</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>75300</v>
+        <v>75985</v>
       </c>
       <c r="B402" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>45897</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>75302</v>
+        <v>76082</v>
       </c>
       <c r="B403" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>45917</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>75327</v>
+        <v>76223</v>
       </c>
       <c r="B404" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>45916</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>75357</v>
+        <v>76405</v>
       </c>
       <c r="B405" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>45888</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>75358</v>
+        <v>76408</v>
       </c>
       <c r="B406" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>45909</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>75365</v>
+        <v>76498</v>
       </c>
       <c r="B407" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>45915</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>75483</v>
+        <v>76533</v>
       </c>
       <c r="B408" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>45896</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>75493</v>
+        <v>76577</v>
       </c>
       <c r="B409" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>45926</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>75769</v>
+        <v>76653</v>
       </c>
       <c r="B410" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>45909</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>75742</v>
+        <v>76710</v>
       </c>
       <c r="B411" t="n">
         <v>2</v>
@@ -7017,12 +7017,12 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>45929</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>75985</v>
+        <v>76786</v>
       </c>
       <c r="B412" t="n">
         <v>2</v>
@@ -7033,60 +7033,60 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>45919</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>76082</v>
+        <v>76788</v>
       </c>
       <c r="B413" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>45911</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>76223</v>
+        <v>76881</v>
       </c>
       <c r="B414" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>45889</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>76405</v>
+        <v>76880</v>
       </c>
       <c r="B415" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>45919</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>76408</v>
+        <v>76939</v>
       </c>
       <c r="B416" t="n">
         <v>2</v>
@@ -7097,12 +7097,12 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>45916</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>76498</v>
+        <v>76945</v>
       </c>
       <c r="B417" t="n">
         <v>9</v>
@@ -7113,44 +7113,44 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>76533</v>
+        <v>77125</v>
       </c>
       <c r="B418" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>45919</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>76577</v>
+        <v>77216</v>
       </c>
       <c r="B419" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>45908</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>76653</v>
+        <v>77439</v>
       </c>
       <c r="B420" t="n">
         <v>2</v>
@@ -7161,60 +7161,60 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>45912</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>76710</v>
+        <v>77600</v>
       </c>
       <c r="B421" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>45930</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>76786</v>
+        <v>77794</v>
       </c>
       <c r="B422" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>45924</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>76788</v>
+        <v>78067</v>
       </c>
       <c r="B423" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>45917</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>76881</v>
+        <v>78069</v>
       </c>
       <c r="B424" t="n">
         <v>2</v>
@@ -7225,12 +7225,12 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>45918</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>76880</v>
+        <v>78235</v>
       </c>
       <c r="B425" t="n">
         <v>9</v>
@@ -7241,12 +7241,12 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>45898</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>76939</v>
+        <v>78236</v>
       </c>
       <c r="B426" t="n">
         <v>2</v>
@@ -7257,12 +7257,12 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>45915</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>76945</v>
+        <v>78237</v>
       </c>
       <c r="B427" t="n">
         <v>9</v>
@@ -7273,28 +7273,28 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>45895</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>77125</v>
+        <v>78414</v>
       </c>
       <c r="B428" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>45897</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>77216</v>
+        <v>78598</v>
       </c>
       <c r="B429" t="n">
         <v>2</v>
@@ -7305,76 +7305,76 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>45918</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>77439</v>
+        <v>78787</v>
       </c>
       <c r="B430" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>45929</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>77600</v>
+        <v>78790</v>
       </c>
       <c r="B431" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>45911</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>77794</v>
+        <v>78791</v>
       </c>
       <c r="B432" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>45888</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>78067</v>
+        <v>79041</v>
       </c>
       <c r="B433" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>45901</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>78069</v>
+        <v>79345</v>
       </c>
       <c r="B434" t="n">
         <v>2</v>
@@ -7385,12 +7385,12 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>45915</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>78235</v>
+        <v>79347</v>
       </c>
       <c r="B435" t="n">
         <v>9</v>
@@ -7401,28 +7401,28 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>45901</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>78236</v>
+        <v>79285</v>
       </c>
       <c r="B436" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>45922</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>78237</v>
+        <v>79282</v>
       </c>
       <c r="B437" t="n">
         <v>9</v>
@@ -7433,12 +7433,12 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>45908</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>78414</v>
+        <v>79283</v>
       </c>
       <c r="B438" t="n">
         <v>2</v>
@@ -7449,12 +7449,12 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>45930</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>78598</v>
+        <v>79525</v>
       </c>
       <c r="B439" t="n">
         <v>2</v>
@@ -7465,28 +7465,28 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>45924</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>78787</v>
+        <v>79526</v>
       </c>
       <c r="B440" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>45890</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>78790</v>
+        <v>79527</v>
       </c>
       <c r="B441" t="n">
         <v>2</v>
@@ -7497,12 +7497,12 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>45930</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>78791</v>
+        <v>79530</v>
       </c>
       <c r="B442" t="n">
         <v>2</v>
@@ -7513,67 +7513,67 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>45916</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>79041</v>
+        <v>79542</v>
       </c>
       <c r="B443" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>45918</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>79345</v>
+        <v>79533</v>
       </c>
       <c r="B444" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>45925</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>79347</v>
+        <v>79534</v>
       </c>
       <c r="B445" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>45909</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>79285</v>
+        <v>79599</v>
       </c>
       <c r="B446" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D446" s="2" t="n">
@@ -7582,39 +7582,39 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>79282</v>
+        <v>79602</v>
       </c>
       <c r="B447" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>45908</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>79283</v>
+        <v>79611</v>
       </c>
       <c r="B448" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>45910</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>79525</v>
+        <v>79531</v>
       </c>
       <c r="B449" t="n">
         <v>2</v>
@@ -7625,12 +7625,12 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>45918</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>79526</v>
+        <v>79607</v>
       </c>
       <c r="B450" t="n">
         <v>2</v>
@@ -7641,28 +7641,28 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>45926</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>79527</v>
+        <v>79608</v>
       </c>
       <c r="B451" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>45918</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>79530</v>
+        <v>79678</v>
       </c>
       <c r="B452" t="n">
         <v>2</v>
@@ -7673,28 +7673,28 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>45930</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>79542</v>
+        <v>79750</v>
       </c>
       <c r="B453" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>45909</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>79533</v>
+        <v>79746</v>
       </c>
       <c r="B454" t="n">
         <v>9</v>
@@ -7705,28 +7705,28 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>79534</v>
+        <v>79932</v>
       </c>
       <c r="B455" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>45890</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>79599</v>
+        <v>79933</v>
       </c>
       <c r="B456" t="n">
         <v>2</v>
@@ -7737,140 +7737,140 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>45925</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>79602</v>
+        <v>79934</v>
       </c>
       <c r="B457" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>45889</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>79611</v>
+        <v>79977</v>
       </c>
       <c r="B458" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>45908</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>79531</v>
+        <v>79978</v>
       </c>
       <c r="B459" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>45916</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>79607</v>
+        <v>79979</v>
       </c>
       <c r="B460" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>45924</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>79608</v>
+        <v>79980</v>
       </c>
       <c r="B461" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>45904</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>79678</v>
+        <v>80115</v>
       </c>
       <c r="B462" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>45912</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>79750</v>
+        <v>80116</v>
       </c>
       <c r="B463" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>45918</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>79746</v>
+        <v>80117</v>
       </c>
       <c r="B464" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>45898</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>79932</v>
+        <v>80118</v>
       </c>
       <c r="B465" t="n">
         <v>9</v>
@@ -7881,28 +7881,28 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>45901</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>79933</v>
+        <v>80238</v>
       </c>
       <c r="B466" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>45918</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>79934</v>
+        <v>80344</v>
       </c>
       <c r="B467" t="n">
         <v>4</v>
@@ -7918,23 +7918,23 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>79977</v>
+        <v>80345</v>
       </c>
       <c r="B468" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>45917</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>79978</v>
+        <v>80346</v>
       </c>
       <c r="B469" t="n">
         <v>9</v>
@@ -7945,12 +7945,12 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>45910</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>79979</v>
+        <v>80348</v>
       </c>
       <c r="B470" t="n">
         <v>9</v>
@@ -7961,60 +7961,60 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>45898</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>79980</v>
+        <v>80351</v>
       </c>
       <c r="B471" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>45917</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>80115</v>
+        <v>80352</v>
       </c>
       <c r="B472" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>45909</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>80116</v>
+        <v>80353</v>
       </c>
       <c r="B473" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>45891</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>80117</v>
+        <v>80428</v>
       </c>
       <c r="B474" t="n">
         <v>2</v>
@@ -8025,12 +8025,12 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>45916</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>80118</v>
+        <v>80430</v>
       </c>
       <c r="B475" t="n">
         <v>9</v>
@@ -8041,246 +8041,86 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>45911</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>80238</v>
+        <v>80431</v>
       </c>
       <c r="B476" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>45902</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>80344</v>
+        <v>80432</v>
       </c>
       <c r="B477" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>45890</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>80345</v>
+        <v>80580</v>
       </c>
       <c r="B478" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>45904</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>80346</v>
+        <v>80582</v>
       </c>
       <c r="B479" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>45895</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>80348</v>
+        <v>80657</v>
       </c>
       <c r="B480" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>45903</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="n">
-        <v>80351</v>
-      </c>
-      <c r="B481" t="n">
-        <v>9</v>
-      </c>
-      <c r="C481" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D481" s="2" t="n">
-        <v>45891</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="n">
-        <v>80352</v>
-      </c>
-      <c r="B482" t="n">
-        <v>2</v>
-      </c>
-      <c r="C482" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D482" s="2" t="n">
-        <v>45917</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="n">
-        <v>80353</v>
-      </c>
-      <c r="B483" t="n">
-        <v>2</v>
-      </c>
-      <c r="C483" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D483" s="2" t="n">
-        <v>45916</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="n">
-        <v>80428</v>
-      </c>
-      <c r="B484" t="n">
-        <v>2</v>
-      </c>
-      <c r="C484" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D484" s="2" t="n">
-        <v>45930</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="n">
-        <v>80430</v>
-      </c>
-      <c r="B485" t="n">
-        <v>9</v>
-      </c>
-      <c r="C485" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D485" s="2" t="n">
-        <v>45891</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="n">
-        <v>80431</v>
-      </c>
-      <c r="B486" t="n">
-        <v>2</v>
-      </c>
-      <c r="C486" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D486" s="2" t="n">
-        <v>45915</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="n">
-        <v>80432</v>
-      </c>
-      <c r="B487" t="n">
-        <v>9</v>
-      </c>
-      <c r="C487" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D487" s="2" t="n">
-        <v>45902</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="n">
-        <v>80580</v>
-      </c>
-      <c r="B488" t="n">
-        <v>2</v>
-      </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D488" s="2" t="n">
-        <v>45926</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="n">
-        <v>80582</v>
-      </c>
-      <c r="B489" t="n">
-        <v>4</v>
-      </c>
-      <c r="C489" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="D489" s="2" t="n">
-        <v>45890</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="n">
-        <v>80657</v>
-      </c>
-      <c r="B490" t="n">
-        <v>2</v>
-      </c>
-      <c r="C490" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D490" s="2" t="n">
         <v>45924</v>
       </c>
     </row>
@@ -8322,7 +8162,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3">
@@ -8332,7 +8172,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
@@ -8342,7 +8182,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
+++ b/Resultado/estado_gestion_Paquete_Bogota_1.xlsx
@@ -1009,11 +1009,11 @@
         <v>25146</v>
       </c>
       <c r="B36" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
@@ -1105,11 +1105,11 @@
         <v>27914</v>
       </c>
       <c r="B42" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
@@ -1793,11 +1793,11 @@
         <v>35161</v>
       </c>
       <c r="B85" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
@@ -2161,11 +2161,11 @@
         <v>38783</v>
       </c>
       <c r="B108" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
@@ -2449,11 +2449,11 @@
         <v>43670</v>
       </c>
       <c r="B126" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
@@ -2801,11 +2801,11 @@
         <v>47169</v>
       </c>
       <c r="B148" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D148" s="2" t="n">
@@ -4913,11 +4913,11 @@
         <v>66043</v>
       </c>
       <c r="B280" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D280" s="2" t="n">
@@ -5361,11 +5361,11 @@
         <v>68466</v>
       </c>
       <c r="B308" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D308" s="2" t="n">
@@ -5537,11 +5537,11 @@
         <v>68745</v>
       </c>
       <c r="B319" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D319" s="2" t="n">
@@ -7969,11 +7969,11 @@
         <v>80351</v>
       </c>
       <c r="B471" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D471" s="2" t="n">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4">
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -8192,7 +8192,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
